--- a/Documents/Performance_Analysis.xlsx
+++ b/Documents/Performance_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ao/Desktop/graduate-Ao/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C9DA7-7B55-7341-A794-04D7E6241E76}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98FB71-4DF3-3149-8448-39642A857996}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1340" windowWidth="28040" windowHeight="17440" xr2:uid="{91479095-4496-A54A-8A57-787D87B1B809}"/>
+    <workbookView xWindow="6880" yWindow="1880" windowWidth="28040" windowHeight="17440" xr2:uid="{91479095-4496-A54A-8A57-787D87B1B809}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
-  <si>
-    <t>PHI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>Type</t>
   </si>
@@ -138,35 +135,92 @@
     <t>Original_90</t>
   </si>
   <si>
-    <t>Train_90</t>
-  </si>
-  <si>
     <t>Original_80</t>
   </si>
   <si>
-    <t>Train_80</t>
-  </si>
-  <si>
-    <t>Train_70</t>
-  </si>
-  <si>
     <t>Original_70</t>
   </si>
   <si>
-    <t>Train_60</t>
-  </si>
-  <si>
     <t>Original_50</t>
   </si>
   <si>
-    <t>Train_50</t>
+    <t>HMS-Scrubber</t>
+  </si>
+  <si>
+    <t>DE-ID</t>
+  </si>
+  <si>
+    <t>Hospital(624)+Location(87)</t>
+  </si>
+  <si>
+    <t>**hosipital(179)+street address(9)+location(132)</t>
+  </si>
+  <si>
+    <t>Doctor+Patient</t>
+  </si>
+  <si>
+    <t>Doctor(879)+Patient(181)</t>
+  </si>
+  <si>
+    <t>**First Name(85)+Initials (NamePattern4)(32)+Last Name(197)</t>
+  </si>
+  <si>
+    <t>**telephone</t>
+  </si>
+  <si>
+    <t>**age</t>
+  </si>
+  <si>
+    <t>Test_90</t>
+  </si>
+  <si>
+    <t>Test_80</t>
+  </si>
+  <si>
+    <t>Test_70</t>
+  </si>
+  <si>
+    <t>Test_60</t>
+  </si>
+  <si>
+    <t>Test_50</t>
+  </si>
+  <si>
+    <t>Location(7)+Hospital(72)</t>
+  </si>
+  <si>
+    <t>PHI-Reducer</t>
+  </si>
+  <si>
+    <t>**PHIName</t>
+  </si>
+  <si>
+    <t>Doctor+Patient+Hospital+Location</t>
+  </si>
+  <si>
+    <t>Hospital(507)+Location(87)+Doctor(879)+Patient(180)</t>
+  </si>
+  <si>
+    <t>Location(9)+Hospital(73)+Doctor(68)+Patient(22)</t>
+  </si>
+  <si>
+    <t>Location(38)+Hospital(312)+Doctor(430)+Patient(88)</t>
+  </si>
+  <si>
+    <t>Location(30)+Hospital(270)+Doctor(350)+Patient(67)</t>
+  </si>
+  <si>
+    <t>Location(24)+Hospital(193)+Doctor(247)+Patient(46)</t>
+  </si>
+  <si>
+    <t>Location(25)+Hospital(132)+Doctor(167)+Patient(39)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,6 +278,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -275,6 +334,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,13 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DD6379-5945-AF45-9211-A3F473726351}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
@@ -607,55 +667,136 @@
     <col min="8" max="8" width="10.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="10.83203125" style="2"/>
+    <col min="12" max="12" width="16.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="14" width="12.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="54.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.1640625" style="2" customWidth="1"/>
+    <col min="19" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="2"/>
+    <col min="23" max="23" width="30" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" style="2"/>
+    <col min="25" max="25" width="13.33203125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="34.33203125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" style="2" customWidth="1"/>
+    <col min="30" max="31" width="10.83203125" style="2"/>
+    <col min="32" max="32" width="45.6640625" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="W1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="L2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="B3" s="10">
         <v>879</v>
@@ -664,7 +805,7 @@
         <v>917</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10">
         <v>575</v>
@@ -683,19 +824,85 @@
         <f>TEXT(E3/(E3+F3),"0.00%")</f>
         <v>62.70%</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1060</v>
+      </c>
+      <c r="N3" s="10">
+        <v>314</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="10">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>278</v>
+      </c>
+      <c r="R3" s="10">
+        <f>M3-P3</f>
+        <v>1024</v>
+      </c>
+      <c r="S3" s="10" t="str">
+        <f>TEXT(P3/M3,"0.00%")</f>
+        <v>3.40%</v>
+      </c>
+      <c r="T3" s="10" t="str">
+        <f>TEXT(P3/N3,"0.00%")</f>
+        <v>11.46%</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="10">
+        <v>1653</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>6853</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>691</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>6168</v>
+      </c>
+      <c r="AC3" s="10">
+        <f>X3-AA3</f>
+        <v>962</v>
+      </c>
+      <c r="AD3" s="10" t="str">
+        <f>TEXT(AA3/X3,"0.00%")</f>
+        <v>41.80%</v>
+      </c>
+      <c r="AE3" s="10" t="str">
+        <f>TEXT(AA3/Y3,"0.00%")</f>
+        <v>10.08%</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C4" s="10">
         <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10">
         <v>114</v>
@@ -708,19 +915,61 @@
       </c>
       <c r="H4" s="11" t="str">
         <f t="shared" ref="H4" si="0">TEXT(E4/B4,"0.00%")</f>
-        <v>15.99%</v>
+        <v>16.03%</v>
       </c>
       <c r="I4" s="10" t="str">
         <f t="shared" ref="I4" si="1">TEXT(E4/(E4+F4),"0.00%")</f>
         <v>89.06%</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="10">
+        <v>711</v>
+      </c>
+      <c r="N4" s="10">
+        <v>320</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="10">
+        <v>298</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>22</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" ref="R4:R6" si="2">M4-P4</f>
+        <v>413</v>
+      </c>
+      <c r="S4" s="10" t="str">
+        <f t="shared" ref="S4:S6" si="3">TEXT(P4/M4,"0.00%")</f>
+        <v>41.91%</v>
+      </c>
+      <c r="T4" s="10" t="str">
+        <f t="shared" ref="T4:T6" si="4">TEXT(P4/N4,"0.00%")</f>
+        <v>93.13%</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="9"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="10">
         <v>181</v>
@@ -738,26 +987,64 @@
         <v>181</v>
       </c>
       <c r="H5" s="11" t="str">
-        <f t="shared" ref="H5:H17" si="2">TEXT(E5/B5,"0.00%")</f>
+        <f t="shared" ref="H5:H17" si="5">TEXT(E5/B5,"0.00%")</f>
         <v>0.00%</v>
       </c>
       <c r="I5" s="10" t="e">
-        <f t="shared" ref="I5:I17" si="3">TEXT(E5/(E5+F5),"0.00%")</f>
+        <f t="shared" ref="I5:I17" si="6">TEXT(E5/(E5+F5),"0.00%")</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="10">
+        <v>35</v>
+      </c>
+      <c r="N5" s="10">
+        <v>179</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="10">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>145</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S5" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>97.14%</v>
+      </c>
+      <c r="T5" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>18.99%</v>
+      </c>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="10">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="C6" s="10">
         <v>1712</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="10">
         <v>1556</v>
@@ -769,17 +1056,55 @@
         <v>384</v>
       </c>
       <c r="H6" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>80.41%</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>90.89%</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="10">
+        <v>4</v>
+      </c>
+      <c r="N6" s="10">
+        <v>4</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>4</v>
+      </c>
+      <c r="R6" s="10">
         <f t="shared" si="2"/>
-        <v>80.21%</v>
-      </c>
-      <c r="I6" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>90.89%</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>100.00%</v>
+      </c>
+      <c r="T6" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>100.00%</v>
+      </c>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="10">
         <v>1083</v>
@@ -788,7 +1113,7 @@
         <v>579</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10">
         <v>560</v>
@@ -800,17 +1125,33 @@
         <v>523</v>
       </c>
       <c r="H7" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>51.71%</v>
       </c>
       <c r="I7" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>96.72%</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10">
         <v>35</v>
@@ -819,7 +1160,7 @@
         <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10">
         <v>33</v>
@@ -831,17 +1172,33 @@
         <v>2</v>
       </c>
       <c r="H8" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>94.29%</v>
       </c>
       <c r="I8" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18.64%</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10">
         <v>4</v>
@@ -850,7 +1207,7 @@
         <v>509</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="10">
         <v>3</v>
@@ -862,234 +1219,886 @@
         <v>1</v>
       </c>
       <c r="H9" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>75.00%</v>
       </c>
       <c r="I9" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.59%</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+    </row>
+    <row r="10" spans="1:32">
       <c r="B10" s="10">
         <f>SUM(B3:B9)</f>
-        <v>4835</v>
+        <v>4828</v>
       </c>
       <c r="C10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.00%</v>
       </c>
       <c r="I10" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32">
       <c r="B11" s="10"/>
       <c r="C11" s="10">
         <v>841</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="C12" s="10">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="C13" s="10">
         <v>117</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I13" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="10">
+        <v>79</v>
+      </c>
+      <c r="N13" s="10">
+        <v>31</v>
+      </c>
+      <c r="P13" s="10">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>1</v>
+      </c>
+      <c r="R13" s="10">
+        <f>M13-P13</f>
+        <v>49</v>
+      </c>
+      <c r="S13" s="10" t="str">
+        <f>TEXT(P13/M13,"0.00%")</f>
+        <v>37.97%</v>
+      </c>
+      <c r="T13" s="10" t="str">
+        <f>TEXT(P13/N13,"0.00%")</f>
+        <v>96.77%</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="10">
+        <v>172</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>568</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>92</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>477</v>
+      </c>
+      <c r="AC13" s="10">
+        <f>X13-AA13</f>
+        <v>80</v>
+      </c>
+      <c r="AD13" s="10" t="str">
+        <f>TEXT(AA13/X13,"0.00%")</f>
+        <v>53.49%</v>
+      </c>
+      <c r="AE13" s="10" t="str">
+        <f>TEXT(AA13/Y13,"0.00%")</f>
+        <v>16.20%</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="C14" s="10">
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M14" s="10">
+        <v>79</v>
+      </c>
+      <c r="N14" s="10">
+        <v>166</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>92</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" ref="R14:R22" si="7">M14-P14</f>
+        <v>5</v>
+      </c>
+      <c r="S14" s="10" t="str">
+        <f t="shared" ref="S14:S22" si="8">TEXT(P14/M14,"0.00%")</f>
+        <v>93.67%</v>
+      </c>
+      <c r="T14" s="10" t="str">
+        <f t="shared" ref="T14:T22" si="9">TEXT(P14/N14,"0.00%")</f>
+        <v>44.58%</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X14" s="10">
+        <v>172</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>643</v>
+      </c>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10">
+        <v>99</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>545</v>
+      </c>
+      <c r="AC14" s="10">
+        <f t="shared" ref="AC14:AC22" si="10">X14-AA14</f>
+        <v>73</v>
+      </c>
+      <c r="AD14" s="10" t="str">
+        <f t="shared" ref="AD14:AD22" si="11">TEXT(AA14/X14,"0.00%")</f>
+        <v>57.56%</v>
+      </c>
+      <c r="AE14" s="10" t="str">
+        <f t="shared" ref="AE14:AE22" si="12">TEXT(AA14/Y14,"0.00%")</f>
+        <v>15.40%</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="C15" s="10">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I15" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="10">
+        <v>692</v>
+      </c>
+      <c r="N15" s="10">
+        <v>70</v>
+      </c>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>4</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="7"/>
+        <v>626</v>
+      </c>
+      <c r="S15" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>9.54%</v>
+      </c>
+      <c r="T15" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>94.29%</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="10">
+        <v>313</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>1307</v>
+      </c>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10">
+        <v>169</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>1140</v>
+      </c>
+      <c r="AC15" s="10">
+        <f>X16-AA15</f>
+        <v>144</v>
+      </c>
+      <c r="AD15" s="10" t="str">
+        <f>TEXT(AA15/X16,"0.00%")</f>
+        <v>53.99%</v>
+      </c>
+      <c r="AE15" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>12.93%</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="C16" s="10">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="10">
+        <v>692</v>
+      </c>
+      <c r="N16" s="10">
+        <v>342</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10">
+        <v>142</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>200</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="7"/>
+        <v>550</v>
+      </c>
+      <c r="S16" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>20.52%</v>
+      </c>
+      <c r="T16" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>41.52%</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X16" s="10">
+        <v>313</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>1425</v>
+      </c>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10">
+        <v>188</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>1239</v>
+      </c>
+      <c r="AC16" s="10">
+        <f>X16-AA16</f>
+        <v>125</v>
+      </c>
+      <c r="AD16" s="10" t="str">
+        <f>TEXT(AA16/X16,"0.00%")</f>
+        <v>60.06%</v>
+      </c>
+      <c r="AE16" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>13.19%</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="C17" s="10">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I17" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="10">
+        <v>217</v>
+      </c>
+      <c r="N17" s="10">
+        <v>90</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>7</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="S17" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>38.25%</v>
+      </c>
+      <c r="T17" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>92.22%</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X17" s="10">
+        <v>510</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>1493</v>
+      </c>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10">
+        <v>240</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>1257</v>
+      </c>
+      <c r="AC17" s="10">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="AD17" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>47.06%</v>
+      </c>
+      <c r="AE17" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>16.08%</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="C18" s="10">
         <v>739</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="10">
+        <v>217</v>
+      </c>
+      <c r="N18" s="10">
+        <v>494</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10">
+        <v>189</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>305</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="S18" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>87.10%</v>
+      </c>
+      <c r="T18" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>38.26%</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X18" s="10">
+        <v>510</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>1720</v>
+      </c>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10">
+        <v>255</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>1467</v>
+      </c>
+      <c r="AC18" s="10">
+        <f t="shared" si="10"/>
+        <v>255</v>
+      </c>
+      <c r="AD18" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>50.00%</v>
+      </c>
+      <c r="AE18" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>14.83%</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="C19" s="10">
         <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="10">
+        <v>300</v>
+      </c>
+      <c r="N19" s="10">
+        <v>117</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>6</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="7"/>
+        <v>189</v>
+      </c>
+      <c r="S19" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>37.00%</v>
+      </c>
+      <c r="T19" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>94.87%</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" s="10">
+        <v>717</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>2057</v>
+      </c>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10">
+        <v>329</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>1730</v>
+      </c>
+      <c r="AC19" s="10">
+        <f t="shared" si="10"/>
+        <v>388</v>
+      </c>
+      <c r="AD19" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>45.89%</v>
+      </c>
+      <c r="AE19" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>15.99%</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="C20" s="10">
         <f>SUM(C3:C19)</f>
         <v>5764</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="10">
+        <v>300</v>
+      </c>
+      <c r="N20" s="10">
+        <v>673</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10">
+        <v>247</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>426</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="S20" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>82.33%</v>
+      </c>
+      <c r="T20" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>36.70%</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" s="10">
+        <v>717</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>2360</v>
+      </c>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10">
+        <v>349</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>2011</v>
+      </c>
+      <c r="AC20" s="10">
+        <f t="shared" si="10"/>
+        <v>368</v>
+      </c>
+      <c r="AD20" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>48.68%</v>
+      </c>
+      <c r="AE20" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>14.79%</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="L21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="10">
+        <v>350</v>
+      </c>
+      <c r="N21" s="10">
+        <v>168</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10">
+        <v>150</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>18</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="S21" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>42.86%</v>
+      </c>
+      <c r="T21" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>89.29%</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X21" s="10">
+        <v>868</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>2473</v>
+      </c>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10">
+        <v>392</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>2083</v>
+      </c>
+      <c r="AC21" s="10">
+        <f t="shared" si="10"/>
+        <v>476</v>
+      </c>
+      <c r="AD21" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>45.16%</v>
+      </c>
+      <c r="AE21" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>15.85%</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="L22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="10">
+        <v>350</v>
+      </c>
+      <c r="N22" s="10">
+        <v>789</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10">
+        <v>313</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>476</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="S22" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v>89.43%</v>
+      </c>
+      <c r="T22" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v>39.67%</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X22" s="10">
+        <v>868</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>2846</v>
+      </c>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10">
+        <v>416</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>2432</v>
+      </c>
+      <c r="AC22" s="10">
+        <f t="shared" si="10"/>
+        <v>452</v>
+      </c>
+      <c r="AD22" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>47.93%</v>
+      </c>
+      <c r="AE22" s="10" t="str">
+        <f t="shared" si="12"/>
+        <v>14.62%</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="A24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="H24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="10">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C25" s="10">
         <v>7</v>
@@ -1102,23 +2111,23 @@
       </c>
       <c r="G25" s="10">
         <f>B25-E25</f>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H25" s="10" t="str">
         <f>TEXT(E25/B25,"0.00%")</f>
-        <v>7.32%</v>
+        <v>7.59%</v>
       </c>
       <c r="I25" s="10" t="str">
         <f>TEXT(E25/(E25+F25),"0.00%")</f>
         <v>85.71%</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B26" s="10">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" s="10">
         <v>143</v>
@@ -1131,21 +2140,21 @@
         <v>98</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" ref="G26:G38" si="4">B26-E26</f>
-        <v>37</v>
+        <f t="shared" ref="G26:G38" si="13">B26-E26</f>
+        <v>34</v>
       </c>
       <c r="H26" s="10" t="str">
-        <f t="shared" ref="H26:H34" si="5">TEXT(E26/B26,"0.00%")</f>
-        <v>54.88%</v>
+        <f t="shared" ref="H26:H34" si="14">TEXT(E26/B26,"0.00%")</f>
+        <v>56.96%</v>
       </c>
       <c r="I26" s="10" t="str">
-        <f t="shared" ref="I26:I34" si="6">TEXT(E26/(E26+F26),"0.00%")</f>
+        <f t="shared" ref="I26:I34" si="15">TEXT(E26/(E26+F26),"0.00%")</f>
         <v>31.47%</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="10">
         <v>157</v>
@@ -1161,21 +2170,21 @@
         <v>0</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>151</v>
       </c>
       <c r="H27" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>3.82%</v>
       </c>
       <c r="I27" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>100.00%</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B28" s="10">
         <v>157</v>
@@ -1191,21 +2200,21 @@
         <v>199</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>88</v>
       </c>
       <c r="H28" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>43.95%</v>
       </c>
       <c r="I28" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>25.75%</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" s="10">
         <v>217</v>
@@ -1221,21 +2230,21 @@
         <v>2</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>212</v>
       </c>
       <c r="H29" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.30%</v>
       </c>
       <c r="I29" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>71.43%</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B30" s="10">
         <v>217</v>
@@ -1251,21 +2260,21 @@
         <v>303</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>144</v>
       </c>
       <c r="H30" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>33.64%</v>
       </c>
       <c r="I30" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>19.41%</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="10">
         <v>300</v>
@@ -1281,21 +2290,21 @@
         <v>2</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>292</v>
       </c>
       <c r="H31" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>2.67%</v>
       </c>
       <c r="I31" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>80.00%</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B32" s="10">
         <v>300</v>
@@ -1311,21 +2320,21 @@
         <v>422</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>192</v>
       </c>
       <c r="H32" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>36.00%</v>
       </c>
       <c r="I32" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>20.38%</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B33" s="10">
         <v>350</v>
@@ -1341,21 +2350,21 @@
         <v>5</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>334</v>
       </c>
       <c r="H33" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>4.57%</v>
       </c>
       <c r="I33" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>76.19%</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B34" s="10">
         <v>350</v>
@@ -1371,28 +2380,28 @@
         <v>471</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>216</v>
       </c>
       <c r="H34" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>38.29%</v>
       </c>
       <c r="I34" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>22.15%</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="G38" s="10"/>
     </row>
   </sheetData>

--- a/Documents/Performance_Analysis.xlsx
+++ b/Documents/Performance_Analysis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ao/Desktop/graduate-Ao/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98FB71-4DF3-3149-8448-39642A857996}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E837C5-B909-C34E-98CC-58684577BDF9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="1880" windowWidth="28040" windowHeight="17440" xr2:uid="{91479095-4496-A54A-8A57-787D87B1B809}"/>
+    <workbookView xWindow="8300" yWindow="0" windowWidth="28040" windowHeight="17540" xr2:uid="{91479095-4496-A54A-8A57-787D87B1B809}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="125">
   <si>
     <t>Type</t>
   </si>
@@ -214,13 +214,202 @@
   </si>
   <si>
     <t>Location(25)+Hospital(132)+Doctor(167)+Patient(39)</t>
+  </si>
+  <si>
+    <t>MIST-AMAI</t>
+  </si>
+  <si>
+    <t>[Hospital]+[Location]</t>
+  </si>
+  <si>
+    <t>[Phone]</t>
+  </si>
+  <si>
+    <t>[Age]</t>
+  </si>
+  <si>
+    <t>[Doctor] + [Patient]</t>
+  </si>
+  <si>
+    <t>Train People:</t>
+  </si>
+  <si>
+    <t>Location(9)+Hospital(73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>clear -&gt; [ ]</t>
+  </si>
+  <si>
+    <t>Iteration=15</t>
+  </si>
+  <si>
+    <t>Iteration=10</t>
+  </si>
+  <si>
+    <t>Iteration=5</t>
+  </si>
+  <si>
+    <t>Iteration=20</t>
+  </si>
+  <si>
+    <t>Doctor(94)+Patient(38)</t>
+  </si>
+  <si>
+    <t>Location(25)+Hospital(87)</t>
+  </si>
+  <si>
+    <t>Location(24)+Hospital(193)</t>
+  </si>
+  <si>
+    <t>Doctor(143)+Patient(46)</t>
+  </si>
+  <si>
+    <t>Doctor(42)+Patient(22)</t>
+  </si>
+  <si>
+    <t>Location(9)+Hospital(69)</t>
+  </si>
+  <si>
+    <t>Doctor(45)+Patient(22)</t>
+  </si>
+  <si>
+    <t>Doctor(43)+Patient(22)</t>
+  </si>
+  <si>
+    <t>Doctor(93)+Patient(39)</t>
+  </si>
+  <si>
+    <t>Doctor(105)+Patient(39)</t>
+  </si>
+  <si>
+    <t>Doctor(106)+Patient(39)</t>
+  </si>
+  <si>
+    <t>Location(24)+Hospital(129)</t>
+  </si>
+  <si>
+    <t>Location(25)+Hospital(130)</t>
+  </si>
+  <si>
+    <t>Doctor(153)+Patient(46)</t>
+  </si>
+  <si>
+    <t>Location(24)+Hospital(192)</t>
+  </si>
+  <si>
+    <t>Doctor(149)+Patient(46)</t>
+  </si>
+  <si>
+    <t>Location(22)+Hospital(176)</t>
+  </si>
+  <si>
+    <t>Doctor(114)+Patient(37)</t>
+  </si>
+  <si>
+    <t>Doctor(222)+Patient(67)</t>
+  </si>
+  <si>
+    <t>Location(30)+Hospital(270)</t>
+  </si>
+  <si>
+    <t>Position Total:</t>
+  </si>
+  <si>
+    <t>Test_90_iter5</t>
+  </si>
+  <si>
+    <t>Test_90_iter10</t>
+  </si>
+  <si>
+    <t>Test_90_iter15</t>
+  </si>
+  <si>
+    <t>Test_90_iter20</t>
+  </si>
+  <si>
+    <t>Test_80_iter5</t>
+  </si>
+  <si>
+    <t>Test_80_iter10</t>
+  </si>
+  <si>
+    <t>Test_80_iter15</t>
+  </si>
+  <si>
+    <t>Test_80_iter20</t>
+  </si>
+  <si>
+    <t>Test_70_iter5</t>
+  </si>
+  <si>
+    <t>Location(30)+Hospital(269)</t>
+  </si>
+  <si>
+    <t>Doctor(210)+Patient(67)</t>
+  </si>
+  <si>
+    <t>Test_70_iter10</t>
+  </si>
+  <si>
+    <t>Test_70_iter15</t>
+  </si>
+  <si>
+    <t>Test_70_iter20</t>
+  </si>
+  <si>
+    <t>Test_60_iter5</t>
+  </si>
+  <si>
+    <t>Test_60_iter10</t>
+  </si>
+  <si>
+    <t>Test_60_iter15</t>
+  </si>
+  <si>
+    <t>Test_60_iter20</t>
+  </si>
+  <si>
+    <t>Test_50_iter5</t>
+  </si>
+  <si>
+    <t>Test_50_iter10</t>
+  </si>
+  <si>
+    <t>Test_50_iter15</t>
+  </si>
+  <si>
+    <t>Test_50_iter20</t>
+  </si>
+  <si>
+    <t>Doctor(220)+Patient(67)</t>
+  </si>
+  <si>
+    <t>Doctor(276)+Patient(88)</t>
+  </si>
+  <si>
+    <t>Location(38)+Hospital(312)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall </t>
+  </si>
+  <si>
+    <t>Location(38)+Hospital(310)</t>
+  </si>
+  <si>
+    <t>Location(38)+Hospital(311)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,8 +468,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
@@ -304,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -335,6 +538,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DD6379-5945-AF45-9211-A3F473726351}">
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AQ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="AF54" workbookViewId="0">
+      <selection activeCell="AI45" sqref="AI45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -687,10 +900,21 @@
     <col min="29" max="29" width="13.1640625" style="2" customWidth="1"/>
     <col min="30" max="31" width="10.83203125" style="2"/>
     <col min="32" max="32" width="45.6640625" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="10.83203125" style="2"/>
+    <col min="33" max="33" width="10.83203125" style="2"/>
+    <col min="34" max="34" width="16.33203125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="10.83203125" style="2"/>
+    <col min="36" max="36" width="12.6640625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="18.83203125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="12.5" style="2" customWidth="1"/>
+    <col min="39" max="39" width="12.33203125" style="2" customWidth="1"/>
+    <col min="40" max="40" width="11.83203125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="10.83203125" style="2"/>
+    <col min="42" max="42" width="10.83203125" style="2" customWidth="1"/>
+    <col min="43" max="43" width="25.1640625" style="2" customWidth="1"/>
+    <col min="44" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -709,8 +933,20 @@
       </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AH1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -793,8 +1029,35 @@
       <c r="AE2" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AH2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -890,8 +1153,40 @@
       <c r="AF3" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AH3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>879</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>917</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" s="10">
+        <v>575</v>
+      </c>
+      <c r="AM3" s="10">
+        <v>342</v>
+      </c>
+      <c r="AN3" s="10">
+        <v>304</v>
+      </c>
+      <c r="AO3" s="10" t="str">
+        <f>TEXT(AL3/AI3,"0.00%")</f>
+        <v>65.42%</v>
+      </c>
+      <c r="AP3" s="10" t="str">
+        <f>TEXT(AL3/(AL3+AM3),"0.00%")</f>
+        <v>62.70%</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -966,8 +1261,40 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
-    </row>
-    <row r="5" spans="1:32">
+      <c r="AH4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>711</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>128</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>114</v>
+      </c>
+      <c r="AM4" s="10">
+        <v>14</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>599</v>
+      </c>
+      <c r="AO4" s="11" t="str">
+        <f t="shared" ref="AO4:AO6" si="5">TEXT(AL4/AI4,"0.00%")</f>
+        <v>16.03%</v>
+      </c>
+      <c r="AP4" s="10" t="str">
+        <f t="shared" ref="AP4:AP6" si="6">TEXT(AL4/(AL4+AM4),"0.00%")</f>
+        <v>89.06%</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -987,11 +1314,11 @@
         <v>181</v>
       </c>
       <c r="H5" s="11" t="str">
-        <f t="shared" ref="H5:H17" si="5">TEXT(E5/B5,"0.00%")</f>
+        <f t="shared" ref="H5:H17" si="7">TEXT(E5/B5,"0.00%")</f>
         <v>0.00%</v>
       </c>
       <c r="I5" s="10" t="e">
-        <f t="shared" ref="I5:I17" si="6">TEXT(E5/(E5+F5),"0.00%")</f>
+        <f t="shared" ref="I5:I17" si="8">TEXT(E5/(E5+F5),"0.00%")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1032,8 +1359,37 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="10"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AH5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>35</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>177</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>33</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>144</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>94.29%</v>
+      </c>
+      <c r="AP5" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>18.64%</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1056,11 +1412,11 @@
         <v>384</v>
       </c>
       <c r="H6" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80.41%</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90.89%</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1101,8 +1457,37 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
       <c r="AE6" s="10"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AH6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>509</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>506</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>75.00%</v>
+      </c>
+      <c r="AP6" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>0.59%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1125,11 +1510,11 @@
         <v>523</v>
       </c>
       <c r="H7" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51.71%</v>
       </c>
       <c r="I7" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>96.72%</v>
       </c>
       <c r="M7" s="10"/>
@@ -1148,8 +1533,15 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1172,11 +1564,11 @@
         <v>2</v>
       </c>
       <c r="H8" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>94.29%</v>
       </c>
       <c r="I8" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18.64%</v>
       </c>
       <c r="M8" s="10"/>
@@ -1195,8 +1587,15 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
       <c r="AE8" s="10"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1219,11 +1618,11 @@
         <v>1</v>
       </c>
       <c r="H9" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75.00%</v>
       </c>
       <c r="I9" s="10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.59%</v>
       </c>
       <c r="M9" s="10"/>
@@ -1242,8 +1641,15 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
       <c r="AE9" s="10"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+    </row>
+    <row r="10" spans="1:43">
       <c r="B10" s="10">
         <f>SUM(B3:B9)</f>
         <v>4828</v>
@@ -1253,15 +1659,18 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.00%</v>
       </c>
       <c r="I10" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AH10" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="B11" s="10"/>
       <c r="C11" s="10">
         <v>841</v>
@@ -1273,11 +1682,11 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I11" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -1286,8 +1695,11 @@
       <c r="W11" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AH11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="C12" s="10">
         <v>14</v>
       </c>
@@ -1298,11 +1710,11 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I12" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L12" s="6" t="s">
@@ -1355,8 +1767,33 @@
       <c r="AE12" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AH12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="C13" s="10">
         <v>117</v>
       </c>
@@ -1367,11 +1804,11 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I13" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -1434,8 +1871,40 @@
       <c r="AF13" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AH13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>82</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>41</v>
+      </c>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10">
+        <v>41</v>
+      </c>
+      <c r="AM13" s="10">
+        <f>AJ13-AL13</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="10">
+        <f t="shared" ref="AN13:AN17" si="9">AI13-AL13</f>
+        <v>41</v>
+      </c>
+      <c r="AO13" s="10" t="str">
+        <f t="shared" ref="AO13:AO17" si="10">TEXT(AL13/AI13,"0.00%")</f>
+        <v>50.00%</v>
+      </c>
+      <c r="AP13" s="10" t="str">
+        <f t="shared" ref="AP13:AP17" si="11">TEXT(AL13/AJ13,"0.00%")</f>
+        <v>100.00%</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="C14" s="10">
         <v>5</v>
       </c>
@@ -1446,11 +1915,11 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I14" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1470,15 +1939,15 @@
         <v>92</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" ref="R14:R22" si="7">M14-P14</f>
+        <f t="shared" ref="R14:R22" si="12">M14-P14</f>
         <v>5</v>
       </c>
       <c r="S14" s="10" t="str">
-        <f t="shared" ref="S14:S22" si="8">TEXT(P14/M14,"0.00%")</f>
+        <f t="shared" ref="S14:S22" si="13">TEXT(P14/M14,"0.00%")</f>
         <v>93.67%</v>
       </c>
       <c r="T14" s="10" t="str">
-        <f t="shared" ref="T14:T22" si="9">TEXT(P14/N14,"0.00%")</f>
+        <f t="shared" ref="T14:T22" si="14">TEXT(P14/N14,"0.00%")</f>
         <v>44.58%</v>
       </c>
       <c r="W14" s="2" t="s">
@@ -1498,19 +1967,51 @@
         <v>545</v>
       </c>
       <c r="AC14" s="10">
-        <f t="shared" ref="AC14:AC22" si="10">X14-AA14</f>
+        <f t="shared" ref="AC14:AC22" si="15">X14-AA14</f>
         <v>73</v>
       </c>
       <c r="AD14" s="10" t="str">
-        <f t="shared" ref="AD14:AD22" si="11">TEXT(AA14/X14,"0.00%")</f>
+        <f t="shared" ref="AD14:AD22" si="16">TEXT(AA14/X14,"0.00%")</f>
         <v>57.56%</v>
       </c>
       <c r="AE14" s="10" t="str">
-        <f t="shared" ref="AE14:AE22" si="12">TEXT(AA14/Y14,"0.00%")</f>
+        <f t="shared" ref="AE14:AE22" si="17">TEXT(AA14/Y14,"0.00%")</f>
         <v>15.40%</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AH14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>112</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>189</v>
+      </c>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10">
+        <v>46</v>
+      </c>
+      <c r="AM14" s="10">
+        <f t="shared" ref="AM14:AM17" si="18">AJ14-AL14</f>
+        <v>143</v>
+      </c>
+      <c r="AN14" s="10">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="AO14" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>41.07%</v>
+      </c>
+      <c r="AP14" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>24.34%</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="C15" s="10">
         <v>3</v>
       </c>
@@ -1521,11 +2022,11 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I15" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -1545,15 +2046,15 @@
         <v>4</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>626</v>
       </c>
       <c r="S15" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>9.54%</v>
       </c>
       <c r="T15" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>94.29%</v>
       </c>
       <c r="W15" s="2" t="s">
@@ -1581,14 +2082,46 @@
         <v>53.99%</v>
       </c>
       <c r="AE15" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>12.93%</v>
       </c>
       <c r="AF15" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AH15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>198</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>124</v>
+      </c>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10">
+        <v>95</v>
+      </c>
+      <c r="AM15" s="10">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="AN15" s="10">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="AO15" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>47.98%</v>
+      </c>
+      <c r="AP15" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>76.61%</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="C16" s="10">
         <v>2</v>
       </c>
@@ -1599,11 +2132,11 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I16" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -1623,15 +2156,15 @@
         <v>200</v>
       </c>
       <c r="R16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>550</v>
       </c>
       <c r="S16" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>20.52%</v>
       </c>
       <c r="T16" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>41.52%</v>
       </c>
       <c r="W16" s="2" t="s">
@@ -1659,11 +2192,43 @@
         <v>60.06%</v>
       </c>
       <c r="AE16" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>13.19%</v>
       </c>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AH16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>300</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>92</v>
+      </c>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10">
+        <v>90</v>
+      </c>
+      <c r="AM16" s="10">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AN16" s="10">
+        <f t="shared" si="9"/>
+        <v>210</v>
+      </c>
+      <c r="AO16" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>30.00%</v>
+      </c>
+      <c r="AP16" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>97.83%</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="C17" s="10">
         <v>17</v>
       </c>
@@ -1674,11 +2239,11 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I17" s="10" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -1698,15 +2263,15 @@
         <v>7</v>
       </c>
       <c r="R17" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>134</v>
       </c>
       <c r="S17" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>38.25%</v>
       </c>
       <c r="T17" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>92.22%</v>
       </c>
       <c r="W17" s="2" t="s">
@@ -1726,22 +2291,54 @@
         <v>1257</v>
       </c>
       <c r="AC17" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>270</v>
       </c>
       <c r="AD17" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>47.06%</v>
       </c>
       <c r="AE17" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>16.08%</v>
       </c>
       <c r="AF17" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AH17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>349</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>152</v>
+      </c>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10">
+        <v>140</v>
+      </c>
+      <c r="AM17" s="10">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="AN17" s="10">
+        <f t="shared" si="9"/>
+        <v>209</v>
+      </c>
+      <c r="AO17" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>40.11%</v>
+      </c>
+      <c r="AP17" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>92.11%</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="C18" s="10">
         <v>739</v>
       </c>
@@ -1769,15 +2366,15 @@
         <v>305</v>
       </c>
       <c r="R18" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="S18" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>87.10%</v>
       </c>
       <c r="T18" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>38.26%</v>
       </c>
       <c r="W18" s="2" t="s">
@@ -1797,19 +2394,27 @@
         <v>1467</v>
       </c>
       <c r="AC18" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>255</v>
       </c>
       <c r="AD18" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>50.00%</v>
       </c>
       <c r="AE18" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>14.83%</v>
       </c>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+    </row>
+    <row r="19" spans="1:43">
       <c r="C19" s="10">
         <v>4</v>
       </c>
@@ -1837,15 +2442,15 @@
         <v>6</v>
       </c>
       <c r="R19" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>189</v>
       </c>
       <c r="S19" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>37.00%</v>
       </c>
       <c r="T19" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>94.87%</v>
       </c>
       <c r="W19" s="2" t="s">
@@ -1865,22 +2470,30 @@
         <v>1730</v>
       </c>
       <c r="AC19" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>388</v>
       </c>
       <c r="AD19" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>45.89%</v>
       </c>
       <c r="AE19" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>15.99%</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+    </row>
+    <row r="20" spans="1:43">
       <c r="C20" s="10">
         <f>SUM(C3:C19)</f>
         <v>5764</v>
@@ -1902,15 +2515,15 @@
         <v>426</v>
       </c>
       <c r="R20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="S20" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>82.33%</v>
       </c>
       <c r="T20" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>36.70%</v>
       </c>
       <c r="W20" s="2" t="s">
@@ -1930,19 +2543,22 @@
         <v>2011</v>
       </c>
       <c r="AC20" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>368</v>
       </c>
       <c r="AD20" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>48.68%</v>
       </c>
       <c r="AE20" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>14.79%</v>
       </c>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AH20" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
       <c r="L21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1960,15 +2576,15 @@
         <v>18</v>
       </c>
       <c r="R21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
       <c r="S21" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>42.86%</v>
       </c>
       <c r="T21" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>89.29%</v>
       </c>
       <c r="W21" s="2" t="s">
@@ -1988,22 +2604,47 @@
         <v>2083</v>
       </c>
       <c r="AC21" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>476</v>
       </c>
       <c r="AD21" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>45.16%</v>
       </c>
       <c r="AE21" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>15.85%</v>
       </c>
       <c r="AF21" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AH21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP21" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="L22" s="2" t="s">
         <v>52</v>
       </c>
@@ -2021,15 +2662,15 @@
         <v>476</v>
       </c>
       <c r="R22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="S22" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>89.43%</v>
       </c>
       <c r="T22" s="10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>39.67%</v>
       </c>
       <c r="W22" s="2" t="s">
@@ -2049,24 +2690,88 @@
         <v>2432</v>
       </c>
       <c r="AC22" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>452</v>
       </c>
       <c r="AD22" s="10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>47.93%</v>
       </c>
       <c r="AE22" s="10" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>14.62%</v>
       </c>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AH22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>64</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>89</v>
+      </c>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10">
+        <v>31</v>
+      </c>
+      <c r="AM22" s="10">
+        <f>AJ22-AL22</f>
+        <v>58</v>
+      </c>
+      <c r="AN22" s="10">
+        <f t="shared" ref="AN22:AN26" si="19">AI22-AL22</f>
+        <v>33</v>
+      </c>
+      <c r="AO22" s="10" t="str">
+        <f t="shared" ref="AO22:AO26" si="20">TEXT(AL22/AI22,"0.00%")</f>
+        <v>48.44%</v>
+      </c>
+      <c r="AP22" s="10" t="str">
+        <f t="shared" ref="AP22:AP26" si="21">TEXT(AL22/AJ22,"0.00%")</f>
+        <v>34.83%</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AH23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>132</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>347</v>
+      </c>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10">
+        <v>100</v>
+      </c>
+      <c r="AM23" s="10">
+        <f t="shared" ref="AM23:AM26" si="22">AJ23-AL23</f>
+        <v>247</v>
+      </c>
+      <c r="AN23" s="10">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="AO23" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>75.76%</v>
+      </c>
+      <c r="AP23" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>28.82%</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" s="6" t="s">
         <v>0</v>
       </c>
@@ -2092,8 +2797,40 @@
       <c r="I24" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AH24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI24" s="10">
+        <v>151</v>
+      </c>
+      <c r="AJ24" s="10">
+        <v>568</v>
+      </c>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10">
+        <v>104</v>
+      </c>
+      <c r="AM24" s="10">
+        <f t="shared" si="22"/>
+        <v>464</v>
+      </c>
+      <c r="AN24" s="10">
+        <f t="shared" si="19"/>
+        <v>47</v>
+      </c>
+      <c r="AO24" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>68.87%</v>
+      </c>
+      <c r="AP24" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>18.31%</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -2121,8 +2858,40 @@
         <f>TEXT(E25/(E25+F25),"0.00%")</f>
         <v>85.71%</v>
       </c>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AH25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI25" s="10">
+        <v>289</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>311</v>
+      </c>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10">
+        <v>173</v>
+      </c>
+      <c r="AM25" s="10">
+        <f t="shared" si="22"/>
+        <v>138</v>
+      </c>
+      <c r="AN25" s="10">
+        <f t="shared" si="19"/>
+        <v>116</v>
+      </c>
+      <c r="AO25" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>59.86%</v>
+      </c>
+      <c r="AP25" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>55.63%</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2140,19 +2909,51 @@
         <v>98</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" ref="G26:G38" si="13">B26-E26</f>
+        <f t="shared" ref="G26:G34" si="23">B26-E26</f>
         <v>34</v>
       </c>
       <c r="H26" s="10" t="str">
-        <f t="shared" ref="H26:H34" si="14">TEXT(E26/B26,"0.00%")</f>
+        <f t="shared" ref="H26:H34" si="24">TEXT(E26/B26,"0.00%")</f>
         <v>56.96%</v>
       </c>
       <c r="I26" s="10" t="str">
-        <f t="shared" ref="I26:I34" si="15">TEXT(E26/(E26+F26),"0.00%")</f>
+        <f t="shared" ref="I26:I34" si="25">TEXT(E26/(E26+F26),"0.00%")</f>
         <v>31.47%</v>
       </c>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AH26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>364</v>
+      </c>
+      <c r="AJ26" s="10">
+        <v>566</v>
+      </c>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10">
+        <v>253</v>
+      </c>
+      <c r="AM26" s="10">
+        <f t="shared" si="22"/>
+        <v>313</v>
+      </c>
+      <c r="AN26" s="10">
+        <f t="shared" si="19"/>
+        <v>111</v>
+      </c>
+      <c r="AO26" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>69.51%</v>
+      </c>
+      <c r="AP26" s="10" t="str">
+        <f t="shared" si="21"/>
+        <v>44.70%</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
@@ -2170,19 +2971,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>151</v>
       </c>
       <c r="H27" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>3.82%</v>
       </c>
       <c r="I27" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>100.00%</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:43">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2200,19 +3001,19 @@
         <v>199</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>88</v>
       </c>
       <c r="H28" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>43.95%</v>
       </c>
       <c r="I28" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>25.75%</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:43">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -2230,19 +3031,22 @@
         <v>2</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>212</v>
       </c>
       <c r="H29" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.30%</v>
       </c>
       <c r="I29" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>71.43%</v>
       </c>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AH29" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -2260,19 +3064,22 @@
         <v>303</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>144</v>
       </c>
       <c r="H30" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>33.64%</v>
       </c>
       <c r="I30" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>19.41%</v>
       </c>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AH30" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -2290,19 +3097,44 @@
         <v>2</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>292</v>
       </c>
       <c r="H31" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>2.67%</v>
       </c>
       <c r="I31" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>80.00%</v>
       </c>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AH31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP31" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -2320,19 +3152,51 @@
         <v>422</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>192</v>
       </c>
       <c r="H32" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>36.00%</v>
       </c>
       <c r="I32" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>20.38%</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="AH32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI32" s="10">
+        <v>78</v>
+      </c>
+      <c r="AJ32" s="10">
+        <v>41</v>
+      </c>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10">
+        <v>35</v>
+      </c>
+      <c r="AM32" s="10">
+        <f>AJ32-AL32</f>
+        <v>6</v>
+      </c>
+      <c r="AN32" s="10">
+        <f t="shared" ref="AN32:AN36" si="26">AI32-AL32</f>
+        <v>43</v>
+      </c>
+      <c r="AO32" s="10" t="str">
+        <f t="shared" ref="AO32:AO36" si="27">TEXT(AL32/AI32,"0.00%")</f>
+        <v>44.87%</v>
+      </c>
+      <c r="AP32" s="10" t="str">
+        <f t="shared" ref="AP32:AP36" si="28">TEXT(AL32/AJ32,"0.00%")</f>
+        <v>85.37%</v>
+      </c>
+      <c r="AQ32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -2350,19 +3214,51 @@
         <v>5</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>334</v>
       </c>
       <c r="H33" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>4.57%</v>
       </c>
       <c r="I33" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>76.19%</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="AH33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI33" s="10">
+        <v>153</v>
+      </c>
+      <c r="AJ33" s="10">
+        <v>72</v>
+      </c>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10">
+        <v>68</v>
+      </c>
+      <c r="AM33" s="10">
+        <f t="shared" ref="AM33:AM36" si="29">AJ33-AL33</f>
+        <v>4</v>
+      </c>
+      <c r="AN33" s="10">
+        <f t="shared" si="26"/>
+        <v>85</v>
+      </c>
+      <c r="AO33" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>44.44%</v>
+      </c>
+      <c r="AP33" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>94.44%</v>
+      </c>
+      <c r="AQ33" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
@@ -2380,29 +3276,1461 @@
         <v>471</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>216</v>
       </c>
       <c r="H34" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>38.29%</v>
       </c>
       <c r="I34" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>22.15%</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="AH34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI34" s="10">
+        <v>216</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>78</v>
+      </c>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10">
+        <v>75</v>
+      </c>
+      <c r="AM34" s="10">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="AN34" s="10">
+        <f t="shared" si="26"/>
+        <v>141</v>
+      </c>
+      <c r="AO34" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>34.72%</v>
+      </c>
+      <c r="AP34" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>96.15%</v>
+      </c>
+      <c r="AQ34" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
       <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="AH35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI35" s="10">
+        <v>299</v>
+      </c>
+      <c r="AJ35" s="10">
+        <v>125</v>
+      </c>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10">
+        <v>119</v>
+      </c>
+      <c r="AM35" s="10">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="AN35" s="10">
+        <f t="shared" si="26"/>
+        <v>180</v>
+      </c>
+      <c r="AO35" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>39.80%</v>
+      </c>
+      <c r="AP35" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>95.20%</v>
+      </c>
+      <c r="AQ35" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
       <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="AH36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI36" s="10">
+        <v>348</v>
+      </c>
+      <c r="AJ36" s="10">
+        <v>153</v>
+      </c>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10">
+        <v>144</v>
+      </c>
+      <c r="AM36" s="10">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="AN36" s="10">
+        <f t="shared" si="26"/>
+        <v>204</v>
+      </c>
+      <c r="AO36" s="10" t="str">
+        <f t="shared" si="27"/>
+        <v>41.38%</v>
+      </c>
+      <c r="AP36" s="10" t="str">
+        <f t="shared" si="28"/>
+        <v>94.12%</v>
+      </c>
+      <c r="AQ36" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+    </row>
+    <row r="38" spans="1:43">
       <c r="G38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10"/>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="AH39" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="AH40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN40" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP40" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
+      <c r="AH41" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI41" s="10">
+        <v>65</v>
+      </c>
+      <c r="AJ41" s="10">
+        <v>82</v>
+      </c>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10">
+        <v>32</v>
+      </c>
+      <c r="AM41" s="10">
+        <f>AJ41-AL41</f>
+        <v>50</v>
+      </c>
+      <c r="AN41" s="10">
+        <f t="shared" ref="AN41:AN45" si="30">AI41-AL41</f>
+        <v>33</v>
+      </c>
+      <c r="AO41" s="10" t="str">
+        <f t="shared" ref="AO41:AO45" si="31">TEXT(AL41/AI41,"0.00%")</f>
+        <v>49.23%</v>
+      </c>
+      <c r="AP41" s="10" t="str">
+        <f t="shared" ref="AP41:AP45" si="32">TEXT(AL41/AJ41,"0.00%")</f>
+        <v>39.02%</v>
+      </c>
+      <c r="AQ41" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
+      <c r="AH42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI42" s="10">
+        <v>132</v>
+      </c>
+      <c r="AJ42" s="10">
+        <v>266</v>
+      </c>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10">
+        <v>89</v>
+      </c>
+      <c r="AM42" s="10">
+        <f t="shared" ref="AM42:AM45" si="33">AJ42-AL42</f>
+        <v>177</v>
+      </c>
+      <c r="AN42" s="10">
+        <f t="shared" si="30"/>
+        <v>43</v>
+      </c>
+      <c r="AO42" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>67.42%</v>
+      </c>
+      <c r="AP42" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>33.46%</v>
+      </c>
+      <c r="AQ42" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
+      <c r="AH43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI43" s="10">
+        <v>195</v>
+      </c>
+      <c r="AJ43" s="10">
+        <v>239</v>
+      </c>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10">
+        <v>123</v>
+      </c>
+      <c r="AM43" s="10">
+        <f t="shared" si="33"/>
+        <v>116</v>
+      </c>
+      <c r="AN43" s="10">
+        <f t="shared" si="30"/>
+        <v>72</v>
+      </c>
+      <c r="AO43" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>63.08%</v>
+      </c>
+      <c r="AP43" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>51.46%</v>
+      </c>
+      <c r="AQ43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
+      <c r="AH44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI44" s="10">
+        <v>277</v>
+      </c>
+      <c r="AJ44" s="10">
+        <v>398</v>
+      </c>
+      <c r="AK44" s="10"/>
+      <c r="AL44" s="10">
+        <v>170</v>
+      </c>
+      <c r="AM44" s="10">
+        <f t="shared" si="33"/>
+        <v>228</v>
+      </c>
+      <c r="AN44" s="10">
+        <f t="shared" si="30"/>
+        <v>107</v>
+      </c>
+      <c r="AO44" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>61.37%</v>
+      </c>
+      <c r="AP44" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>42.71%</v>
+      </c>
+      <c r="AQ44" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
+      <c r="AH45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI45" s="10">
+        <v>364</v>
+      </c>
+      <c r="AJ45" s="10">
+        <v>439</v>
+      </c>
+      <c r="AK45" s="10"/>
+      <c r="AL45" s="10">
+        <v>257</v>
+      </c>
+      <c r="AM45" s="10">
+        <f t="shared" si="33"/>
+        <v>182</v>
+      </c>
+      <c r="AN45" s="10">
+        <f t="shared" si="30"/>
+        <v>107</v>
+      </c>
+      <c r="AO45" s="10" t="str">
+        <f t="shared" si="31"/>
+        <v>70.60%</v>
+      </c>
+      <c r="AP45" s="10" t="str">
+        <f t="shared" si="32"/>
+        <v>58.54%</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43">
+      <c r="AH48" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="34:43">
+      <c r="AH49" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="34:43">
+      <c r="AH50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK50" s="10"/>
+      <c r="AL50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN50" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP50" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="34:43">
+      <c r="AH51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI51" s="10">
+        <v>82</v>
+      </c>
+      <c r="AJ51" s="10">
+        <v>33</v>
+      </c>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10">
+        <v>33</v>
+      </c>
+      <c r="AM51" s="10">
+        <f>AJ51-AL51</f>
+        <v>0</v>
+      </c>
+      <c r="AN51" s="10">
+        <f t="shared" ref="AN51:AN55" si="34">AI51-AL51</f>
+        <v>49</v>
+      </c>
+      <c r="AO51" s="10" t="str">
+        <f t="shared" ref="AO51:AO55" si="35">TEXT(AL51/AI51,"0.00%")</f>
+        <v>40.24%</v>
+      </c>
+      <c r="AP51" s="10" t="str">
+        <f t="shared" ref="AP51:AP55" si="36">TEXT(AL51/AJ51,"0.00%")</f>
+        <v>100.00%</v>
+      </c>
+      <c r="AQ51" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="34:43">
+      <c r="AH52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI52" s="10">
+        <v>155</v>
+      </c>
+      <c r="AJ52" s="10">
+        <v>51</v>
+      </c>
+      <c r="AK52" s="10"/>
+      <c r="AL52" s="10">
+        <v>51</v>
+      </c>
+      <c r="AM52" s="10">
+        <f t="shared" ref="AM52:AM55" si="37">AJ52-AL52</f>
+        <v>0</v>
+      </c>
+      <c r="AN52" s="10">
+        <f t="shared" si="34"/>
+        <v>104</v>
+      </c>
+      <c r="AO52" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>32.90%</v>
+      </c>
+      <c r="AP52" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>100.00%</v>
+      </c>
+      <c r="AQ52" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="34:43">
+      <c r="AH53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI53" s="10">
+        <v>217</v>
+      </c>
+      <c r="AJ53" s="10">
+        <v>62</v>
+      </c>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10">
+        <v>62</v>
+      </c>
+      <c r="AM53" s="10">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AN53" s="10">
+        <f t="shared" si="34"/>
+        <v>155</v>
+      </c>
+      <c r="AO53" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>28.57%</v>
+      </c>
+      <c r="AP53" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>100.00%</v>
+      </c>
+      <c r="AQ53" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="34:43">
+      <c r="AH54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI54" s="10">
+        <v>299</v>
+      </c>
+      <c r="AJ54" s="10">
+        <v>106</v>
+      </c>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="10">
+        <v>103</v>
+      </c>
+      <c r="AM54" s="10">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="AN54" s="10">
+        <f t="shared" si="34"/>
+        <v>196</v>
+      </c>
+      <c r="AO54" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>34.45%</v>
+      </c>
+      <c r="AP54" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>97.17%</v>
+      </c>
+      <c r="AQ54" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="34:43">
+      <c r="AH55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI55" s="10">
+        <v>350</v>
+      </c>
+      <c r="AJ55" s="10">
+        <v>135</v>
+      </c>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10">
+        <v>129</v>
+      </c>
+      <c r="AM55" s="10">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="AN55" s="10">
+        <f t="shared" si="34"/>
+        <v>221</v>
+      </c>
+      <c r="AO55" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>36.86%</v>
+      </c>
+      <c r="AP55" s="10" t="str">
+        <f t="shared" si="36"/>
+        <v>95.56%</v>
+      </c>
+      <c r="AQ55" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="34:43">
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="10"/>
+    </row>
+    <row r="57" spans="34:43">
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="10"/>
+      <c r="AO57" s="10"/>
+      <c r="AP57" s="10"/>
+    </row>
+    <row r="58" spans="34:43">
+      <c r="AH58" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="34:43">
+      <c r="AH59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ59" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM59" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO59" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP59" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="34:43">
+      <c r="AH60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI60" s="10">
+        <v>67</v>
+      </c>
+      <c r="AJ60" s="10">
+        <v>53</v>
+      </c>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10">
+        <v>20</v>
+      </c>
+      <c r="AM60" s="10">
+        <f>AJ60-AL60</f>
+        <v>33</v>
+      </c>
+      <c r="AN60" s="10">
+        <f t="shared" ref="AN60:AN64" si="38">AI60-AL60</f>
+        <v>47</v>
+      </c>
+      <c r="AO60" s="10" t="str">
+        <f t="shared" ref="AO60:AO64" si="39">TEXT(AL60/AI60,"0.00%")</f>
+        <v>29.85%</v>
+      </c>
+      <c r="AP60" s="10" t="str">
+        <f t="shared" ref="AP60:AP64" si="40">TEXT(AL60/AJ60,"0.00%")</f>
+        <v>37.74%</v>
+      </c>
+      <c r="AQ60" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="34:43">
+      <c r="AH61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI61" s="10">
+        <v>144</v>
+      </c>
+      <c r="AJ61" s="10">
+        <v>225</v>
+      </c>
+      <c r="AK61" s="10"/>
+      <c r="AL61" s="10">
+        <v>90</v>
+      </c>
+      <c r="AM61" s="10">
+        <f t="shared" ref="AM61:AM64" si="41">AJ61-AL61</f>
+        <v>135</v>
+      </c>
+      <c r="AN61" s="10">
+        <f t="shared" si="38"/>
+        <v>54</v>
+      </c>
+      <c r="AO61" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>62.50%</v>
+      </c>
+      <c r="AP61" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>40.00%</v>
+      </c>
+      <c r="AQ61" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="34:43">
+      <c r="AH62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI62" s="10">
+        <v>199</v>
+      </c>
+      <c r="AJ62" s="10">
+        <v>207</v>
+      </c>
+      <c r="AK62" s="10"/>
+      <c r="AL62" s="10">
+        <v>96</v>
+      </c>
+      <c r="AM62" s="10">
+        <f t="shared" si="41"/>
+        <v>111</v>
+      </c>
+      <c r="AN62" s="10">
+        <f t="shared" si="38"/>
+        <v>103</v>
+      </c>
+      <c r="AO62" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>48.24%</v>
+      </c>
+      <c r="AP62" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>46.38%</v>
+      </c>
+      <c r="AQ62" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="34:43">
+      <c r="AH63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI63" s="10">
+        <v>277</v>
+      </c>
+      <c r="AJ63" s="10">
+        <v>328</v>
+      </c>
+      <c r="AK63" s="10"/>
+      <c r="AL63" s="10">
+        <v>153</v>
+      </c>
+      <c r="AM63" s="10">
+        <f t="shared" si="41"/>
+        <v>175</v>
+      </c>
+      <c r="AN63" s="10">
+        <f t="shared" si="38"/>
+        <v>124</v>
+      </c>
+      <c r="AO63" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>55.23%</v>
+      </c>
+      <c r="AP63" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>46.65%</v>
+      </c>
+      <c r="AQ63" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="34:43">
+      <c r="AH64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI64" s="10">
+        <v>364</v>
+      </c>
+      <c r="AJ64" s="10">
+        <v>363</v>
+      </c>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10">
+        <v>197</v>
+      </c>
+      <c r="AM64" s="10">
+        <f t="shared" si="41"/>
+        <v>166</v>
+      </c>
+      <c r="AN64" s="10">
+        <f t="shared" si="38"/>
+        <v>167</v>
+      </c>
+      <c r="AO64" s="10" t="str">
+        <f t="shared" si="39"/>
+        <v>54.12%</v>
+      </c>
+      <c r="AP64" s="10" t="str">
+        <f t="shared" si="40"/>
+        <v>54.27%</v>
+      </c>
+      <c r="AQ64" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="34:43">
+      <c r="AH67" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="34:43">
+      <c r="AH68" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="34:43">
+      <c r="AH69" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ69" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM69" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO69" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP69" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="34:43">
+      <c r="AH70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI70" s="10">
+        <v>82</v>
+      </c>
+      <c r="AJ70" s="10">
+        <v>32</v>
+      </c>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10">
+        <v>32</v>
+      </c>
+      <c r="AM70" s="10">
+        <f>AJ70-AL70</f>
+        <v>0</v>
+      </c>
+      <c r="AN70" s="10">
+        <f t="shared" ref="AN70:AN74" si="42">AI70-AL70</f>
+        <v>50</v>
+      </c>
+      <c r="AO70" s="10" t="str">
+        <f t="shared" ref="AO70:AO74" si="43">TEXT(AL70/AI70,"0.00%")</f>
+        <v>39.02%</v>
+      </c>
+      <c r="AP70" s="10" t="str">
+        <f t="shared" ref="AP70:AP74" si="44">TEXT(AL70/AJ70,"0.00%")</f>
+        <v>100.00%</v>
+      </c>
+      <c r="AQ70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="34:43">
+      <c r="AH71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI71" s="10">
+        <v>155</v>
+      </c>
+      <c r="AJ71" s="10">
+        <v>47</v>
+      </c>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10">
+        <v>47</v>
+      </c>
+      <c r="AM71" s="10">
+        <f t="shared" ref="AM71:AM74" si="45">AJ71-AL71</f>
+        <v>0</v>
+      </c>
+      <c r="AN71" s="10">
+        <f t="shared" si="42"/>
+        <v>108</v>
+      </c>
+      <c r="AO71" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>30.32%</v>
+      </c>
+      <c r="AP71" s="10" t="str">
+        <f t="shared" si="44"/>
+        <v>100.00%</v>
+      </c>
+      <c r="AQ71" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="34:43">
+      <c r="AH72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI72" s="10">
+        <v>217</v>
+      </c>
+      <c r="AJ72" s="10">
+        <v>63</v>
+      </c>
+      <c r="AK72" s="10"/>
+      <c r="AL72" s="10">
+        <v>63</v>
+      </c>
+      <c r="AM72" s="10">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="AN72" s="10">
+        <f t="shared" si="42"/>
+        <v>154</v>
+      </c>
+      <c r="AO72" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>29.03%</v>
+      </c>
+      <c r="AP72" s="10" t="str">
+        <f t="shared" si="44"/>
+        <v>100.00%</v>
+      </c>
+      <c r="AQ72" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="34:43">
+      <c r="AH73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI73" s="10">
+        <v>300</v>
+      </c>
+      <c r="AJ73" s="10">
+        <v>91</v>
+      </c>
+      <c r="AK73" s="10"/>
+      <c r="AL73" s="10">
+        <v>89</v>
+      </c>
+      <c r="AM73" s="10">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+      <c r="AN73" s="10">
+        <f t="shared" si="42"/>
+        <v>211</v>
+      </c>
+      <c r="AO73" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>29.67%</v>
+      </c>
+      <c r="AP73" s="10" t="str">
+        <f t="shared" si="44"/>
+        <v>97.80%</v>
+      </c>
+      <c r="AQ73" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="34:43">
+      <c r="AH74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI74" s="10">
+        <v>350</v>
+      </c>
+      <c r="AJ74" s="10">
+        <v>113</v>
+      </c>
+      <c r="AK74" s="10"/>
+      <c r="AL74" s="10">
+        <v>110</v>
+      </c>
+      <c r="AM74" s="10">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="AN74" s="10">
+        <f t="shared" si="42"/>
+        <v>240</v>
+      </c>
+      <c r="AO74" s="10" t="str">
+        <f t="shared" si="43"/>
+        <v>31.43%</v>
+      </c>
+      <c r="AP74" s="10" t="str">
+        <f t="shared" si="44"/>
+        <v>97.35%</v>
+      </c>
+      <c r="AQ74" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="34:43">
+      <c r="AI75" s="10"/>
+      <c r="AJ75" s="10"/>
+      <c r="AK75" s="10"/>
+      <c r="AL75" s="10"/>
+      <c r="AM75" s="10"/>
+      <c r="AN75" s="10"/>
+      <c r="AO75" s="10"/>
+      <c r="AP75" s="10"/>
+    </row>
+    <row r="76" spans="34:43">
+      <c r="AI76" s="10"/>
+      <c r="AJ76" s="10"/>
+      <c r="AK76" s="10"/>
+      <c r="AL76" s="10"/>
+      <c r="AM76" s="10"/>
+      <c r="AN76" s="10"/>
+      <c r="AO76" s="10"/>
+      <c r="AP76" s="10"/>
+    </row>
+    <row r="77" spans="34:43">
+      <c r="AH77" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="34:43">
+      <c r="AH78" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ78" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK78" s="10"/>
+      <c r="AL78" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM78" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN78" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO78" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP78" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="34:43">
+      <c r="AH79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI79" s="10">
+        <v>67</v>
+      </c>
+      <c r="AJ79" s="10">
+        <v>57</v>
+      </c>
+      <c r="AK79" s="10"/>
+      <c r="AL79" s="10">
+        <v>21</v>
+      </c>
+      <c r="AM79" s="10">
+        <f>AJ79-AL79</f>
+        <v>36</v>
+      </c>
+      <c r="AN79" s="10">
+        <f t="shared" ref="AN79:AN83" si="46">AI79-AL79</f>
+        <v>46</v>
+      </c>
+      <c r="AO79" s="10" t="str">
+        <f t="shared" ref="AO79:AO83" si="47">TEXT(AL79/AI79,"0.00%")</f>
+        <v>31.34%</v>
+      </c>
+      <c r="AP79" s="10" t="str">
+        <f t="shared" ref="AP79:AP83" si="48">TEXT(AL79/AJ79,"0.00%")</f>
+        <v>36.84%</v>
+      </c>
+      <c r="AQ79" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="34:43">
+      <c r="AH80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI80" s="10">
+        <v>145</v>
+      </c>
+      <c r="AJ80" s="10">
+        <v>164</v>
+      </c>
+      <c r="AK80" s="10"/>
+      <c r="AL80" s="10">
+        <v>79</v>
+      </c>
+      <c r="AM80" s="10">
+        <f t="shared" ref="AM80:AM83" si="49">AJ80-AL80</f>
+        <v>85</v>
+      </c>
+      <c r="AN80" s="10">
+        <f t="shared" si="46"/>
+        <v>66</v>
+      </c>
+      <c r="AO80" s="10" t="str">
+        <f t="shared" si="47"/>
+        <v>54.48%</v>
+      </c>
+      <c r="AP80" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>48.17%</v>
+      </c>
+      <c r="AQ80" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="34:43">
+      <c r="AH81" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI81" s="10">
+        <v>189</v>
+      </c>
+      <c r="AJ81" s="10">
+        <v>224</v>
+      </c>
+      <c r="AK81" s="10"/>
+      <c r="AL81" s="10">
+        <v>92</v>
+      </c>
+      <c r="AM81" s="10">
+        <f t="shared" si="49"/>
+        <v>132</v>
+      </c>
+      <c r="AN81" s="10">
+        <f t="shared" si="46"/>
+        <v>97</v>
+      </c>
+      <c r="AO81" s="10" t="str">
+        <f t="shared" si="47"/>
+        <v>48.68%</v>
+      </c>
+      <c r="AP81" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>41.07%</v>
+      </c>
+      <c r="AQ81" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="34:43">
+      <c r="AH82" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI82" s="10">
+        <v>287</v>
+      </c>
+      <c r="AJ82" s="10">
+        <v>349</v>
+      </c>
+      <c r="AK82" s="10"/>
+      <c r="AL82" s="10">
+        <v>162</v>
+      </c>
+      <c r="AM82" s="10">
+        <f t="shared" si="49"/>
+        <v>187</v>
+      </c>
+      <c r="AN82" s="10">
+        <f t="shared" si="46"/>
+        <v>125</v>
+      </c>
+      <c r="AO82" s="10" t="str">
+        <f t="shared" si="47"/>
+        <v>56.45%</v>
+      </c>
+      <c r="AP82" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>46.42%</v>
+      </c>
+      <c r="AQ82" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="34:43">
+      <c r="AH83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI83" s="10">
+        <v>364</v>
+      </c>
+      <c r="AJ83" s="10">
+        <v>354</v>
+      </c>
+      <c r="AK83" s="10"/>
+      <c r="AL83" s="10">
+        <v>185</v>
+      </c>
+      <c r="AM83" s="10">
+        <f t="shared" si="49"/>
+        <v>169</v>
+      </c>
+      <c r="AN83" s="10">
+        <f t="shared" si="46"/>
+        <v>179</v>
+      </c>
+      <c r="AO83" s="10" t="str">
+        <f t="shared" si="47"/>
+        <v>50.82%</v>
+      </c>
+      <c r="AP83" s="10" t="str">
+        <f t="shared" si="48"/>
+        <v>52.26%</v>
+      </c>
+      <c r="AQ83" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="34:43">
+      <c r="AH86" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="34:43">
+      <c r="AH87" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI87" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ87" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="34:43">
+      <c r="AH88" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI88" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="AJ88" s="17">
+        <v>1</v>
+      </c>
+      <c r="AK88" s="10"/>
+      <c r="AL88" s="8"/>
+      <c r="AM88" s="8"/>
+      <c r="AN88" s="8"/>
+      <c r="AO88" s="12"/>
+      <c r="AP88" s="12"/>
+    </row>
+    <row r="89" spans="34:43">
+      <c r="AH89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI89" s="17"/>
+      <c r="AJ89" s="17"/>
+      <c r="AK89" s="10"/>
+      <c r="AL89" s="10"/>
+      <c r="AM89" s="10"/>
+      <c r="AN89" s="10"/>
+      <c r="AO89" s="10"/>
+      <c r="AP89" s="10"/>
+    </row>
+    <row r="90" spans="34:43">
+      <c r="AH90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI90" s="17"/>
+      <c r="AJ90" s="17"/>
+      <c r="AK90" s="10"/>
+      <c r="AL90" s="10"/>
+      <c r="AM90" s="10"/>
+      <c r="AN90" s="10"/>
+      <c r="AO90" s="10"/>
+      <c r="AP90" s="10"/>
+    </row>
+    <row r="91" spans="34:43">
+      <c r="AH91" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI91" s="17"/>
+      <c r="AJ91" s="17"/>
+      <c r="AK91" s="10"/>
+      <c r="AL91" s="10"/>
+      <c r="AM91" s="10"/>
+      <c r="AN91" s="10"/>
+      <c r="AO91" s="10"/>
+      <c r="AP91" s="10"/>
+    </row>
+    <row r="92" spans="34:43">
+      <c r="AH92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI92" s="17">
+        <v>0.41070000000000001</v>
+      </c>
+      <c r="AJ92" s="17">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="AK92" s="10"/>
+      <c r="AL92" s="10"/>
+      <c r="AM92" s="10"/>
+      <c r="AN92" s="10"/>
+      <c r="AO92" s="10"/>
+      <c r="AP92" s="10"/>
+    </row>
+    <row r="93" spans="34:43">
+      <c r="AH93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI93" s="17"/>
+      <c r="AJ93" s="17"/>
+      <c r="AK93" s="10"/>
+      <c r="AL93" s="10"/>
+      <c r="AM93" s="10"/>
+      <c r="AN93" s="10"/>
+      <c r="AO93" s="10"/>
+      <c r="AP93" s="10"/>
+    </row>
+    <row r="94" spans="34:43">
+      <c r="AH94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI94" s="17"/>
+      <c r="AJ94" s="17"/>
+      <c r="AK94" s="10"/>
+      <c r="AL94" s="10"/>
+      <c r="AM94" s="10"/>
+      <c r="AN94" s="10"/>
+      <c r="AO94" s="10"/>
+      <c r="AP94" s="10"/>
+    </row>
+    <row r="95" spans="34:43">
+      <c r="AH95" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI95" s="17"/>
+      <c r="AJ95" s="17"/>
+      <c r="AK95" s="10"/>
+      <c r="AL95" s="10"/>
+      <c r="AM95" s="10"/>
+      <c r="AN95" s="10"/>
+      <c r="AO95" s="10"/>
+      <c r="AP95" s="10"/>
+    </row>
+    <row r="96" spans="34:43">
+      <c r="AH96" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI96" s="17">
+        <v>0.4798</v>
+      </c>
+      <c r="AJ96" s="17">
+        <v>0.7661</v>
+      </c>
+    </row>
+    <row r="97" spans="34:42">
+      <c r="AH97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI97" s="17"/>
+      <c r="AJ97" s="17"/>
+      <c r="AK97" s="10"/>
+      <c r="AL97" s="8"/>
+      <c r="AM97" s="8"/>
+      <c r="AN97" s="8"/>
+      <c r="AO97" s="12"/>
+      <c r="AP97" s="12"/>
+    </row>
+    <row r="98" spans="34:42">
+      <c r="AH98" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI98" s="17"/>
+      <c r="AJ98" s="17"/>
+      <c r="AK98" s="10"/>
+      <c r="AL98" s="10"/>
+      <c r="AM98" s="10"/>
+      <c r="AN98" s="10"/>
+      <c r="AO98" s="10"/>
+      <c r="AP98" s="10"/>
+    </row>
+    <row r="99" spans="34:42">
+      <c r="AH99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI99" s="17"/>
+      <c r="AJ99" s="17"/>
+      <c r="AK99" s="10"/>
+      <c r="AL99" s="10"/>
+      <c r="AM99" s="10"/>
+      <c r="AN99" s="10"/>
+      <c r="AO99" s="10"/>
+      <c r="AP99" s="10"/>
+    </row>
+    <row r="100" spans="34:42">
+      <c r="AH100" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI100" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="AJ100" s="17">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="AK100" s="10"/>
+      <c r="AL100" s="10"/>
+      <c r="AM100" s="10"/>
+      <c r="AN100" s="10"/>
+      <c r="AO100" s="10"/>
+      <c r="AP100" s="10"/>
+    </row>
+    <row r="101" spans="34:42">
+      <c r="AH101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI101" s="17"/>
+      <c r="AJ101" s="17"/>
+      <c r="AK101" s="10"/>
+      <c r="AL101" s="10"/>
+      <c r="AM101" s="10"/>
+      <c r="AN101" s="10"/>
+      <c r="AO101" s="10"/>
+      <c r="AP101" s="10"/>
+    </row>
+    <row r="102" spans="34:42">
+      <c r="AH102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI102" s="17"/>
+      <c r="AJ102" s="17"/>
+      <c r="AK102" s="10"/>
+      <c r="AL102" s="10"/>
+      <c r="AM102" s="10"/>
+      <c r="AN102" s="10"/>
+      <c r="AO102" s="10"/>
+      <c r="AP102" s="10"/>
+    </row>
+    <row r="103" spans="34:42">
+      <c r="AH103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI103" s="17"/>
+      <c r="AJ103" s="17"/>
+    </row>
+    <row r="104" spans="34:42">
+      <c r="AH104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI104" s="17">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="AJ104" s="17">
+        <v>0.3967</v>
+      </c>
+    </row>
+    <row r="105" spans="34:42">
+      <c r="AH105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI105" s="17"/>
+      <c r="AJ105" s="17"/>
+    </row>
+    <row r="106" spans="34:42">
+      <c r="AH106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI106" s="17"/>
+      <c r="AJ106" s="17"/>
+    </row>
+    <row r="107" spans="34:42">
+      <c r="AH107" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI107" s="17"/>
+      <c r="AJ107" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Performance_Analysis.xlsx
+++ b/Documents/Performance_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ao/Desktop/graduate-Ao/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F6D4FD-84D4-5E4E-84D0-A98E52C0F726}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4F5D1-E9D6-0048-8AF3-51EC04304A0C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="0" windowWidth="28040" windowHeight="17540" xr2:uid="{91479095-4496-A54A-8A57-787D87B1B809}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" firstSheet="1" activeTab="1" xr2:uid="{91479095-4496-A54A-8A57-787D87B1B809}"/>
   </bookViews>
   <sheets>
     <sheet name="Tool Performance Analysis" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="221">
   <si>
     <t>Type</t>
   </si>
@@ -477,6 +477,9 @@
     <t>De-ID - Import HMS Name Dictionary &amp; Regex Matching</t>
   </si>
   <si>
+    <t>HMS - Only Use Training Dictionary</t>
+  </si>
+  <si>
     <t>Environment</t>
   </si>
   <si>
@@ -514,6 +517,180 @@
   </si>
   <si>
     <t>Mixed HMS &amp; DE-ID - Import HMS Name Dictionary &amp; Regex Matching into DE-ID</t>
+  </si>
+  <si>
+    <t>Improved1_90</t>
+  </si>
+  <si>
+    <t>Improved2_90</t>
+  </si>
+  <si>
+    <t>Improved1_80</t>
+  </si>
+  <si>
+    <t>Improved2_80</t>
+  </si>
+  <si>
+    <t>Improved1_70</t>
+  </si>
+  <si>
+    <t>Improved2_70</t>
+  </si>
+  <si>
+    <t>Improved1_60</t>
+  </si>
+  <si>
+    <t>Improved2_60</t>
+  </si>
+  <si>
+    <t>Improved1_50</t>
+  </si>
+  <si>
+    <t>Improved2_50</t>
+  </si>
+  <si>
+    <t>Improved DE-ID --- Only People Dictionary Imported</t>
+  </si>
+  <si>
+    <t>Improved DE-ID --- Both People and Position Dictionary Imported</t>
+  </si>
+  <si>
+    <t>Original_People_90</t>
+  </si>
+  <si>
+    <t>Original_Position_90</t>
+  </si>
+  <si>
+    <t>Original_Total_90</t>
+  </si>
+  <si>
+    <t>Original_People_80</t>
+  </si>
+  <si>
+    <t>Original_Position_80</t>
+  </si>
+  <si>
+    <t>Original_Total_80</t>
+  </si>
+  <si>
+    <t>Original_People_70</t>
+  </si>
+  <si>
+    <t>Original_Position_70</t>
+  </si>
+  <si>
+    <t>Original_Total_70</t>
+  </si>
+  <si>
+    <t>Original_People_60</t>
+  </si>
+  <si>
+    <t>Original_Position_60</t>
+  </si>
+  <si>
+    <t>Original_Total_60</t>
+  </si>
+  <si>
+    <t>Original_People_50</t>
+  </si>
+  <si>
+    <t>Original_Position_50</t>
+  </si>
+  <si>
+    <t>Original_Total_50</t>
+  </si>
+  <si>
+    <t>DE-ID - Only Use Training Dictionary</t>
+  </si>
+  <si>
+    <t>Only_Import_People_90</t>
+  </si>
+  <si>
+    <t>Dictionary_People_90</t>
+  </si>
+  <si>
+    <t>Only_Import_Position_90</t>
+  </si>
+  <si>
+    <t>Dictionary_Position_90</t>
+  </si>
+  <si>
+    <t>Only_Import_Total_90</t>
+  </si>
+  <si>
+    <t>Dictionary_Total_90</t>
+  </si>
+  <si>
+    <t>Only_Import_People_80</t>
+  </si>
+  <si>
+    <t>Only_Import_Position_80</t>
+  </si>
+  <si>
+    <t>Only_Import_Total_80</t>
+  </si>
+  <si>
+    <t>Only_Import_People_70</t>
+  </si>
+  <si>
+    <t>Only_Import_Position_70</t>
+  </si>
+  <si>
+    <t>Only_Import_Total_70</t>
+  </si>
+  <si>
+    <t>Only_Import_People_60</t>
+  </si>
+  <si>
+    <t>Only_Import_Position_60</t>
+  </si>
+  <si>
+    <t>Only_Import_Total_60</t>
+  </si>
+  <si>
+    <t>Only_Import_People_50</t>
+  </si>
+  <si>
+    <t>Only_Import_Position_50</t>
+  </si>
+  <si>
+    <t>Only_Import_Total_50</t>
+  </si>
+  <si>
+    <t>Dictionary_People_80</t>
+  </si>
+  <si>
+    <t>Dictionary_People_70</t>
+  </si>
+  <si>
+    <t>Dictionary_People_60</t>
+  </si>
+  <si>
+    <t>Dictionary_People_50</t>
+  </si>
+  <si>
+    <t>Dictionary_Position_80</t>
+  </si>
+  <si>
+    <t>Dictionary_Position_70</t>
+  </si>
+  <si>
+    <t>Dictionary_Position_60</t>
+  </si>
+  <si>
+    <t>Dictionary_Position_50</t>
+  </si>
+  <si>
+    <t>Dictionary_Total_80</t>
+  </si>
+  <si>
+    <t>Dictionary_Total_60</t>
+  </si>
+  <si>
+    <t>Dictionary_Total_50</t>
+  </si>
+  <si>
+    <t>Dictionary_Total_70</t>
   </si>
 </sst>
 </file>
@@ -523,7 +700,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -673,6 +850,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -694,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -776,6 +961,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DD6379-5945-AF45-9211-A3F473726351}">
   <dimension ref="A1:AO107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -5083,10 +5284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CA05E5-F988-D84A-8FEF-DA0435FD6A07}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:AD98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:Q24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5100,9 +5301,14 @@
     <col min="12" max="12" width="12.1640625" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="9" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" customWidth="1"/>
+    <col min="25" max="25" width="12.5" customWidth="1"/>
+    <col min="26" max="26" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:26">
       <c r="A1" s="24"/>
       <c r="C1" s="33" t="s">
         <v>123</v>
@@ -5111,7 +5317,7 @@
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:26">
       <c r="A2" s="27"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28" t="s">
@@ -5129,7 +5335,7 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:26">
       <c r="A3" s="29"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
@@ -5148,7 +5354,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:26">
       <c r="A4" s="29"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21" t="s">
@@ -5167,7 +5373,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:26">
       <c r="A5" s="29"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
@@ -5186,7 +5392,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:26">
       <c r="A6" s="29"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21" t="s">
@@ -5203,7 +5409,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:26">
       <c r="A7" s="29"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
@@ -5222,12 +5428,12 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:26">
       <c r="A8" s="25"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:26">
       <c r="A9" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -5237,7 +5443,7 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="J9" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
@@ -5246,8 +5452,15 @@
       <c r="O9" s="34"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="V9" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -5296,13 +5509,28 @@
       <c r="Q10" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="V10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B11" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C11" s="21">
         <v>2</v>
@@ -5316,7 +5544,7 @@
       </c>
       <c r="F11" s="21">
         <f t="shared" ref="F11:F20" si="1">B11-D11</f>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G11" s="21" t="str">
         <f t="shared" ref="G11:G20" si="2">TEXT(D11/B11,"0.00%")</f>
@@ -5330,7 +5558,7 @@
         <v>134</v>
       </c>
       <c r="K11" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L11" s="21">
         <v>411</v>
@@ -5344,23 +5572,39 @@
       </c>
       <c r="O11" s="21">
         <f t="shared" ref="O11:O20" si="4">K11-M11</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="P11" s="21" t="str">
         <f t="shared" ref="P11:P20" si="5">TEXT(M11/K11,"0.00%")</f>
-        <v>55.88%</v>
+        <v>42.22%</v>
       </c>
       <c r="Q11" s="21" t="str">
         <f t="shared" ref="Q11:Q20" si="6">TEXT(M11/(M11+N11),"0.00%")</f>
         <v>9.25%</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="V11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" s="21">
+        <v>90</v>
+      </c>
+      <c r="X11" s="21">
+        <v>398</v>
+      </c>
+      <c r="Y11" s="21">
+        <v>57</v>
+      </c>
+      <c r="Z11" s="21" t="str">
+        <f>TEXT(Y11/W11,"0.00%")</f>
+        <v>63.33%</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B12" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C12" s="21">
         <v>411</v>
@@ -5374,11 +5618,11 @@
       </c>
       <c r="F12" s="21">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G12" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>55.88%</v>
+        <v>42.22%</v>
       </c>
       <c r="H12" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5388,7 +5632,7 @@
         <v>133</v>
       </c>
       <c r="K12" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L12" s="21">
         <v>412</v>
@@ -5402,23 +5646,39 @@
       </c>
       <c r="O12" s="21">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="P12" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>55.88%</v>
+        <v>42.22%</v>
       </c>
       <c r="Q12" s="21" t="str">
         <f t="shared" si="6"/>
         <v>9.22%</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="V12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" s="21">
+        <v>90</v>
+      </c>
+      <c r="X12" s="21">
+        <v>403</v>
+      </c>
+      <c r="Y12" s="21">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="21" t="str">
+        <f t="shared" ref="Z12:Z29" si="9">TEXT(Y12/W12,"0.00%")</f>
+        <v>63.33%</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="21">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C13" s="21">
         <v>2</v>
@@ -5432,7 +5692,7 @@
       </c>
       <c r="F13" s="21">
         <f t="shared" si="1"/>
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="G13" s="21" t="str">
         <f t="shared" si="2"/>
@@ -5446,7 +5706,7 @@
         <v>135</v>
       </c>
       <c r="K13" s="21">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="L13" s="21">
         <v>705</v>
@@ -5460,23 +5720,39 @@
       </c>
       <c r="O13" s="21">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="P13" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>44.91%</v>
+        <v>36.41%</v>
       </c>
       <c r="Q13" s="21" t="str">
         <f t="shared" si="6"/>
         <v>10.64%</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="V13" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="W13" s="21">
+        <v>90</v>
+      </c>
+      <c r="X13" s="21">
+        <v>409</v>
+      </c>
+      <c r="Y13" s="21">
+        <v>61</v>
+      </c>
+      <c r="Z13" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>67.78%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B14" s="21">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C14" s="21">
         <v>705</v>
@@ -5490,11 +5766,11 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G14" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>44.91%</v>
+        <v>36.41%</v>
       </c>
       <c r="H14" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5504,7 +5780,7 @@
         <v>139</v>
       </c>
       <c r="K14" s="21">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="L14" s="21">
         <v>710</v>
@@ -5518,23 +5794,24 @@
       </c>
       <c r="O14" s="21">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="P14" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>46.11%</v>
+        <v>37.38%</v>
       </c>
       <c r="Q14" s="21" t="str">
         <f t="shared" si="6"/>
         <v>10.85%</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Z14" s="21"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="21" t="s">
         <v>136</v>
       </c>
       <c r="B15" s="21">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="C15" s="21">
         <v>4</v>
@@ -5548,7 +5825,7 @@
       </c>
       <c r="F15" s="21">
         <f t="shared" si="1"/>
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="G15" s="21" t="str">
         <f t="shared" si="2"/>
@@ -5562,7 +5839,7 @@
         <v>136</v>
       </c>
       <c r="K15" s="21">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="L15" s="21">
         <v>856</v>
@@ -5576,23 +5853,39 @@
       </c>
       <c r="O15" s="21">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="P15" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>34.82%</v>
+        <v>29.35%</v>
       </c>
       <c r="Q15" s="21" t="str">
         <f t="shared" si="6"/>
         <v>10.05%</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="V15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="21">
+        <v>206</v>
+      </c>
+      <c r="X15" s="21">
+        <v>753</v>
+      </c>
+      <c r="Y15" s="21">
+        <v>129</v>
+      </c>
+      <c r="Z15" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>62.62%</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B16" s="21">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="C16" s="21">
         <v>856</v>
@@ -5606,11 +5899,11 @@
       </c>
       <c r="F16" s="21">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="G16" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>34.82%</v>
+        <v>29.35%</v>
       </c>
       <c r="H16" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5620,7 +5913,7 @@
         <v>140</v>
       </c>
       <c r="K16" s="21">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="L16" s="21">
         <v>857</v>
@@ -5634,23 +5927,39 @@
       </c>
       <c r="O16" s="21">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="P16" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>34.82%</v>
+        <v>29.35%</v>
       </c>
       <c r="Q16" s="21" t="str">
         <f t="shared" si="6"/>
         <v>10.04%</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="V16" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="W16" s="21">
+        <v>206</v>
+      </c>
+      <c r="X16" s="21">
+        <v>761</v>
+      </c>
+      <c r="Y16" s="21">
+        <v>129</v>
+      </c>
+      <c r="Z16" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>62.62%</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="21" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="21">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="C17" s="21">
         <v>4</v>
@@ -5664,7 +5973,7 @@
       </c>
       <c r="F17" s="21">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="G17" s="21" t="str">
         <f t="shared" si="2"/>
@@ -5678,7 +5987,7 @@
         <v>137</v>
       </c>
       <c r="K17" s="21">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="L17" s="21">
         <v>1202</v>
@@ -5692,23 +6001,39 @@
       </c>
       <c r="O17" s="21">
         <f t="shared" si="4"/>
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="P17" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>28.86%</v>
+        <v>24.22%</v>
       </c>
       <c r="Q17" s="21" t="str">
         <f t="shared" si="6"/>
         <v>8.40%</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="V17" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="W17" s="21">
+        <v>206</v>
+      </c>
+      <c r="X17" s="21">
+        <v>803</v>
+      </c>
+      <c r="Y17" s="21">
+        <v>145</v>
+      </c>
+      <c r="Z17" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>70.39%</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B18" s="21">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="C18" s="21">
         <v>1202</v>
@@ -5722,11 +6047,11 @@
       </c>
       <c r="F18" s="21">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="G18" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>28.86%</v>
+        <v>24.22%</v>
       </c>
       <c r="H18" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5736,7 +6061,7 @@
         <v>141</v>
       </c>
       <c r="K18" s="21">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="L18" s="21">
         <v>1202</v>
@@ -5750,23 +6075,24 @@
       </c>
       <c r="O18" s="21">
         <f t="shared" si="4"/>
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="P18" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>28.29%</v>
+        <v>23.74%</v>
       </c>
       <c r="Q18" s="21" t="str">
         <f t="shared" si="6"/>
         <v>8.24%</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="Z18" s="21"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="21" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="21">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="C19" s="21">
         <v>3</v>
@@ -5780,7 +6106,7 @@
       </c>
       <c r="F19" s="21">
         <f t="shared" si="1"/>
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="G19" s="21" t="str">
         <f t="shared" si="2"/>
@@ -5794,7 +6120,7 @@
         <v>138</v>
       </c>
       <c r="K19" s="21">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="L19" s="21">
         <v>1202</v>
@@ -5808,23 +6134,39 @@
       </c>
       <c r="O19" s="21">
         <f t="shared" si="4"/>
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="P19" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>27.67%</v>
+        <v>22.97%</v>
       </c>
       <c r="Q19" s="21" t="str">
         <f t="shared" si="6"/>
         <v>9.90%</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="V19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W19" s="21">
+        <v>293</v>
+      </c>
+      <c r="X19" s="21">
+        <v>826</v>
+      </c>
+      <c r="Y19" s="21">
+        <v>158</v>
+      </c>
+      <c r="Z19" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>53.92%</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B20" s="21">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="C20" s="21">
         <v>1202</v>
@@ -5838,11 +6180,11 @@
       </c>
       <c r="F20" s="21">
         <f t="shared" si="1"/>
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="G20" s="21" t="str">
         <f t="shared" si="2"/>
-        <v>27.67%</v>
+        <v>22.97%</v>
       </c>
       <c r="H20" s="21" t="str">
         <f t="shared" si="3"/>
@@ -5852,7 +6194,7 @@
         <v>142</v>
       </c>
       <c r="K20" s="21">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="L20" s="21">
         <v>1212</v>
@@ -5866,20 +6208,75 @@
       </c>
       <c r="O20" s="21">
         <f t="shared" si="4"/>
-        <v>310</v>
+        <v>398</v>
       </c>
       <c r="P20" s="21" t="str">
         <f t="shared" si="5"/>
-        <v>27.91%</v>
+        <v>23.17%</v>
       </c>
       <c r="Q20" s="21" t="str">
         <f t="shared" si="6"/>
         <v>9.90%</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="V20" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="W20" s="21">
+        <v>293</v>
+      </c>
+      <c r="X20" s="21">
+        <v>847</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>161</v>
+      </c>
+      <c r="Z20" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>54.95%</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="V21" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="W21" s="21">
+        <v>293</v>
+      </c>
+      <c r="X21" s="21">
+        <v>1035</v>
+      </c>
+      <c r="Y21" s="21">
+        <v>195</v>
+      </c>
+      <c r="Z21" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>66.55%</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="Z22" s="21"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="V23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="21">
+        <v>417</v>
+      </c>
+      <c r="X23" s="21">
+        <v>1216</v>
+      </c>
+      <c r="Y23" s="21">
+        <v>207</v>
+      </c>
+      <c r="Z23" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>49.64%</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -5889,7 +6286,7 @@
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="J24" s="34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
@@ -5898,8 +6295,24 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="V24" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="W24" s="21">
+        <v>417</v>
+      </c>
+      <c r="X24" s="21">
+        <v>1243</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>209</v>
+      </c>
+      <c r="Z24" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>50.12%</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="20" t="s">
         <v>0</v>
       </c>
@@ -5948,13 +6361,29 @@
       <c r="Q25" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="V25" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="W25" s="21">
+        <v>417</v>
+      </c>
+      <c r="X25" s="21">
+        <v>1483</v>
+      </c>
+      <c r="Y25" s="21">
+        <v>271</v>
+      </c>
+      <c r="Z25" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>64.99%</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B26" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C26" s="21">
         <v>32</v>
@@ -5967,22 +6396,22 @@
         <v>15</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" ref="F26:F35" si="9">B26-D26</f>
-        <v>51</v>
+        <f t="shared" ref="F26:F35" si="10">B26-D26</f>
+        <v>73</v>
       </c>
       <c r="G26" s="21" t="str">
-        <f t="shared" ref="G26:G35" si="10">TEXT(D26/B26,"0.00%")</f>
-        <v>25.00%</v>
+        <f t="shared" ref="G26:G35" si="11">TEXT(D26/B26,"0.00%")</f>
+        <v>18.89%</v>
       </c>
       <c r="H26" s="21" t="str">
-        <f t="shared" ref="H26:H35" si="11">TEXT(D26/C26,"0.00%")</f>
+        <f t="shared" ref="H26:H35" si="12">TEXT(D26/C26,"0.00%")</f>
         <v>53.13%</v>
       </c>
       <c r="J26" s="21" t="s">
         <v>134</v>
       </c>
       <c r="K26" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L26" s="21">
         <v>398</v>
@@ -5995,24 +6424,25 @@
         <v>341</v>
       </c>
       <c r="O26" s="21">
-        <f t="shared" ref="O26:O35" si="12">K26-M26</f>
-        <v>11</v>
+        <f t="shared" ref="O26:O35" si="13">K26-M26</f>
+        <v>33</v>
       </c>
       <c r="P26" s="21" t="str">
-        <f t="shared" ref="P26:P35" si="13">TEXT(M26/K26,"0.00%")</f>
-        <v>83.82%</v>
+        <f t="shared" ref="P26:P35" si="14">TEXT(M26/K26,"0.00%")</f>
+        <v>63.33%</v>
       </c>
       <c r="Q26" s="21" t="str">
-        <f t="shared" ref="Q26:Q35" si="14">TEXT(M26/L26,"0.00%")</f>
+        <f t="shared" ref="Q26:Q35" si="15">TEXT(M26/L26,"0.00%")</f>
         <v>14.32%</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="Z26" s="21"/>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B27" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C27" s="21">
         <v>398</v>
@@ -6021,26 +6451,26 @@
         <v>57</v>
       </c>
       <c r="E27" s="21">
-        <f t="shared" ref="E27:E35" si="15">C27-D27</f>
+        <f t="shared" ref="E27:E35" si="16">C27-D27</f>
         <v>341</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="9"/>
-        <v>11</v>
+        <f t="shared" si="10"/>
+        <v>33</v>
       </c>
       <c r="G27" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>83.82%</v>
+        <f t="shared" si="11"/>
+        <v>63.33%</v>
       </c>
       <c r="H27" s="21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.32%</v>
       </c>
       <c r="J27" s="21" t="s">
         <v>133</v>
       </c>
       <c r="K27" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L27" s="21">
         <v>377</v>
@@ -6049,28 +6479,44 @@
         <v>51</v>
       </c>
       <c r="N27" s="21">
-        <f t="shared" ref="N27:N35" si="16">L27-M27</f>
+        <f t="shared" ref="N27:N35" si="17">L27-M27</f>
         <v>326</v>
       </c>
       <c r="O27" s="21">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>39</v>
       </c>
       <c r="P27" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>75.00%</v>
+        <f t="shared" si="14"/>
+        <v>56.67%</v>
       </c>
       <c r="Q27" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>13.53%</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="V27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" s="21">
+        <v>518</v>
+      </c>
+      <c r="X27" s="21">
+        <v>1289</v>
+      </c>
+      <c r="Y27" s="21">
+        <v>259</v>
+      </c>
+      <c r="Z27" s="21" t="str">
+        <f>TEXT(Y27/W27,"0.00%")</f>
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B28" s="21">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C28" s="21">
         <v>60</v>
@@ -6079,432 +6525,481 @@
         <v>30</v>
       </c>
       <c r="E28" s="21">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="10"/>
+        <v>176</v>
+      </c>
+      <c r="G28" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>14.56%</v>
+      </c>
+      <c r="H28" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>50.00%</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="21">
+        <v>206</v>
+      </c>
+      <c r="L28" s="21">
+        <v>753</v>
+      </c>
+      <c r="M28" s="21">
+        <v>129</v>
+      </c>
+      <c r="N28" s="21">
+        <f t="shared" si="17"/>
+        <v>624</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="13"/>
+        <v>77</v>
+      </c>
+      <c r="P28" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>62.62%</v>
+      </c>
+      <c r="Q28" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="F28" s="21">
+        <v>17.13%</v>
+      </c>
+      <c r="V28" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="W28" s="21">
+        <v>518</v>
+      </c>
+      <c r="X28" s="21">
+        <v>1325</v>
+      </c>
+      <c r="Y28" s="21">
+        <v>260</v>
+      </c>
+      <c r="Z28" s="21" t="str">
         <f t="shared" si="9"/>
+        <v>50.19%</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="21">
+        <v>206</v>
+      </c>
+      <c r="C29" s="21">
+        <v>753</v>
+      </c>
+      <c r="D29" s="21">
+        <v>129</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="16"/>
+        <v>624</v>
+      </c>
+      <c r="F29" s="21">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="G29" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>62.62%</v>
+      </c>
+      <c r="H29" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>17.13%</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29" s="21">
+        <v>206</v>
+      </c>
+      <c r="L29" s="21">
+        <v>709</v>
+      </c>
+      <c r="M29" s="21">
+        <v>118</v>
+      </c>
+      <c r="N29" s="21">
+        <f t="shared" si="17"/>
+        <v>591</v>
+      </c>
+      <c r="O29" s="21">
+        <f t="shared" si="13"/>
+        <v>88</v>
+      </c>
+      <c r="P29" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>57.28%</v>
+      </c>
+      <c r="Q29" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v>16.64%</v>
+      </c>
+      <c r="V29" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="W29" s="21">
+        <v>518</v>
+      </c>
+      <c r="X29" s="21">
+        <v>3040</v>
+      </c>
+      <c r="Y29" s="21">
+        <v>351</v>
+      </c>
+      <c r="Z29" s="21" t="str">
+        <f t="shared" si="9"/>
+        <v>67.76%</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="21">
+        <v>293</v>
+      </c>
+      <c r="C30" s="21">
+        <v>95</v>
+      </c>
+      <c r="D30" s="21">
+        <v>47</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="16"/>
+        <v>48</v>
+      </c>
+      <c r="F30" s="21">
+        <f t="shared" si="10"/>
+        <v>246</v>
+      </c>
+      <c r="G30" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>16.04%</v>
+      </c>
+      <c r="H30" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>49.47%</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="21">
+        <v>293</v>
+      </c>
+      <c r="L30" s="21">
+        <v>826</v>
+      </c>
+      <c r="M30" s="21">
+        <v>158</v>
+      </c>
+      <c r="N30" s="21">
+        <f t="shared" si="17"/>
+        <v>668</v>
+      </c>
+      <c r="O30" s="21">
+        <f t="shared" si="13"/>
+        <v>135</v>
+      </c>
+      <c r="P30" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>53.92%</v>
+      </c>
+      <c r="Q30" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v>19.13%</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="21">
+        <v>293</v>
+      </c>
+      <c r="C31" s="21">
+        <v>826</v>
+      </c>
+      <c r="D31" s="21">
+        <v>158</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="16"/>
+        <v>668</v>
+      </c>
+      <c r="F31" s="21">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="G31" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>53.92%</v>
+      </c>
+      <c r="H31" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>19.13%</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="21">
+        <v>293</v>
+      </c>
+      <c r="L31" s="21">
+        <v>758</v>
+      </c>
+      <c r="M31" s="21">
+        <v>141</v>
+      </c>
+      <c r="N31" s="21">
+        <f t="shared" si="17"/>
+        <v>617</v>
+      </c>
+      <c r="O31" s="21">
+        <f t="shared" si="13"/>
+        <v>152</v>
+      </c>
+      <c r="P31" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>48.12%</v>
+      </c>
+      <c r="Q31" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v>18.60%</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="G28" s="21" t="str">
+      <c r="B32" s="21">
+        <v>417</v>
+      </c>
+      <c r="C32" s="21">
+        <v>121</v>
+      </c>
+      <c r="D32" s="21">
+        <v>56</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="16"/>
+        <v>65</v>
+      </c>
+      <c r="F32" s="21">
         <f t="shared" si="10"/>
-        <v>17.96%</v>
-      </c>
-      <c r="H28" s="21" t="str">
+        <v>361</v>
+      </c>
+      <c r="G32" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>13.43%</v>
+      </c>
+      <c r="H32" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>46.28%</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="21">
+        <v>417</v>
+      </c>
+      <c r="L32" s="21">
+        <v>1216</v>
+      </c>
+      <c r="M32" s="21">
+        <v>207</v>
+      </c>
+      <c r="N32" s="21">
+        <f t="shared" si="17"/>
+        <v>1009</v>
+      </c>
+      <c r="O32" s="21">
+        <f t="shared" si="13"/>
+        <v>210</v>
+      </c>
+      <c r="P32" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>49.64%</v>
+      </c>
+      <c r="Q32" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v>17.02%</v>
+      </c>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="39"/>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" s="21">
+        <v>417</v>
+      </c>
+      <c r="C33" s="21">
+        <v>1216</v>
+      </c>
+      <c r="D33" s="21">
+        <v>207</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="16"/>
+        <v>1009</v>
+      </c>
+      <c r="F33" s="21">
+        <f t="shared" si="10"/>
+        <v>210</v>
+      </c>
+      <c r="G33" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>49.64%</v>
+      </c>
+      <c r="H33" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>17.02%</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K33" s="21">
+        <v>417</v>
+      </c>
+      <c r="L33" s="21">
+        <v>1122</v>
+      </c>
+      <c r="M33" s="21">
+        <v>175</v>
+      </c>
+      <c r="N33" s="21">
+        <f t="shared" si="17"/>
+        <v>947</v>
+      </c>
+      <c r="O33" s="21">
+        <f t="shared" si="13"/>
+        <v>242</v>
+      </c>
+      <c r="P33" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>41.97%</v>
+      </c>
+      <c r="Q33" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v>15.60%</v>
+      </c>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="23"/>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="21">
+        <v>518</v>
+      </c>
+      <c r="C34" s="21">
+        <v>151</v>
+      </c>
+      <c r="D34" s="21">
+        <v>79</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="10"/>
+        <v>439</v>
+      </c>
+      <c r="G34" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>15.25%</v>
+      </c>
+      <c r="H34" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>52.32%</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="21">
+        <v>518</v>
+      </c>
+      <c r="L34" s="21">
+        <v>1289</v>
+      </c>
+      <c r="M34" s="21">
+        <v>259</v>
+      </c>
+      <c r="N34" s="21">
+        <f t="shared" si="17"/>
+        <v>1030</v>
+      </c>
+      <c r="O34" s="21">
+        <f t="shared" si="13"/>
+        <v>259</v>
+      </c>
+      <c r="P34" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>50.00%</v>
+      </c>
+      <c r="Q34" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v>20.09%</v>
+      </c>
+      <c r="V34" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="21">
+        <v>518</v>
+      </c>
+      <c r="C35" s="21">
+        <v>1289</v>
+      </c>
+      <c r="D35" s="21">
+        <v>259</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="16"/>
+        <v>1030</v>
+      </c>
+      <c r="F35" s="21">
+        <f t="shared" si="10"/>
+        <v>259</v>
+      </c>
+      <c r="G35" s="21" t="str">
         <f t="shared" si="11"/>
         <v>50.00%</v>
       </c>
-      <c r="J28" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" s="21">
-        <v>167</v>
-      </c>
-      <c r="L28" s="21">
-        <v>753</v>
-      </c>
-      <c r="M28" s="21">
-        <v>129</v>
-      </c>
-      <c r="N28" s="21">
-        <f t="shared" si="16"/>
-        <v>624</v>
-      </c>
-      <c r="O28" s="21">
+      <c r="H35" s="21" t="str">
         <f t="shared" si="12"/>
-        <v>38</v>
-      </c>
-      <c r="P28" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>77.25%</v>
-      </c>
-      <c r="Q28" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>17.13%</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="21">
-        <v>167</v>
-      </c>
-      <c r="C29" s="21">
-        <v>753</v>
-      </c>
-      <c r="D29" s="21">
-        <v>129</v>
-      </c>
-      <c r="E29" s="21">
-        <f t="shared" si="15"/>
-        <v>624</v>
-      </c>
-      <c r="F29" s="21">
-        <f t="shared" si="9"/>
-        <v>38</v>
-      </c>
-      <c r="G29" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>77.25%</v>
-      </c>
-      <c r="H29" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>17.13%</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="K29" s="21">
-        <v>167</v>
-      </c>
-      <c r="L29" s="21">
-        <v>709</v>
-      </c>
-      <c r="M29" s="21">
-        <v>118</v>
-      </c>
-      <c r="N29" s="21">
-        <f t="shared" si="16"/>
-        <v>591</v>
-      </c>
-      <c r="O29" s="21">
-        <f t="shared" si="12"/>
-        <v>49</v>
-      </c>
-      <c r="P29" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>70.66%</v>
-      </c>
-      <c r="Q29" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>16.64%</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="21">
-        <v>247</v>
-      </c>
-      <c r="C30" s="21">
-        <v>95</v>
-      </c>
-      <c r="D30" s="21">
-        <v>47</v>
-      </c>
-      <c r="E30" s="21">
-        <f t="shared" si="15"/>
-        <v>48</v>
-      </c>
-      <c r="F30" s="21">
-        <f t="shared" si="9"/>
-        <v>200</v>
-      </c>
-      <c r="G30" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>19.03%</v>
-      </c>
-      <c r="H30" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>49.47%</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="K30" s="21">
-        <v>247</v>
-      </c>
-      <c r="L30" s="21">
-        <v>826</v>
-      </c>
-      <c r="M30" s="21">
-        <v>158</v>
-      </c>
-      <c r="N30" s="21">
-        <f t="shared" si="16"/>
-        <v>668</v>
-      </c>
-      <c r="O30" s="21">
-        <f t="shared" si="12"/>
-        <v>89</v>
-      </c>
-      <c r="P30" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>63.97%</v>
-      </c>
-      <c r="Q30" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>19.13%</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="21">
-        <v>247</v>
-      </c>
-      <c r="C31" s="21">
-        <v>826</v>
-      </c>
-      <c r="D31" s="21">
-        <v>158</v>
-      </c>
-      <c r="E31" s="21">
-        <f t="shared" si="15"/>
-        <v>668</v>
-      </c>
-      <c r="F31" s="21">
-        <f t="shared" si="9"/>
-        <v>89</v>
-      </c>
-      <c r="G31" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>63.97%</v>
-      </c>
-      <c r="H31" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>19.13%</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="K31" s="21">
-        <v>247</v>
-      </c>
-      <c r="L31" s="21">
-        <v>758</v>
-      </c>
-      <c r="M31" s="21">
-        <v>141</v>
-      </c>
-      <c r="N31" s="21">
-        <f t="shared" si="16"/>
-        <v>617</v>
-      </c>
-      <c r="O31" s="21">
-        <f t="shared" si="12"/>
-        <v>106</v>
-      </c>
-      <c r="P31" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>57.09%</v>
-      </c>
-      <c r="Q31" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>18.60%</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="21">
-        <v>350</v>
-      </c>
-      <c r="C32" s="21">
-        <v>121</v>
-      </c>
-      <c r="D32" s="21">
-        <v>56</v>
-      </c>
-      <c r="E32" s="21">
-        <f t="shared" si="15"/>
-        <v>65</v>
-      </c>
-      <c r="F32" s="21">
-        <f t="shared" si="9"/>
-        <v>294</v>
-      </c>
-      <c r="G32" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>16.00%</v>
-      </c>
-      <c r="H32" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>46.28%</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="K32" s="21">
-        <v>350</v>
-      </c>
-      <c r="L32" s="21">
-        <v>1216</v>
-      </c>
-      <c r="M32" s="21">
-        <v>207</v>
-      </c>
-      <c r="N32" s="21">
-        <f t="shared" si="16"/>
-        <v>1009</v>
-      </c>
-      <c r="O32" s="21">
-        <f t="shared" si="12"/>
-        <v>143</v>
-      </c>
-      <c r="P32" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>59.14%</v>
-      </c>
-      <c r="Q32" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>17.02%</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="21">
-        <v>350</v>
-      </c>
-      <c r="C33" s="21">
-        <v>1216</v>
-      </c>
-      <c r="D33" s="21">
-        <v>207</v>
-      </c>
-      <c r="E33" s="21">
-        <f t="shared" si="15"/>
-        <v>1009</v>
-      </c>
-      <c r="F33" s="21">
-        <f t="shared" si="9"/>
-        <v>143</v>
-      </c>
-      <c r="G33" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>59.14%</v>
-      </c>
-      <c r="H33" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>17.02%</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="K33" s="21">
-        <v>350</v>
-      </c>
-      <c r="L33" s="21">
-        <v>1122</v>
-      </c>
-      <c r="M33" s="21">
-        <v>175</v>
-      </c>
-      <c r="N33" s="21">
-        <f t="shared" si="16"/>
-        <v>947</v>
-      </c>
-      <c r="O33" s="21">
-        <f t="shared" si="12"/>
-        <v>175</v>
-      </c>
-      <c r="P33" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>50.00%</v>
-      </c>
-      <c r="Q33" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>15.60%</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="21">
-        <v>430</v>
-      </c>
-      <c r="C34" s="21">
-        <v>151</v>
-      </c>
-      <c r="D34" s="21">
-        <v>79</v>
-      </c>
-      <c r="E34" s="21">
-        <f t="shared" si="15"/>
-        <v>72</v>
-      </c>
-      <c r="F34" s="21">
-        <f t="shared" si="9"/>
-        <v>351</v>
-      </c>
-      <c r="G34" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>18.37%</v>
-      </c>
-      <c r="H34" s="21" t="str">
-        <f t="shared" si="11"/>
-        <v>52.32%</v>
-      </c>
-      <c r="J34" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="K34" s="21">
-        <v>430</v>
-      </c>
-      <c r="L34" s="21">
-        <v>1289</v>
-      </c>
-      <c r="M34" s="21">
-        <v>259</v>
-      </c>
-      <c r="N34" s="21">
-        <f t="shared" si="16"/>
-        <v>1030</v>
-      </c>
-      <c r="O34" s="21">
-        <f t="shared" si="12"/>
-        <v>171</v>
-      </c>
-      <c r="P34" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>60.23%</v>
-      </c>
-      <c r="Q34" s="21" t="str">
-        <f t="shared" si="14"/>
-        <v>20.09%</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="21">
-        <v>430</v>
-      </c>
-      <c r="C35" s="21">
-        <v>1289</v>
-      </c>
-      <c r="D35" s="21">
-        <v>259</v>
-      </c>
-      <c r="E35" s="21">
-        <f t="shared" si="15"/>
-        <v>1030</v>
-      </c>
-      <c r="F35" s="21">
-        <f t="shared" si="9"/>
-        <v>171</v>
-      </c>
-      <c r="G35" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>60.23%</v>
-      </c>
-      <c r="H35" s="21" t="str">
-        <f t="shared" si="11"/>
         <v>20.09%</v>
       </c>
       <c r="J35" s="21" t="s">
         <v>142</v>
       </c>
       <c r="K35" s="21">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="L35" s="21">
         <v>1158</v>
@@ -6513,23 +7008,74 @@
         <v>218</v>
       </c>
       <c r="N35" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>940</v>
       </c>
       <c r="O35" s="21">
-        <f t="shared" si="12"/>
-        <v>212</v>
+        <f t="shared" si="13"/>
+        <v>300</v>
       </c>
       <c r="P35" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>50.70%</v>
+        <f t="shared" si="14"/>
+        <v>42.08%</v>
       </c>
       <c r="Q35" s="21" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>18.83%</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="V35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y35" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z35" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="V36" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W36" s="21">
+        <v>172</v>
+      </c>
+      <c r="X36" s="21">
+        <v>560</v>
+      </c>
+      <c r="Y36" s="32">
+        <v>128</v>
+      </c>
+      <c r="Z36" s="21" t="str">
+        <f>TEXT(Y36/W36,"0.00%")</f>
+        <v>74.42%</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="V37" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="W37" s="21">
+        <v>172</v>
+      </c>
+      <c r="X37" s="21">
+        <v>564</v>
+      </c>
+      <c r="Y37" s="21">
+        <v>128</v>
+      </c>
+      <c r="Z37" s="21" t="str">
+        <f t="shared" ref="Z37:Z38" si="18">TEXT(Y37/W37,"0.00%")</f>
+        <v>74.42%</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="34" t="s">
         <v>147</v>
       </c>
@@ -6550,8 +7096,24 @@
       <c r="O38" s="34"/>
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="V38" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="W38" s="21">
+        <v>172</v>
+      </c>
+      <c r="X38" s="21">
+        <v>570</v>
+      </c>
+      <c r="Y38" s="21">
+        <v>133</v>
+      </c>
+      <c r="Z38" s="21" t="str">
+        <f t="shared" si="18"/>
+        <v>77.33%</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="20" t="s">
         <v>0</v>
       </c>
@@ -6600,13 +7162,14 @@
       <c r="Q39" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="Z39" s="21"/>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B40" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C40" s="21">
         <v>398</v>
@@ -6620,11 +7183,11 @@
       </c>
       <c r="F40" s="21">
         <f>B40-D40</f>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G40" s="21" t="str">
         <f>TEXT(D40/B40,"0.00%")</f>
-        <v>83.82%</v>
+        <v>63.33%</v>
       </c>
       <c r="H40" s="21" t="str">
         <f>TEXT(D40/C40,"0.00%")</f>
@@ -6634,7 +7197,7 @@
         <v>134</v>
       </c>
       <c r="K40" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L40" s="21">
         <v>403</v>
@@ -6648,23 +7211,39 @@
       </c>
       <c r="O40" s="21">
         <f>K40-M40</f>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P40" s="21" t="str">
         <f>TEXT(M40/K40,"0.00%")</f>
-        <v>83.82%</v>
+        <v>63.33%</v>
       </c>
       <c r="Q40" s="21" t="str">
         <f>TEXT(M40/L40,"0.00%")</f>
         <v>14.14%</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="V40" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W40" s="21">
+        <v>363</v>
+      </c>
+      <c r="X40" s="21">
+        <v>1059</v>
+      </c>
+      <c r="Y40" s="21">
+        <v>252</v>
+      </c>
+      <c r="Z40" s="21" t="str">
+        <f t="shared" ref="Z40:Z42" si="19">TEXT(Y40/W40,"0.00%")</f>
+        <v>69.42%</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B41" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C41" s="21">
         <v>403</v>
@@ -6678,11 +7257,11 @@
       </c>
       <c r="F41" s="21">
         <f>B41-D41</f>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G41" s="21" t="str">
         <f>TEXT(D41/B41,"0.00%")</f>
-        <v>83.82%</v>
+        <v>63.33%</v>
       </c>
       <c r="H41" s="21" t="str">
         <f>TEXT(D41/C41,"0.00%")</f>
@@ -6692,7 +7271,7 @@
         <v>133</v>
       </c>
       <c r="K41" s="21">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="L41" s="21">
         <v>409</v>
@@ -6706,23 +7285,39 @@
       </c>
       <c r="O41" s="21">
         <f>K41-M41</f>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="P41" s="21" t="str">
         <f>TEXT(M41/K41,"0.00%")</f>
-        <v>89.71%</v>
+        <v>67.78%</v>
       </c>
       <c r="Q41" s="21" t="str">
         <f>TEXT(M41/L41,"0.00%")</f>
         <v>14.91%</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="V41" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="W41" s="21">
+        <v>363</v>
+      </c>
+      <c r="X41" s="21">
+        <v>1065</v>
+      </c>
+      <c r="Y41" s="21">
+        <v>252</v>
+      </c>
+      <c r="Z41" s="21" t="str">
+        <f t="shared" si="19"/>
+        <v>69.42%</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B42" s="21">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C42" s="21">
         <v>753</v>
@@ -6736,11 +7331,11 @@
       </c>
       <c r="F42" s="21">
         <f>B42-D42</f>
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G42" s="21" t="str">
         <f>TEXT(D42/B42,"0.00%")</f>
-        <v>77.25%</v>
+        <v>62.62%</v>
       </c>
       <c r="H42" s="21" t="str">
         <f>TEXT(D42/C42,"0.00%")</f>
@@ -6750,7 +7345,7 @@
         <v>135</v>
       </c>
       <c r="K42" s="21">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="L42" s="21">
         <v>761</v>
@@ -6764,23 +7359,39 @@
       </c>
       <c r="O42" s="21">
         <f>K42-M42</f>
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="P42" s="21" t="str">
         <f>TEXT(M42/K42,"0.00%")</f>
-        <v>77.25%</v>
+        <v>62.62%</v>
       </c>
       <c r="Q42" s="21" t="str">
         <f>TEXT(M42/L42,"0.00%")</f>
         <v>16.95%</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="V42" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="W42" s="21">
+        <v>363</v>
+      </c>
+      <c r="X42" s="21">
+        <v>1107</v>
+      </c>
+      <c r="Y42" s="21">
+        <v>268</v>
+      </c>
+      <c r="Z42" s="21" t="str">
+        <f t="shared" si="19"/>
+        <v>73.83%</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B43" s="21">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C43" s="21">
         <v>761</v>
@@ -6794,11 +7405,11 @@
       </c>
       <c r="F43" s="21">
         <f>B43-D43</f>
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G43" s="21" t="str">
         <f>TEXT(D43/B43,"0.00%")</f>
-        <v>77.25%</v>
+        <v>62.62%</v>
       </c>
       <c r="H43" s="21" t="str">
         <f>TEXT(D43/C43,"0.00%")</f>
@@ -6808,7 +7419,7 @@
         <v>139</v>
       </c>
       <c r="K43" s="21">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="L43" s="21">
         <v>803</v>
@@ -6822,23 +7433,24 @@
       </c>
       <c r="O43" s="21">
         <f>K43-M43</f>
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="P43" s="21" t="str">
         <f>TEXT(M43/K43,"0.00%")</f>
-        <v>86.83%</v>
+        <v>70.39%</v>
       </c>
       <c r="Q43" s="21" t="str">
         <f>TEXT(M43/L43,"0.00%")</f>
         <v>18.06%</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="Z43" s="21"/>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="21" t="s">
         <v>136</v>
       </c>
       <c r="B44" s="21">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="C44" s="21">
         <v>826</v>
@@ -6852,11 +7464,11 @@
       </c>
       <c r="F44" s="21">
         <f>B44-D44</f>
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="G44" s="21" t="str">
         <f>TEXT(D44/B44,"0.00%")</f>
-        <v>63.97%</v>
+        <v>53.92%</v>
       </c>
       <c r="H44" s="21" t="str">
         <f>TEXT(D44/C44,"0.00%")</f>
@@ -6866,7 +7478,7 @@
         <v>136</v>
       </c>
       <c r="K44" s="21">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="L44" s="21">
         <v>847</v>
@@ -6880,23 +7492,39 @@
       </c>
       <c r="O44" s="21">
         <f>K44-M44</f>
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="P44" s="21" t="str">
         <f>TEXT(M44/K44,"0.00%")</f>
-        <v>65.18%</v>
+        <v>54.95%</v>
       </c>
       <c r="Q44" s="21" t="str">
         <f>TEXT(M44/L44,"0.00%")</f>
         <v>19.01%</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="V44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W44" s="21">
+        <v>510</v>
+      </c>
+      <c r="X44" s="21">
+        <v>1308</v>
+      </c>
+      <c r="Y44" s="21">
+        <v>332</v>
+      </c>
+      <c r="Z44" s="21" t="str">
+        <f t="shared" ref="Z44:Z46" si="20">TEXT(Y44/W44,"0.00%")</f>
+        <v>65.10%</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B45" s="21">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="C45" s="21">
         <v>847</v>
@@ -6910,11 +7538,11 @@
       </c>
       <c r="F45" s="21">
         <f>B45-D45</f>
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="G45" s="21" t="str">
         <f>TEXT(D45/B45,"0.00%")</f>
-        <v>65.18%</v>
+        <v>54.95%</v>
       </c>
       <c r="H45" s="21" t="str">
         <f>TEXT(D45/C45,"0.00%")</f>
@@ -6924,7 +7552,7 @@
         <v>140</v>
       </c>
       <c r="K45" s="21">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="L45" s="21">
         <v>1035</v>
@@ -6938,23 +7566,40 @@
       </c>
       <c r="O45" s="21">
         <f>K45-M45</f>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="P45" s="21" t="str">
         <f>TEXT(M45/K45,"0.00%")</f>
-        <v>78.95%</v>
+        <v>66.55%</v>
       </c>
       <c r="Q45" s="21" t="str">
         <f>TEXT(M45/L45,"0.00%")</f>
         <v>18.84%</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="V45" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="W45" s="21">
+        <v>510</v>
+      </c>
+      <c r="X45" s="21">
+        <v>1323</v>
+      </c>
+      <c r="Y45" s="21">
+        <v>335</v>
+      </c>
+      <c r="Z45" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v>65.69%</v>
+      </c>
+      <c r="AD45" s="41"/>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="21" t="s">
         <v>137</v>
       </c>
       <c r="B46" s="21">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="C46" s="21">
         <v>1216</v>
@@ -6968,11 +7613,11 @@
       </c>
       <c r="F46" s="21">
         <f>B46-D46</f>
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="G46" s="21" t="str">
         <f>TEXT(D46/B46,"0.00%")</f>
-        <v>59.14%</v>
+        <v>49.64%</v>
       </c>
       <c r="H46" s="21" t="str">
         <f>TEXT(D46/C46,"0.00%")</f>
@@ -6982,7 +7627,7 @@
         <v>137</v>
       </c>
       <c r="K46" s="21">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="L46" s="21">
         <v>1243</v>
@@ -6996,23 +7641,39 @@
       </c>
       <c r="O46" s="21">
         <f>K46-M46</f>
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="P46" s="21" t="str">
         <f>TEXT(M46/K46,"0.00%")</f>
-        <v>59.71%</v>
+        <v>50.12%</v>
       </c>
       <c r="Q46" s="21" t="str">
         <f>TEXT(M46/L46,"0.00%")</f>
         <v>16.81%</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="V46" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="W46" s="21">
+        <v>510</v>
+      </c>
+      <c r="X46" s="21">
+        <v>1475</v>
+      </c>
+      <c r="Y46" s="21">
+        <v>367</v>
+      </c>
+      <c r="Z46" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v>71.96%</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B47" s="21">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="C47" s="21">
         <v>1243</v>
@@ -7026,11 +7687,11 @@
       </c>
       <c r="F47" s="21">
         <f>B47-D47</f>
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="G47" s="21" t="str">
         <f>TEXT(D47/B47,"0.00%")</f>
-        <v>59.71%</v>
+        <v>50.12%</v>
       </c>
       <c r="H47" s="21" t="str">
         <f>TEXT(D47/C47,"0.00%")</f>
@@ -7040,7 +7701,7 @@
         <v>141</v>
       </c>
       <c r="K47" s="21">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="L47" s="21">
         <v>1483</v>
@@ -7054,23 +7715,24 @@
       </c>
       <c r="O47" s="21">
         <f>K47-M47</f>
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="P47" s="21" t="str">
         <f>TEXT(M47/K47,"0.00%")</f>
-        <v>77.43%</v>
+        <v>64.99%</v>
       </c>
       <c r="Q47" s="21" t="str">
         <f>TEXT(M47/L47,"0.00%")</f>
         <v>18.27%</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="Z47" s="21"/>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="21" t="s">
         <v>138</v>
       </c>
       <c r="B48" s="21">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="C48" s="21">
         <v>1289</v>
@@ -7084,11 +7746,11 @@
       </c>
       <c r="F48" s="21">
         <f>B48-D48</f>
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="G48" s="21" t="str">
         <f>TEXT(D48/B48,"0.00%")</f>
-        <v>60.23%</v>
+        <v>50.00%</v>
       </c>
       <c r="H48" s="21" t="str">
         <f>TEXT(D48/C48,"0.00%")</f>
@@ -7098,7 +7760,7 @@
         <v>138</v>
       </c>
       <c r="K48" s="21">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="L48" s="21">
         <v>1325</v>
@@ -7112,23 +7774,39 @@
       </c>
       <c r="O48" s="21">
         <f>K48-M48</f>
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="P48" s="21" t="str">
         <f>TEXT(M48/K48,"0.00%")</f>
-        <v>60.47%</v>
+        <v>50.19%</v>
       </c>
       <c r="Q48" s="21" t="str">
         <f>TEXT(M48/L48,"0.00%")</f>
         <v>19.62%</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="V48" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="W48" s="21">
+        <v>717</v>
+      </c>
+      <c r="X48" s="21">
+        <v>1874</v>
+      </c>
+      <c r="Y48" s="21">
+        <v>436</v>
+      </c>
+      <c r="Z48" s="21" t="str">
+        <f t="shared" ref="Z48:Z50" si="21">TEXT(Y48/W48,"0.00%")</f>
+        <v>60.81%</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B49" s="21">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="C49" s="21">
         <v>1325</v>
@@ -7142,11 +7820,11 @@
       </c>
       <c r="F49" s="21">
         <f>B49-D49</f>
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="G49" s="21" t="str">
         <f>TEXT(D49/B49,"0.00%")</f>
-        <v>60.47%</v>
+        <v>50.19%</v>
       </c>
       <c r="H49" s="21" t="str">
         <f>TEXT(D49/C49,"0.00%")</f>
@@ -7156,7 +7834,7 @@
         <v>142</v>
       </c>
       <c r="K49" s="21">
-        <v>430</v>
+        <v>518</v>
       </c>
       <c r="L49" s="21">
         <v>3040</v>
@@ -7170,19 +7848,406 @@
       </c>
       <c r="O49" s="21">
         <f>K49-M49</f>
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="P49" s="21" t="str">
         <f>TEXT(M49/K49,"0.00%")</f>
-        <v>81.63%</v>
+        <v>67.76%</v>
       </c>
       <c r="Q49" s="21" t="str">
         <f>TEXT(M49/L49,"0.00%")</f>
         <v>11.55%</v>
       </c>
+      <c r="V49" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="W49" s="21">
+        <v>717</v>
+      </c>
+      <c r="X49" s="21">
+        <v>1895</v>
+      </c>
+      <c r="Y49" s="21">
+        <v>438</v>
+      </c>
+      <c r="Z49" s="21" t="str">
+        <f t="shared" si="21"/>
+        <v>61.09%</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="V50" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="W50" s="21">
+        <v>717</v>
+      </c>
+      <c r="X50" s="21">
+        <v>2077</v>
+      </c>
+      <c r="Y50" s="21">
+        <v>496</v>
+      </c>
+      <c r="Z50" s="21" t="str">
+        <f t="shared" si="21"/>
+        <v>69.18%</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="Z51" s="21"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="V52" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="W52" s="21">
+        <v>868</v>
+      </c>
+      <c r="X52" s="21">
+        <v>1988</v>
+      </c>
+      <c r="Y52" s="21">
+        <v>544</v>
+      </c>
+      <c r="Z52" s="21" t="str">
+        <f t="shared" ref="Z52:Z54" si="22">TEXT(Y52/W52,"0.00%")</f>
+        <v>62.67%</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="V53" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="W53" s="21">
+        <v>868</v>
+      </c>
+      <c r="X53" s="21">
+        <v>2012</v>
+      </c>
+      <c r="Y53" s="21">
+        <v>546</v>
+      </c>
+      <c r="Z53" s="21" t="str">
+        <f t="shared" si="22"/>
+        <v>62.90%</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="V54" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="W54" s="21">
+        <v>868</v>
+      </c>
+      <c r="X54" s="21">
+        <v>3727</v>
+      </c>
+      <c r="Y54" s="21">
+        <v>637</v>
+      </c>
+      <c r="Z54" s="21" t="str">
+        <f t="shared" si="22"/>
+        <v>73.39%</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="23"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="F58" s="22"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="36"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="36"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="36"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="36"/>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="36"/>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="36"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="36"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="36"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="36"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="36"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="40"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="40"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="36"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="23"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="36"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="36"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="36"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="36"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="36"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="36"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="36"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="36"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="36"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="36"/>
+    </row>
+    <row r="97" spans="6:7">
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+    </row>
+    <row r="98" spans="6:7">
+      <c r="F98" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="V9:Z9"/>
+    <mergeCell ref="A82:E83"/>
+    <mergeCell ref="V34:Z34"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="J9:Q9"/>
     <mergeCell ref="J24:Q24"/>
@@ -7198,10 +8263,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA57126-7CC1-C048-A38A-28277C412A5B}">
-  <dimension ref="A1:AI122"/>
+  <dimension ref="A1:AI152"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="99" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52:Q52"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="W143" sqref="W143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7220,19 +8285,22 @@
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
     <col min="16" max="16" width="9.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
     <col min="21" max="21" width="12.1640625" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
     <col min="23" max="23" width="11.6640625" customWidth="1"/>
     <col min="24" max="24" width="12.83203125" customWidth="1"/>
     <col min="25" max="25" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" customWidth="1"/>
     <col min="30" max="30" width="12.6640625" customWidth="1"/>
     <col min="32" max="32" width="12.6640625" customWidth="1"/>
     <col min="33" max="33" width="12.1640625" customWidth="1"/>
+    <col min="37" max="40" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
@@ -7387,18 +8455,18 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="A10" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="J10" s="34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
@@ -7864,7 +8932,7 @@
         <v>12.23%</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T18" s="34"/>
       <c r="U18" s="34"/>
@@ -7874,7 +8942,7 @@
       <c r="Y18" s="34"/>
       <c r="Z18" s="34"/>
       <c r="AB18" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC18" s="34"/>
       <c r="AD18" s="34"/>
@@ -8085,23 +9153,23 @@
         <v>564</v>
       </c>
       <c r="AE20" s="32">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF20" s="21">
         <f t="shared" ref="AF20:AF29" si="12">AD20-AE20</f>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG20" s="21">
         <f t="shared" ref="AG20:AG29" si="13">AC20-AE20</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH20" s="21" t="str">
         <f t="shared" ref="AH20:AH29" si="14">TEXT(AE20/AC20,"0.00%")</f>
-        <v>75.00%</v>
+        <v>74.42%</v>
       </c>
       <c r="AI20" s="21" t="str">
         <f t="shared" ref="AI20:AI29" si="15">TEXT(AE20/(AE20+AF20),"0.00%")</f>
-        <v>22.87%</v>
+        <v>22.70%</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -8171,23 +9239,23 @@
         <v>564</v>
       </c>
       <c r="V21" s="21">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W21" s="21">
         <f t="shared" si="8"/>
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="X21" s="21">
         <f t="shared" si="9"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y21" s="21" t="str">
         <f t="shared" si="10"/>
-        <v>75.00%</v>
+        <v>74.42%</v>
       </c>
       <c r="Z21" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>22.87%</v>
+        <v>22.70%</v>
       </c>
       <c r="AB21" s="21" t="s">
         <v>133</v>
@@ -8219,6 +9287,9 @@
       </c>
     </row>
     <row r="22" spans="1:35">
+      <c r="G22">
+        <v>35.020000000000003</v>
+      </c>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -8344,18 +9415,18 @@
       </c>
     </row>
     <row r="24" spans="1:35">
-      <c r="A24" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="A24" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="J24" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
@@ -9165,22 +10236,22 @@
         <v>23.27%</v>
       </c>
       <c r="R32" s="21"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+      <c r="AB32" s="37"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="37"/>
+      <c r="AE32" s="37"/>
+      <c r="AF32" s="37"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="37"/>
+      <c r="AI32" s="37"/>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="21" t="s">
@@ -9398,16 +10469,19 @@
       <c r="X35" s="21"/>
       <c r="Y35" s="21"/>
       <c r="Z35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
       <c r="AG35" s="21"/>
       <c r="AH35" s="21"/>
       <c r="AI35" s="21"/>
     </row>
     <row r="36" spans="1:35">
+      <c r="G36">
+        <v>66.48</v>
+      </c>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
@@ -9424,11 +10498,6 @@
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
       <c r="Z36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="21"/>
-      <c r="AD36" s="21"/>
-      <c r="AE36" s="21"/>
-      <c r="AF36" s="21"/>
       <c r="AG36" s="21"/>
       <c r="AH36" s="21"/>
       <c r="AI36" s="21"/>
@@ -9442,40 +10511,32 @@
       <c r="X37" s="21"/>
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
       <c r="AG37" s="21"/>
       <c r="AH37" s="21"/>
       <c r="AI37" s="21"/>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
+      <c r="A38" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
       <c r="I38" s="2"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
+      <c r="S38" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
       <c r="X38" s="21"/>
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
       <c r="AG38" s="21"/>
       <c r="AH38" s="21"/>
       <c r="AI38" s="21"/>
@@ -9506,19 +10567,24 @@
         <v>21</v>
       </c>
       <c r="I39" s="19"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
+      <c r="S39" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T39" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W39" s="23" t="s">
+        <v>20</v>
+      </c>
       <c r="X39" s="21"/>
       <c r="Y39" s="21"/>
       <c r="Z39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
       <c r="AG39" s="21"/>
       <c r="AH39" s="21"/>
       <c r="AI39" s="21"/>
@@ -9540,1094 +10606,1211 @@
         <v>477</v>
       </c>
       <c r="F40" s="21">
-        <f t="shared" ref="F40:F49" si="24">B40-D40</f>
+        <f t="shared" ref="F40:F53" si="24">B40-D40</f>
         <v>80</v>
       </c>
       <c r="G40" s="21" t="str">
-        <f t="shared" ref="G40:G49" si="25">TEXT(D40/B40,"0.00%")</f>
+        <f t="shared" ref="G40:G53" si="25">TEXT(D40/B40,"0.00%")</f>
         <v>53.49%</v>
       </c>
       <c r="H40" s="21" t="str">
-        <f t="shared" ref="H40:H49" si="26">TEXT(D40/C40,"0.00%")</f>
+        <f t="shared" ref="H40:H53" si="26">TEXT(D40/C40,"0.00%")</f>
         <v>16.20%</v>
       </c>
       <c r="I40" s="19"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="T40" s="21">
+        <v>90</v>
+      </c>
+      <c r="U40" s="21">
+        <v>2</v>
+      </c>
+      <c r="V40" s="21">
+        <v>0</v>
+      </c>
+      <c r="W40" s="21" t="str">
+        <f>TEXT(V40/T40,"0.00%")</f>
+        <v>0.00%</v>
+      </c>
       <c r="X40" s="21"/>
       <c r="Y40" s="21"/>
       <c r="Z40" s="21"/>
-      <c r="AB40" s="21"/>
-      <c r="AC40" s="21"/>
-      <c r="AD40" s="21"/>
-      <c r="AE40" s="21"/>
-      <c r="AF40" s="21"/>
       <c r="AG40" s="21"/>
       <c r="AH40" s="21"/>
       <c r="AI40" s="21"/>
     </row>
     <row r="41" spans="1:35">
-      <c r="A41" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="21">
-        <v>172</v>
-      </c>
-      <c r="C41" s="21">
-        <v>643</v>
-      </c>
-      <c r="D41" s="21">
-        <v>99</v>
-      </c>
-      <c r="E41" s="21">
-        <v>545</v>
-      </c>
-      <c r="F41" s="21">
-        <f t="shared" si="24"/>
-        <v>73</v>
-      </c>
-      <c r="G41" s="21" t="str">
-        <f t="shared" si="25"/>
-        <v>57.56%</v>
-      </c>
-      <c r="H41" s="21" t="str">
-        <f t="shared" si="26"/>
-        <v>15.40%</v>
-      </c>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
       <c r="I41" s="19"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="T41" s="21">
+        <v>90</v>
+      </c>
+      <c r="U41" s="21">
+        <v>411</v>
+      </c>
+      <c r="V41" s="21">
+        <v>38</v>
+      </c>
+      <c r="W41" s="21" t="str">
+        <f t="shared" ref="W41:W48" si="27">TEXT(V41/T41,"0.00%")</f>
+        <v>42.22%</v>
+      </c>
       <c r="X41" s="21"/>
       <c r="Y41" s="21"/>
       <c r="Z41" s="21"/>
-      <c r="AB41" s="21"/>
-      <c r="AC41" s="21"/>
-      <c r="AD41" s="21"/>
-      <c r="AE41" s="21"/>
-      <c r="AF41" s="21"/>
       <c r="AG41" s="21"/>
       <c r="AH41" s="21"/>
       <c r="AI41" s="21"/>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B42" s="21">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="C42" s="21">
-        <v>1307</v>
+        <v>643</v>
       </c>
       <c r="D42" s="21">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="E42" s="21">
-        <v>1140</v>
+        <v>545</v>
       </c>
       <c r="F42" s="21">
         <f t="shared" si="24"/>
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="G42" s="21" t="str">
         <f t="shared" si="25"/>
-        <v>46.56%</v>
+        <v>57.56%</v>
       </c>
       <c r="H42" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>12.93%</v>
+        <v>15.40%</v>
       </c>
       <c r="I42" s="19"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="T42" s="21">
+        <v>90</v>
+      </c>
+      <c r="U42" s="21">
+        <v>412</v>
+      </c>
+      <c r="V42" s="21">
+        <v>38</v>
+      </c>
+      <c r="W42" s="21" t="str">
+        <f t="shared" si="27"/>
+        <v>42.22%</v>
+      </c>
       <c r="X42" s="21"/>
       <c r="Y42" s="21"/>
       <c r="Z42" s="21"/>
-      <c r="AB42" s="21"/>
-      <c r="AC42" s="21"/>
-      <c r="AD42" s="21"/>
-      <c r="AE42" s="21"/>
-      <c r="AF42" s="21"/>
       <c r="AG42" s="21"/>
       <c r="AH42" s="21"/>
       <c r="AI42" s="21"/>
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B43" s="21">
         <v>363</v>
       </c>
       <c r="C43" s="21">
-        <v>1425</v>
+        <v>1307</v>
       </c>
       <c r="D43" s="21">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="E43" s="21">
-        <v>1239</v>
+        <v>1140</v>
       </c>
       <c r="F43" s="21">
         <f t="shared" si="24"/>
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G43" s="21" t="str">
         <f t="shared" si="25"/>
-        <v>51.79%</v>
+        <v>46.56%</v>
       </c>
       <c r="H43" s="21" t="str">
         <f t="shared" si="26"/>
-        <v>13.19%</v>
+        <v>12.93%</v>
       </c>
       <c r="I43" s="19"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T43" s="21">
+        <v>82</v>
+      </c>
+      <c r="U43" s="21">
+        <v>18</v>
+      </c>
+      <c r="V43" s="21">
+        <v>17</v>
+      </c>
+      <c r="W43" s="21" t="str">
+        <f t="shared" si="27"/>
+        <v>20.73%</v>
+      </c>
+      <c r="X43" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="Y43" s="21"/>
       <c r="Z43" s="21"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
       <c r="AG43" s="21"/>
       <c r="AH43" s="21"/>
       <c r="AI43" s="21"/>
     </row>
     <row r="44" spans="1:35">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="19"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T44" s="21">
+        <v>82</v>
+      </c>
+      <c r="U44" s="21">
+        <v>144</v>
+      </c>
+      <c r="V44" s="21">
+        <v>40</v>
+      </c>
+      <c r="W44" s="21" t="str">
+        <f t="shared" si="27"/>
+        <v>48.78%</v>
+      </c>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="21">
+        <v>363</v>
+      </c>
+      <c r="C45" s="21">
+        <v>1425</v>
+      </c>
+      <c r="D45" s="21">
+        <v>188</v>
+      </c>
+      <c r="E45" s="21">
+        <v>1239</v>
+      </c>
+      <c r="F45" s="21">
+        <f t="shared" si="24"/>
+        <v>175</v>
+      </c>
+      <c r="G45" s="21" t="str">
+        <f t="shared" si="25"/>
+        <v>51.79%</v>
+      </c>
+      <c r="H45" s="21" t="str">
+        <f t="shared" si="26"/>
+        <v>13.19%</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="T45" s="21">
+        <v>82</v>
+      </c>
+      <c r="U45" s="21">
+        <v>143</v>
+      </c>
+      <c r="V45" s="21">
+        <v>37</v>
+      </c>
+      <c r="W45" s="21" t="str">
+        <f t="shared" si="27"/>
+        <v>45.12%</v>
+      </c>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AG45" s="21"/>
+      <c r="AH45" s="21"/>
+      <c r="AI45" s="21"/>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B46" s="21">
         <v>510</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C46" s="21">
         <v>1493</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D46" s="21">
         <v>240</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E46" s="21">
         <v>1257</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F46" s="21">
         <f t="shared" si="24"/>
         <v>270</v>
       </c>
-      <c r="G44" s="21" t="str">
+      <c r="G46" s="21" t="str">
         <f t="shared" si="25"/>
         <v>47.06%</v>
       </c>
-      <c r="H44" s="21" t="str">
+      <c r="H46" s="21" t="str">
         <f t="shared" si="26"/>
         <v>16.08%</v>
       </c>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="21" t="s">
+      <c r="I46" s="19"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T46" s="21">
+        <v>172</v>
+      </c>
+      <c r="U46" s="21">
+        <v>20</v>
+      </c>
+      <c r="V46" s="21">
+        <v>17</v>
+      </c>
+      <c r="W46" s="21" t="str">
+        <f t="shared" si="27"/>
+        <v>9.88%</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="19"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="T47" s="21">
+        <v>172</v>
+      </c>
+      <c r="U47" s="21">
+        <v>555</v>
+      </c>
+      <c r="V47" s="21">
+        <v>78</v>
+      </c>
+      <c r="W47" s="21" t="str">
+        <f t="shared" si="27"/>
+        <v>45.35%</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35">
+      <c r="A48" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B48" s="21">
         <v>510</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C48" s="21">
         <v>1720</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D48" s="21">
         <v>255</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E48" s="21">
         <v>1467</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F48" s="21">
         <f t="shared" si="24"/>
         <v>255</v>
       </c>
-      <c r="G45" s="21" t="str">
+      <c r="G48" s="21" t="str">
         <f t="shared" si="25"/>
         <v>50.00%</v>
       </c>
-      <c r="H45" s="21" t="str">
+      <c r="H48" s="21" t="str">
         <f t="shared" si="26"/>
         <v>14.83%</v>
       </c>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" s="21" t="s">
+      <c r="I48" s="19"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="T48" s="21">
+        <v>172</v>
+      </c>
+      <c r="U48" s="21">
+        <v>555</v>
+      </c>
+      <c r="V48" s="21">
+        <v>75</v>
+      </c>
+      <c r="W48" s="21" t="str">
+        <f t="shared" si="27"/>
+        <v>43.60%</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B49" s="21">
         <v>717</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C49" s="21">
         <v>2057</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D49" s="21">
         <v>329</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E49" s="21">
         <v>1730</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F49" s="21">
         <f t="shared" si="24"/>
         <v>388</v>
       </c>
-      <c r="G46" s="21" t="str">
+      <c r="G49" s="21" t="str">
         <f t="shared" si="25"/>
         <v>45.89%</v>
       </c>
-      <c r="H46" s="21" t="str">
+      <c r="H49" s="21" t="str">
         <f t="shared" si="26"/>
         <v>15.99%</v>
       </c>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:35">
-      <c r="A47" s="21" t="s">
+      <c r="I49" s="19"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B50" s="21">
         <v>717</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C50" s="21">
         <v>2360</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D50" s="21">
         <v>349</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E50" s="21">
         <v>2011</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F50" s="21">
         <f t="shared" si="24"/>
         <v>368</v>
       </c>
-      <c r="G47" s="21" t="str">
+      <c r="G50" s="21" t="str">
         <f t="shared" si="25"/>
         <v>48.68%</v>
       </c>
-      <c r="H47" s="21" t="str">
+      <c r="H50" s="21" t="str">
         <f t="shared" si="26"/>
         <v>14.79%</v>
       </c>
-      <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="21" t="s">
+      <c r="I50" s="19"/>
+      <c r="S50" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="T50" s="21">
+        <v>206</v>
+      </c>
+      <c r="U50" s="21">
+        <v>2</v>
+      </c>
+      <c r="V50" s="21">
+        <v>0</v>
+      </c>
+      <c r="W50" s="21" t="str">
+        <f t="shared" ref="W50:W88" si="28">TEXT(V50/T50,"0.00%")</f>
+        <v>0.00%</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="19"/>
+      <c r="S51" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="T51" s="21">
+        <v>206</v>
+      </c>
+      <c r="U51" s="21">
+        <v>705</v>
+      </c>
+      <c r="V51" s="21">
+        <v>75</v>
+      </c>
+      <c r="W51" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>36.41%</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="21">
+      <c r="B52" s="21">
         <v>868</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C52" s="21">
         <v>2473</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D52" s="21">
         <v>392</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E52" s="21">
         <v>2083</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F52" s="21">
         <f t="shared" si="24"/>
         <v>476</v>
       </c>
-      <c r="G48" s="21" t="str">
+      <c r="G52" s="21" t="str">
         <f t="shared" si="25"/>
         <v>45.16%</v>
       </c>
-      <c r="H48" s="21" t="str">
+      <c r="H52" s="21" t="str">
         <f t="shared" si="26"/>
         <v>15.85%</v>
       </c>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="21" t="s">
+      <c r="I52" s="19"/>
+      <c r="S52" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="T52" s="21">
+        <v>206</v>
+      </c>
+      <c r="U52" s="21">
+        <v>710</v>
+      </c>
+      <c r="V52" s="21">
+        <v>77</v>
+      </c>
+      <c r="W52" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>37.38%</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B53" s="21">
         <v>868</v>
       </c>
-      <c r="C49" s="21">
+      <c r="C53" s="21">
         <v>2846</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D53" s="21">
         <v>416</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E53" s="21">
         <v>2432</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F53" s="21">
         <f t="shared" si="24"/>
         <v>452</v>
       </c>
-      <c r="G49" s="21" t="str">
+      <c r="G53" s="21" t="str">
         <f t="shared" si="25"/>
         <v>47.93%</v>
       </c>
-      <c r="H49" s="21" t="str">
+      <c r="H53" s="21" t="str">
         <f t="shared" si="26"/>
         <v>14.62%</v>
       </c>
-      <c r="I49" s="19"/>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="34" t="s">
+      <c r="I53" s="19"/>
+      <c r="S53" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="T53" s="21">
+        <v>157</v>
+      </c>
+      <c r="U53" s="21">
+        <v>28</v>
+      </c>
+      <c r="V53" s="21">
+        <v>27</v>
+      </c>
+      <c r="W53" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>17.20%</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="19"/>
+      <c r="S54" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="T54" s="21">
+        <v>157</v>
+      </c>
+      <c r="U54" s="21">
+        <v>271</v>
+      </c>
+      <c r="V54" s="21">
+        <v>65</v>
+      </c>
+      <c r="W54" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>41.40%</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="S55" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="T55" s="21">
+        <v>157</v>
+      </c>
+      <c r="U55" s="21">
+        <v>270</v>
+      </c>
+      <c r="V55" s="21">
+        <v>63</v>
+      </c>
+      <c r="W55" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>40.13%</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="S56" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="T56" s="21">
+        <v>363</v>
+      </c>
+      <c r="U56" s="21">
+        <v>30</v>
+      </c>
+      <c r="V56" s="21">
+        <v>27</v>
+      </c>
+      <c r="W56" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>7.44%</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="S57" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="T57" s="21">
+        <v>363</v>
+      </c>
+      <c r="U57" s="21">
+        <v>976</v>
+      </c>
+      <c r="V57" s="21">
+        <v>141</v>
+      </c>
+      <c r="W57" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>38.84%</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="34" t="s">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="31" t="s">
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="S58" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="T58" s="21">
+        <v>363</v>
+      </c>
+      <c r="U58" s="21">
+        <v>980</v>
+      </c>
+      <c r="V58" s="21">
+        <v>141</v>
+      </c>
+      <c r="W58" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>38.84%</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="31" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="20" t="s">
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="W59" s="21"/>
+      <c r="Y59" s="36"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B60" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C60" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D60" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E60" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F60" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G60" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H60" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="12"/>
-      <c r="J54" s="20" t="s">
+      <c r="I60" s="12"/>
+      <c r="J60" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K54" s="20" t="s">
+      <c r="K60" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L54" s="20" t="s">
+      <c r="L60" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M54" s="22" t="s">
+      <c r="M60" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N54" s="22" t="s">
+      <c r="N60" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O54" s="22" t="s">
+      <c r="O60" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P54" s="23" t="s">
+      <c r="P60" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Q54" s="23" t="s">
+      <c r="Q60" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="21" t="s">
+      <c r="S60" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="T60" s="21">
+        <v>293</v>
+      </c>
+      <c r="U60" s="21">
+        <v>4</v>
+      </c>
+      <c r="V60" s="21">
+        <v>0</v>
+      </c>
+      <c r="W60" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>0.00%</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="S61" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="T61" s="21">
+        <v>293</v>
+      </c>
+      <c r="U61" s="21">
+        <v>856</v>
+      </c>
+      <c r="V61" s="21">
+        <v>86</v>
+      </c>
+      <c r="W61" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>29.35%</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B62" s="21">
         <v>172</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C62" s="21">
         <v>130</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D62" s="21">
         <v>72</v>
       </c>
-      <c r="E55" s="21">
-        <f>C55-D55</f>
+      <c r="E62" s="21">
+        <f>C62-D62</f>
         <v>58</v>
       </c>
-      <c r="F55" s="21">
-        <f>B55-D55</f>
+      <c r="F62" s="21">
+        <f>B62-D62</f>
         <v>100</v>
       </c>
-      <c r="G55" s="21" t="str">
-        <f>TEXT(D55/B55,"0.00%")</f>
+      <c r="G62" s="21" t="str">
+        <f>TEXT(D62/B62,"0.00%")</f>
         <v>41.86%</v>
       </c>
-      <c r="H55" s="21" t="str">
-        <f>TEXT(D55/C55,"0.00%")</f>
+      <c r="H62" s="21" t="str">
+        <f>TEXT(D62/C62,"0.00%")</f>
         <v>55.38%</v>
       </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="21" t="s">
+      <c r="I62" s="10"/>
+      <c r="J62" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K62" s="21">
         <v>172</v>
       </c>
-      <c r="L55" s="21">
-        <v>60</v>
-      </c>
-      <c r="M55" s="21">
-        <v>6</v>
-      </c>
-      <c r="N55" s="21">
-        <f>L55-M55</f>
-        <v>54</v>
-      </c>
-      <c r="O55" s="21">
-        <f>K55-M55</f>
-        <v>166</v>
-      </c>
-      <c r="P55" s="21" t="str">
-        <f>TEXT(M55/K55,"0.00%")</f>
-        <v>3.49%</v>
-      </c>
-      <c r="Q55" s="21" t="str">
-        <f>TEXT(M55/L55,"0.00%")</f>
-        <v>10.00%</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="21" t="s">
+      <c r="L62" s="21">
+        <v>12</v>
+      </c>
+      <c r="M62" s="21">
+        <v>2</v>
+      </c>
+      <c r="N62" s="21">
+        <f>L62-M62</f>
+        <v>10</v>
+      </c>
+      <c r="O62" s="21">
+        <f>K62-M62</f>
+        <v>170</v>
+      </c>
+      <c r="P62" s="21" t="str">
+        <f>TEXT(M62/K62,"0.00%")</f>
+        <v>1.16%</v>
+      </c>
+      <c r="Q62" s="21" t="str">
+        <f>TEXT(M62/L62,"0.00%")</f>
+        <v>16.67%</v>
+      </c>
+      <c r="S62" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="T62" s="21">
+        <v>293</v>
+      </c>
+      <c r="U62" s="21">
+        <v>857</v>
+      </c>
+      <c r="V62" s="21">
+        <v>86</v>
+      </c>
+      <c r="W62" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>29.35%</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B63" s="21">
         <v>363</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C63" s="21">
         <v>536</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D63" s="21">
         <v>146</v>
       </c>
-      <c r="E56" s="21">
-        <f>C56-D56</f>
+      <c r="E63" s="21">
+        <f>C63-D63</f>
         <v>390</v>
       </c>
-      <c r="F56" s="21">
-        <f>B56-D56</f>
+      <c r="F63" s="21">
+        <f>B63-D63</f>
         <v>217</v>
       </c>
-      <c r="G56" s="21" t="str">
-        <f>TEXT(D56/B56,"0.00%")</f>
+      <c r="G63" s="21" t="str">
+        <f>TEXT(D63/B63,"0.00%")</f>
         <v>40.22%</v>
       </c>
-      <c r="H56" s="21" t="str">
-        <f>TEXT(D56/C56,"0.00%")</f>
+      <c r="H63" s="21" t="str">
+        <f>TEXT(D63/C63,"0.00%")</f>
         <v>27.24%</v>
       </c>
-      <c r="I56" s="10"/>
-      <c r="J56" s="21" t="s">
+      <c r="I63" s="10"/>
+      <c r="J63" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K63" s="21">
         <v>363</v>
       </c>
-      <c r="L56" s="21">
-        <v>87</v>
-      </c>
-      <c r="M56" s="21">
-        <v>4</v>
-      </c>
-      <c r="N56" s="21">
-        <f>L56-M56</f>
-        <v>83</v>
-      </c>
-      <c r="O56" s="21">
-        <f>K56-M56</f>
-        <v>359</v>
-      </c>
-      <c r="P56" s="21" t="str">
-        <f>TEXT(M56/K56,"0.00%")</f>
-        <v>1.10%</v>
-      </c>
-      <c r="Q56" s="21" t="str">
-        <f>TEXT(M56/L56,"0.00%")</f>
-        <v>4.60%</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="21" t="s">
+      <c r="L63" s="21">
+        <v>22</v>
+      </c>
+      <c r="M63" s="21">
+        <v>1</v>
+      </c>
+      <c r="N63" s="21">
+        <f>L63-M63</f>
+        <v>21</v>
+      </c>
+      <c r="O63" s="21">
+        <f>K63-M63</f>
+        <v>362</v>
+      </c>
+      <c r="P63" s="21" t="str">
+        <f>TEXT(M63/K63,"0.00%")</f>
+        <v>0.28%</v>
+      </c>
+      <c r="Q63" s="21" t="str">
+        <f>TEXT(M63/L63,"0.00%")</f>
+        <v>4.55%</v>
+      </c>
+      <c r="S63" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="T63" s="21">
+        <v>217</v>
+      </c>
+      <c r="U63" s="21">
+        <v>31</v>
+      </c>
+      <c r="V63" s="21">
+        <v>28</v>
+      </c>
+      <c r="W63" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>12.90%</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="S64" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="T64" s="21">
+        <v>217</v>
+      </c>
+      <c r="U64" s="21">
+        <v>381</v>
+      </c>
+      <c r="V64" s="21">
+        <v>75</v>
+      </c>
+      <c r="W64" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>34.56%</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B65" s="21">
         <v>510</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C65" s="21">
         <v>692</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D65" s="21">
         <v>199</v>
-      </c>
-      <c r="E57" s="21">
-        <f>C57-D57</f>
-        <v>493</v>
-      </c>
-      <c r="F57" s="21">
-        <f>B57-D57</f>
-        <v>311</v>
-      </c>
-      <c r="G57" s="21" t="str">
-        <f>TEXT(D57/B57,"0.00%")</f>
-        <v>39.02%</v>
-      </c>
-      <c r="H57" s="21" t="str">
-        <f>TEXT(D57/C57,"0.00%")</f>
-        <v>28.76%</v>
-      </c>
-      <c r="I57" s="10"/>
-      <c r="J57" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K57" s="21">
-        <v>510</v>
-      </c>
-      <c r="L57" s="21">
-        <v>139</v>
-      </c>
-      <c r="M57" s="21">
-        <v>11</v>
-      </c>
-      <c r="N57" s="21">
-        <f>L57-M57</f>
-        <v>128</v>
-      </c>
-      <c r="O57" s="21">
-        <f>K57-M57</f>
-        <v>499</v>
-      </c>
-      <c r="P57" s="21" t="str">
-        <f>TEXT(M57/K57,"0.00%")</f>
-        <v>2.16%</v>
-      </c>
-      <c r="Q57" s="21" t="str">
-        <f>TEXT(M57/L57,"0.00%")</f>
-        <v>7.91%</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="21">
-        <v>717</v>
-      </c>
-      <c r="C58" s="21">
-        <v>403</v>
-      </c>
-      <c r="D58" s="21">
-        <v>263</v>
-      </c>
-      <c r="E58" s="21">
-        <f>C58-D58</f>
-        <v>140</v>
-      </c>
-      <c r="F58" s="21">
-        <f>B58-D58</f>
-        <v>454</v>
-      </c>
-      <c r="G58" s="21" t="str">
-        <f>TEXT(D58/B58,"0.00%")</f>
-        <v>36.68%</v>
-      </c>
-      <c r="H58" s="21" t="str">
-        <f>TEXT(D58/C58,"0.00%")</f>
-        <v>65.26%</v>
-      </c>
-      <c r="I58" s="10"/>
-      <c r="J58" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K58" s="21">
-        <v>717</v>
-      </c>
-      <c r="L58" s="21">
-        <v>192</v>
-      </c>
-      <c r="M58" s="21">
-        <v>15</v>
-      </c>
-      <c r="N58" s="21">
-        <f>L58-M58</f>
-        <v>177</v>
-      </c>
-      <c r="O58" s="21">
-        <f>K58-M58</f>
-        <v>702</v>
-      </c>
-      <c r="P58" s="21" t="str">
-        <f>TEXT(M58/K58,"0.00%")</f>
-        <v>2.09%</v>
-      </c>
-      <c r="Q58" s="21" t="str">
-        <f>TEXT(M58/L58,"0.00%")</f>
-        <v>7.81%</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="21">
-        <v>868</v>
-      </c>
-      <c r="C59" s="21">
-        <v>718</v>
-      </c>
-      <c r="D59" s="21">
-        <v>393</v>
-      </c>
-      <c r="E59" s="21">
-        <f>C59-D59</f>
-        <v>325</v>
-      </c>
-      <c r="F59" s="21">
-        <f>B59-D59</f>
-        <v>475</v>
-      </c>
-      <c r="G59" s="21" t="str">
-        <f>TEXT(D59/B59,"0.00%")</f>
-        <v>45.28%</v>
-      </c>
-      <c r="H59" s="21" t="str">
-        <f>TEXT(D59/C59,"0.00%")</f>
-        <v>54.74%</v>
-      </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K59" s="21">
-        <v>868</v>
-      </c>
-      <c r="L59" s="21">
-        <v>244</v>
-      </c>
-      <c r="M59" s="21">
-        <v>16</v>
-      </c>
-      <c r="N59" s="21">
-        <f>L59-M59</f>
-        <v>228</v>
-      </c>
-      <c r="O59" s="21">
-        <f>K59-M59</f>
-        <v>852</v>
-      </c>
-      <c r="P59" s="21" t="str">
-        <f>TEXT(M59/K59,"0.00%")</f>
-        <v>1.84%</v>
-      </c>
-      <c r="Q59" s="21" t="str">
-        <f>TEXT(M59/L59,"0.00%")</f>
-        <v>6.56%</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K63" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L63" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M63" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N63" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O63" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P63" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q63" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="21">
-        <v>172</v>
-      </c>
-      <c r="C64" s="21">
-        <v>123</v>
-      </c>
-      <c r="D64" s="21">
-        <v>67</v>
-      </c>
-      <c r="E64" s="21">
-        <f>C64-D64</f>
-        <v>56</v>
-      </c>
-      <c r="F64" s="21">
-        <f>B64-D64</f>
-        <v>105</v>
-      </c>
-      <c r="G64" s="21" t="str">
-        <f>TEXT(D64/B64,"0.00%")</f>
-        <v>38.95%</v>
-      </c>
-      <c r="H64" s="21" t="str">
-        <f>TEXT(D64/C64,"0.00%")</f>
-        <v>54.47%</v>
-      </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K64" s="21">
-        <v>172</v>
-      </c>
-      <c r="L64" s="21">
-        <v>23</v>
-      </c>
-      <c r="M64" s="21">
-        <v>5</v>
-      </c>
-      <c r="N64" s="21">
-        <f>L64-M64</f>
-        <v>18</v>
-      </c>
-      <c r="O64" s="21">
-        <f>K64-M64</f>
-        <v>167</v>
-      </c>
-      <c r="P64" s="21" t="str">
-        <f>TEXT(M64/K64,"0.00%")</f>
-        <v>2.91%</v>
-      </c>
-      <c r="Q64" s="21" t="str">
-        <f>TEXT(M64/L64,"0.00%")</f>
-        <v>21.74%</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="21">
-        <v>363</v>
-      </c>
-      <c r="C65" s="21">
-        <v>338</v>
-      </c>
-      <c r="D65" s="21">
-        <v>157</v>
       </c>
       <c r="E65" s="21">
         <f>C65-D65</f>
-        <v>181</v>
+        <v>493</v>
       </c>
       <c r="F65" s="21">
         <f>B65-D65</f>
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="G65" s="21" t="str">
         <f>TEXT(D65/B65,"0.00%")</f>
-        <v>43.25%</v>
+        <v>39.02%</v>
       </c>
       <c r="H65" s="21" t="str">
         <f>TEXT(D65/C65,"0.00%")</f>
-        <v>46.45%</v>
+        <v>28.76%</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65" s="21">
-        <v>363</v>
+        <v>510</v>
       </c>
       <c r="L65" s="21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M65" s="21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N65" s="21">
         <f>L65-M65</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O65" s="21">
         <f>K65-M65</f>
-        <v>359</v>
+        <v>508</v>
       </c>
       <c r="P65" s="21" t="str">
         <f>TEXT(M65/K65,"0.00%")</f>
-        <v>1.10%</v>
+        <v>0.39%</v>
       </c>
       <c r="Q65" s="21" t="str">
         <f>TEXT(M65/L65,"0.00%")</f>
-        <v>11.43%</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+        <v>6.25%</v>
+      </c>
+      <c r="S65" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="T65" s="21">
+        <v>217</v>
+      </c>
+      <c r="U65" s="21">
+        <v>380</v>
+      </c>
+      <c r="V65" s="21">
+        <v>71</v>
+      </c>
+      <c r="W65" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>32.72%</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" s="21">
-        <v>510</v>
+        <v>717</v>
       </c>
       <c r="C66" s="21">
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="D66" s="21">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="E66" s="21">
         <f>C66-D66</f>
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F66" s="21">
         <f>B66-D66</f>
-        <v>312</v>
+        <v>454</v>
       </c>
       <c r="G66" s="21" t="str">
         <f>TEXT(D66/B66,"0.00%")</f>
-        <v>38.82%</v>
+        <v>36.68%</v>
       </c>
       <c r="H66" s="21" t="str">
         <f>TEXT(D66/C66,"0.00%")</f>
-        <v>62.46%</v>
+        <v>65.26%</v>
       </c>
       <c r="I66" s="10"/>
       <c r="J66" s="21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66" s="21">
-        <v>510</v>
+        <v>717</v>
       </c>
       <c r="L66" s="21">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M66" s="21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N66" s="21">
         <f>L66-M66</f>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O66" s="21">
         <f>K66-M66</f>
-        <v>504</v>
+        <v>714</v>
       </c>
       <c r="P66" s="21" t="str">
         <f>TEXT(M66/K66,"0.00%")</f>
-        <v>1.18%</v>
+        <v>0.42%</v>
       </c>
       <c r="Q66" s="21" t="str">
         <f>TEXT(M66/L66,"0.00%")</f>
-        <v>10.91%</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B67" s="21">
-        <v>717</v>
-      </c>
-      <c r="C67" s="21">
-        <v>523</v>
-      </c>
-      <c r="D67" s="21">
-        <v>289</v>
-      </c>
-      <c r="E67" s="21">
-        <f>C67-D67</f>
-        <v>234</v>
-      </c>
-      <c r="F67" s="21">
-        <f>B67-D67</f>
-        <v>428</v>
-      </c>
-      <c r="G67" s="21" t="str">
-        <f>TEXT(D67/B67,"0.00%")</f>
-        <v>40.31%</v>
-      </c>
-      <c r="H67" s="21" t="str">
-        <f>TEXT(D67/C67,"0.00%")</f>
-        <v>55.26%</v>
-      </c>
+        <v>6.38%</v>
+      </c>
+      <c r="S66" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="T66" s="21">
+        <v>510</v>
+      </c>
+      <c r="U66" s="21">
+        <v>35</v>
+      </c>
+      <c r="V66" s="21">
+        <v>28</v>
+      </c>
+      <c r="W66" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>5.49%</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K67" s="21">
-        <v>717</v>
-      </c>
-      <c r="L67" s="21">
-        <v>85</v>
-      </c>
-      <c r="M67" s="21">
-        <v>8</v>
-      </c>
-      <c r="N67" s="21">
-        <f>L67-M67</f>
-        <v>77</v>
-      </c>
-      <c r="O67" s="21">
-        <f>K67-M67</f>
-        <v>709</v>
-      </c>
-      <c r="P67" s="21" t="str">
-        <f>TEXT(M67/K67,"0.00%")</f>
-        <v>1.12%</v>
-      </c>
-      <c r="Q67" s="21" t="str">
-        <f>TEXT(M67/L67,"0.00%")</f>
-        <v>9.41%</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="S67" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="T67" s="21">
+        <v>510</v>
+      </c>
+      <c r="U67" s="21">
+        <v>1237</v>
+      </c>
+      <c r="V67" s="21">
+        <v>161</v>
+      </c>
+      <c r="W67" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>31.57%</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="21" t="s">
         <v>52</v>
       </c>
@@ -10635,28 +11818,28 @@
         <v>868</v>
       </c>
       <c r="C68" s="21">
-        <v>592</v>
+        <v>718</v>
       </c>
       <c r="D68" s="21">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E68" s="21">
         <f>C68-D68</f>
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="F68" s="21">
         <f>B68-D68</f>
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G68" s="21" t="str">
         <f>TEXT(D68/B68,"0.00%")</f>
-        <v>46.20%</v>
+        <v>45.28%</v>
       </c>
       <c r="H68" s="21" t="str">
         <f>TEXT(D68/C68,"0.00%")</f>
-        <v>67.74%</v>
-      </c>
-      <c r="I68" s="2"/>
+        <v>54.74%</v>
+      </c>
+      <c r="I68" s="10"/>
       <c r="J68" s="21" t="s">
         <v>52</v>
       </c>
@@ -10664,936 +11847,2654 @@
         <v>868</v>
       </c>
       <c r="L68" s="21">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="M68" s="21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N68" s="21">
         <f>L68-M68</f>
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="O68" s="21">
         <f>K68-M68</f>
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="P68" s="21" t="str">
         <f>TEXT(M68/K68,"0.00%")</f>
-        <v>0.92%</v>
+        <v>0.12%</v>
       </c>
       <c r="Q68" s="21" t="str">
         <f>TEXT(M68/L68,"0.00%")</f>
-        <v>7.02%</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>1.79%</v>
+      </c>
+      <c r="S68" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="T68" s="21">
+        <v>510</v>
+      </c>
+      <c r="U68" s="21">
+        <v>1237</v>
+      </c>
+      <c r="V68" s="21">
+        <v>157</v>
+      </c>
+      <c r="W68" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>30.78%</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="21"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="2"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="10"/>
       <c r="J69" s="21"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="W69" s="21"/>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="21"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="2"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="10"/>
       <c r="J70" s="21"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="20" t="s">
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="S70" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="T70" s="21">
+        <v>417</v>
+      </c>
+      <c r="U70" s="21">
+        <v>4</v>
+      </c>
+      <c r="V70" s="21">
         <v>0</v>
       </c>
-      <c r="B72" s="20" t="s">
+      <c r="W70" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>0.00%</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="S71" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="T71" s="21">
+        <v>417</v>
+      </c>
+      <c r="U71" s="21">
+        <v>1202</v>
+      </c>
+      <c r="V71" s="21">
+        <v>101</v>
+      </c>
+      <c r="W71" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>24.22%</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="S72" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="T72" s="21">
+        <v>417</v>
+      </c>
+      <c r="U72" s="21">
+        <v>1202</v>
+      </c>
+      <c r="V72" s="21">
+        <v>99</v>
+      </c>
+      <c r="W72" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>23.74%</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D73" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="22" t="s">
+      <c r="E73" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F73" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G73" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="23" t="s">
+      <c r="H73" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="20" t="s">
+      <c r="I73" s="10"/>
+      <c r="J73" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="K72" s="20" t="s">
+      <c r="K73" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L72" s="20" t="s">
+      <c r="L73" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M72" s="22" t="s">
+      <c r="M73" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N72" s="22" t="s">
+      <c r="N73" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="O72" s="22" t="s">
+      <c r="O73" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="P72" s="23" t="s">
+      <c r="P73" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Q72" s="23" t="s">
+      <c r="Q73" s="23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="21" t="s">
+      <c r="S73" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="T73" s="21">
+        <v>300</v>
+      </c>
+      <c r="U73" s="21">
         <v>48</v>
       </c>
-      <c r="B73" s="21">
+      <c r="V73" s="21">
+        <v>45</v>
+      </c>
+      <c r="W73" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>15.00%</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" s="20"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="S74" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="T74" s="21">
+        <v>300</v>
+      </c>
+      <c r="U74" s="21">
+        <v>539</v>
+      </c>
+      <c r="V74" s="21">
+        <v>112</v>
+      </c>
+      <c r="W74" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>37.33%</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="21">
         <v>172</v>
       </c>
-      <c r="C73" s="21">
-        <v>86</v>
-      </c>
-      <c r="D73" s="21">
-        <v>53</v>
-      </c>
-      <c r="E73" s="21">
-        <f>C73-D73</f>
-        <v>33</v>
-      </c>
-      <c r="F73" s="21">
-        <f>B73-D73</f>
-        <v>119</v>
-      </c>
-      <c r="G73" s="21" t="str">
-        <f>TEXT(D73/B73,"0.00%")</f>
-        <v>30.81%</v>
-      </c>
-      <c r="H73" s="21" t="str">
-        <f>TEXT(D73/C73,"0.00%")</f>
-        <v>61.63%</v>
-      </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K73" s="21">
-        <v>172</v>
-      </c>
-      <c r="L73" s="21">
-        <v>11</v>
-      </c>
-      <c r="M73" s="21">
-        <v>1</v>
-      </c>
-      <c r="N73" s="21">
-        <f>L73-M73</f>
-        <v>10</v>
-      </c>
-      <c r="O73" s="21">
-        <f>K73-M73</f>
-        <v>171</v>
-      </c>
-      <c r="P73" s="21" t="str">
-        <f>TEXT(M73/K73,"0.00%")</f>
-        <v>0.58%</v>
-      </c>
-      <c r="Q73" s="21" t="str">
-        <f>TEXT(M73/L73,"0.00%")</f>
-        <v>9.09%</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B74" s="21">
-        <v>363</v>
-      </c>
-      <c r="C74" s="21">
-        <v>276</v>
-      </c>
-      <c r="D74" s="21">
-        <v>141</v>
-      </c>
-      <c r="E74" s="21">
-        <f>C74-D74</f>
-        <v>135</v>
-      </c>
-      <c r="F74" s="21">
-        <f>B74-D74</f>
-        <v>222</v>
-      </c>
-      <c r="G74" s="21" t="str">
-        <f>TEXT(D74/B74,"0.00%")</f>
-        <v>38.84%</v>
-      </c>
-      <c r="H74" s="21" t="str">
-        <f>TEXT(D74/C74,"0.00%")</f>
-        <v>51.09%</v>
-      </c>
-      <c r="I74" s="10"/>
-      <c r="J74" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K74" s="21">
-        <v>363</v>
-      </c>
-      <c r="L74" s="21">
-        <v>23</v>
-      </c>
-      <c r="M74" s="21">
-        <v>1</v>
-      </c>
-      <c r="N74" s="21">
-        <f>L74-M74</f>
-        <v>22</v>
-      </c>
-      <c r="O74" s="21">
-        <f>K74-M74</f>
-        <v>362</v>
-      </c>
-      <c r="P74" s="21" t="str">
-        <f>TEXT(M74/K74,"0.00%")</f>
-        <v>0.28%</v>
-      </c>
-      <c r="Q74" s="21" t="str">
-        <f>TEXT(M74/L74,"0.00%")</f>
-        <v>4.35%</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="21">
-        <v>510</v>
-      </c>
       <c r="C75" s="21">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="D75" s="21">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="E75" s="21">
         <f>C75-D75</f>
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="F75" s="21">
         <f>B75-D75</f>
-        <v>352</v>
+        <v>105</v>
       </c>
       <c r="G75" s="21" t="str">
         <f>TEXT(D75/B75,"0.00%")</f>
-        <v>30.98%</v>
+        <v>38.95%</v>
       </c>
       <c r="H75" s="21" t="str">
         <f>TEXT(D75/C75,"0.00%")</f>
-        <v>58.74%</v>
+        <v>54.47%</v>
       </c>
       <c r="I75" s="10"/>
       <c r="J75" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K75" s="21">
-        <v>510</v>
+        <v>172</v>
       </c>
       <c r="L75" s="21">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M75" s="21">
         <v>2</v>
       </c>
       <c r="N75" s="21">
         <f>L75-M75</f>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="O75" s="21">
         <f>K75-M75</f>
-        <v>508</v>
+        <v>170</v>
       </c>
       <c r="P75" s="21" t="str">
         <f>TEXT(M75/K75,"0.00%")</f>
-        <v>0.39%</v>
+        <v>1.16%</v>
       </c>
       <c r="Q75" s="21" t="str">
         <f>TEXT(M75/L75,"0.00%")</f>
-        <v>6.25%</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>13.33%</v>
+      </c>
+      <c r="S75" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="T75" s="21">
+        <v>300</v>
+      </c>
+      <c r="U75" s="21">
+        <v>528</v>
+      </c>
+      <c r="V75" s="21">
+        <v>99</v>
+      </c>
+      <c r="W75" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>33.00%</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B76" s="21">
-        <v>717</v>
+        <v>363</v>
       </c>
       <c r="C76" s="21">
-        <v>434</v>
+        <v>338</v>
       </c>
       <c r="D76" s="21">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="E76" s="21">
         <f>C76-D76</f>
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F76" s="21">
         <f>B76-D76</f>
-        <v>461</v>
+        <v>206</v>
       </c>
       <c r="G76" s="21" t="str">
         <f>TEXT(D76/B76,"0.00%")</f>
-        <v>35.70%</v>
+        <v>43.25%</v>
       </c>
       <c r="H76" s="21" t="str">
         <f>TEXT(D76/C76,"0.00%")</f>
-        <v>58.99%</v>
+        <v>46.45%</v>
       </c>
       <c r="I76" s="10"/>
       <c r="J76" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K76" s="21">
-        <v>717</v>
+        <v>363</v>
       </c>
       <c r="L76" s="21">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M76" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N76" s="21">
         <f>L76-M76</f>
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="O76" s="21">
         <f>K76-M76</f>
-        <v>713</v>
+        <v>362</v>
       </c>
       <c r="P76" s="21" t="str">
         <f>TEXT(M76/K76,"0.00%")</f>
-        <v>0.56%</v>
+        <v>0.28%</v>
       </c>
       <c r="Q76" s="21" t="str">
         <f>TEXT(M76/L76,"0.00%")</f>
-        <v>8.51%</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="21" t="s">
+        <v>3.33%</v>
+      </c>
+      <c r="S76" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="T76" s="21">
+        <v>717</v>
+      </c>
+      <c r="U76" s="21">
         <v>52</v>
       </c>
-      <c r="B77" s="21">
+      <c r="V76" s="21">
+        <v>45</v>
+      </c>
+      <c r="W76" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>6.28%</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="21"/>
+      <c r="S77" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="T77" s="21">
+        <v>717</v>
+      </c>
+      <c r="U77" s="21">
+        <v>1741</v>
+      </c>
+      <c r="V77" s="21">
+        <v>213</v>
+      </c>
+      <c r="W77" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>29.71%</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="21">
+        <v>510</v>
+      </c>
+      <c r="C78" s="21">
+        <v>317</v>
+      </c>
+      <c r="D78" s="21">
+        <v>198</v>
+      </c>
+      <c r="E78" s="21">
+        <f>C78-D78</f>
+        <v>119</v>
+      </c>
+      <c r="F78" s="21">
+        <f>B78-D78</f>
+        <v>312</v>
+      </c>
+      <c r="G78" s="21" t="str">
+        <f>TEXT(D78/B78,"0.00%")</f>
+        <v>38.82%</v>
+      </c>
+      <c r="H78" s="21" t="str">
+        <f>TEXT(D78/C78,"0.00%")</f>
+        <v>62.46%</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K78" s="21">
+        <v>510</v>
+      </c>
+      <c r="L78" s="21">
+        <v>37</v>
+      </c>
+      <c r="M78" s="21">
+        <v>2</v>
+      </c>
+      <c r="N78" s="21">
+        <f>L78-M78</f>
+        <v>35</v>
+      </c>
+      <c r="O78" s="21">
+        <f>K78-M78</f>
+        <v>508</v>
+      </c>
+      <c r="P78" s="21" t="str">
+        <f>TEXT(M78/K78,"0.00%")</f>
+        <v>0.39%</v>
+      </c>
+      <c r="Q78" s="21" t="str">
+        <f>TEXT(M78/L78,"0.00%")</f>
+        <v>5.41%</v>
+      </c>
+      <c r="S78" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="T78" s="21">
+        <v>717</v>
+      </c>
+      <c r="U78" s="21">
+        <v>1730</v>
+      </c>
+      <c r="V78" s="21">
+        <v>198</v>
+      </c>
+      <c r="W78" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>27.62%</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="21">
+        <v>717</v>
+      </c>
+      <c r="C79" s="21">
+        <v>523</v>
+      </c>
+      <c r="D79" s="21">
+        <v>289</v>
+      </c>
+      <c r="E79" s="21">
+        <f>C79-D79</f>
+        <v>234</v>
+      </c>
+      <c r="F79" s="21">
+        <f>B79-D79</f>
+        <v>428</v>
+      </c>
+      <c r="G79" s="21" t="str">
+        <f>TEXT(D79/B79,"0.00%")</f>
+        <v>40.31%</v>
+      </c>
+      <c r="H79" s="21" t="str">
+        <f>TEXT(D79/C79,"0.00%")</f>
+        <v>55.26%</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79" s="21">
+        <v>717</v>
+      </c>
+      <c r="L79" s="21">
+        <v>64</v>
+      </c>
+      <c r="M79" s="21">
+        <v>4</v>
+      </c>
+      <c r="N79" s="21">
+        <f>L79-M79</f>
+        <v>60</v>
+      </c>
+      <c r="O79" s="21">
+        <f>K79-M79</f>
+        <v>713</v>
+      </c>
+      <c r="P79" s="21" t="str">
+        <f>TEXT(M79/K79,"0.00%")</f>
+        <v>0.56%</v>
+      </c>
+      <c r="Q79" s="21" t="str">
+        <f>TEXT(M79/L79,"0.00%")</f>
+        <v>6.25%</v>
+      </c>
+      <c r="W79" s="21"/>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="21">
         <v>868</v>
       </c>
-      <c r="C77" s="21">
+      <c r="C80" s="21">
+        <v>592</v>
+      </c>
+      <c r="D80" s="21">
+        <v>401</v>
+      </c>
+      <c r="E80" s="21">
+        <f>C80-D80</f>
+        <v>191</v>
+      </c>
+      <c r="F80" s="21">
+        <f>B80-D80</f>
+        <v>467</v>
+      </c>
+      <c r="G80" s="21" t="str">
+        <f>TEXT(D80/B80,"0.00%")</f>
+        <v>46.20%</v>
+      </c>
+      <c r="H80" s="21" t="str">
+        <f>TEXT(D80/C80,"0.00%")</f>
+        <v>67.74%</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K80" s="21">
+        <v>868</v>
+      </c>
+      <c r="L80" s="21">
+        <v>85</v>
+      </c>
+      <c r="M80" s="21">
+        <v>3</v>
+      </c>
+      <c r="N80" s="21">
+        <f>L80-M80</f>
+        <v>82</v>
+      </c>
+      <c r="O80" s="21">
+        <f>K80-M80</f>
+        <v>865</v>
+      </c>
+      <c r="P80" s="21" t="str">
+        <f>TEXT(M80/K80,"0.00%")</f>
+        <v>0.35%</v>
+      </c>
+      <c r="Q80" s="21" t="str">
+        <f>TEXT(M80/L80,"0.00%")</f>
+        <v>3.53%</v>
+      </c>
+      <c r="S80" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="T80" s="21">
+        <v>518</v>
+      </c>
+      <c r="U80" s="21">
+        <v>3</v>
+      </c>
+      <c r="V80" s="21">
+        <v>0</v>
+      </c>
+      <c r="W80" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>0.00%</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="21"/>
+      <c r="Q81" s="21"/>
+      <c r="S81" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="T81" s="21">
+        <v>518</v>
+      </c>
+      <c r="U81" s="21">
+        <v>1202</v>
+      </c>
+      <c r="V81" s="21">
+        <v>119</v>
+      </c>
+      <c r="W81" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>22.97%</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" s="21"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="19"/>
+      <c r="S82" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="T82" s="21">
+        <v>518</v>
+      </c>
+      <c r="U82" s="21">
+        <v>1212</v>
+      </c>
+      <c r="V82" s="21">
+        <v>120</v>
+      </c>
+      <c r="W82" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>23.17%</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" s="21"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="19"/>
+      <c r="S83" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="T83" s="21">
+        <v>350</v>
+      </c>
+      <c r="U83" s="21">
+        <v>67</v>
+      </c>
+      <c r="V83" s="21">
+        <v>59</v>
+      </c>
+      <c r="W83" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>16.86%</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" s="21"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="S84" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="T84" s="21">
+        <v>350</v>
+      </c>
+      <c r="U84" s="21">
+        <v>618</v>
+      </c>
+      <c r="V84" s="21">
+        <v>138</v>
+      </c>
+      <c r="W84" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>39.43%</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="S85" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="T85" s="21">
+        <v>350</v>
+      </c>
+      <c r="U85" s="21">
+        <v>596</v>
+      </c>
+      <c r="V85" s="21">
+        <v>121</v>
+      </c>
+      <c r="W85" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>34.57%</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="10"/>
+      <c r="J86" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L86" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N86" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O86" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P86" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S86" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="T86" s="21">
+        <v>868</v>
+      </c>
+      <c r="U86" s="21">
+        <v>70</v>
+      </c>
+      <c r="V86" s="21">
+        <v>59</v>
+      </c>
+      <c r="W86" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>6.80%</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" s="20"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+      <c r="S87" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="T87" s="21">
+        <v>868</v>
+      </c>
+      <c r="U87" s="21">
+        <v>1820</v>
+      </c>
+      <c r="V87" s="21">
+        <v>257</v>
+      </c>
+      <c r="W87" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>29.61%</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="21">
+        <v>172</v>
+      </c>
+      <c r="C88" s="21">
+        <v>86</v>
+      </c>
+      <c r="D88" s="21">
+        <v>53</v>
+      </c>
+      <c r="E88" s="21">
+        <f>C88-D88</f>
+        <v>33</v>
+      </c>
+      <c r="F88" s="21">
+        <f>B88-D88</f>
+        <v>119</v>
+      </c>
+      <c r="G88" s="21" t="str">
+        <f>TEXT(D88/B88,"0.00%")</f>
+        <v>30.81%</v>
+      </c>
+      <c r="H88" s="21" t="str">
+        <f>TEXT(D88/C88,"0.00%")</f>
+        <v>61.63%</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K88" s="21">
+        <v>172</v>
+      </c>
+      <c r="L88" s="21">
+        <v>15</v>
+      </c>
+      <c r="M88" s="21">
+        <v>3</v>
+      </c>
+      <c r="N88" s="21">
+        <f>L88-M88</f>
+        <v>12</v>
+      </c>
+      <c r="O88" s="21">
+        <f>K88-M88</f>
+        <v>169</v>
+      </c>
+      <c r="P88" s="21" t="str">
+        <f>TEXT(M88/K88,"0.00%")</f>
+        <v>1.74%</v>
+      </c>
+      <c r="Q88" s="21" t="str">
+        <f>TEXT(M88/L88,"0.00%")</f>
+        <v>20.00%</v>
+      </c>
+      <c r="S88" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="T88" s="21">
+        <v>868</v>
+      </c>
+      <c r="U88" s="21">
+        <v>1808</v>
+      </c>
+      <c r="V88" s="21">
+        <v>241</v>
+      </c>
+      <c r="W88" s="21" t="str">
+        <f t="shared" si="28"/>
+        <v>27.76%</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B89" s="21">
+        <v>363</v>
+      </c>
+      <c r="C89" s="21">
+        <v>276</v>
+      </c>
+      <c r="D89" s="21">
+        <v>141</v>
+      </c>
+      <c r="E89" s="21">
+        <f>C89-D89</f>
+        <v>135</v>
+      </c>
+      <c r="F89" s="21">
+        <f>B89-D89</f>
+        <v>222</v>
+      </c>
+      <c r="G89" s="21" t="str">
+        <f>TEXT(D89/B89,"0.00%")</f>
+        <v>38.84%</v>
+      </c>
+      <c r="H89" s="21" t="str">
+        <f>TEXT(D89/C89,"0.00%")</f>
+        <v>51.09%</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K89" s="21">
+        <v>363</v>
+      </c>
+      <c r="L89" s="21">
+        <v>31</v>
+      </c>
+      <c r="M89" s="21">
+        <v>2</v>
+      </c>
+      <c r="N89" s="21">
+        <f>L89-M89</f>
+        <v>29</v>
+      </c>
+      <c r="O89" s="21">
+        <f>K89-M89</f>
+        <v>361</v>
+      </c>
+      <c r="P89" s="21" t="str">
+        <f>TEXT(M89/K89,"0.00%")</f>
+        <v>0.55%</v>
+      </c>
+      <c r="Q89" s="21" t="str">
+        <f>TEXT(M89/L89,"0.00%")</f>
+        <v>6.45%</v>
+      </c>
+      <c r="W89">
+        <v>33.72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" s="21">
+        <v>510</v>
+      </c>
+      <c r="C90" s="21">
+        <v>269</v>
+      </c>
+      <c r="D90" s="21">
+        <v>158</v>
+      </c>
+      <c r="E90" s="21">
+        <f>C90-D90</f>
+        <v>111</v>
+      </c>
+      <c r="F90" s="21">
+        <f>B90-D90</f>
+        <v>352</v>
+      </c>
+      <c r="G90" s="21" t="str">
+        <f>TEXT(D90/B90,"0.00%")</f>
+        <v>30.98%</v>
+      </c>
+      <c r="H90" s="21" t="str">
+        <f>TEXT(D90/C90,"0.00%")</f>
+        <v>58.74%</v>
+      </c>
+      <c r="I90" s="10"/>
+      <c r="J90" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K90" s="21">
+        <v>510</v>
+      </c>
+      <c r="L90" s="21">
+        <v>42</v>
+      </c>
+      <c r="M90" s="21">
+        <v>4</v>
+      </c>
+      <c r="N90" s="21">
+        <f>L90-M90</f>
+        <v>38</v>
+      </c>
+      <c r="O90" s="21">
+        <f>K90-M90</f>
+        <v>506</v>
+      </c>
+      <c r="P90" s="21" t="str">
+        <f>TEXT(M90/K90,"0.00%")</f>
+        <v>0.78%</v>
+      </c>
+      <c r="Q90" s="21" t="str">
+        <f>TEXT(M90/L90,"0.00%")</f>
+        <v>9.52%</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="21">
+        <v>717</v>
+      </c>
+      <c r="C91" s="21">
+        <v>434</v>
+      </c>
+      <c r="D91" s="21">
+        <v>256</v>
+      </c>
+      <c r="E91" s="21">
+        <f>C91-D91</f>
+        <v>178</v>
+      </c>
+      <c r="F91" s="21">
+        <f>B91-D91</f>
+        <v>461</v>
+      </c>
+      <c r="G91" s="21" t="str">
+        <f>TEXT(D91/B91,"0.00%")</f>
+        <v>35.70%</v>
+      </c>
+      <c r="H91" s="21" t="str">
+        <f>TEXT(D91/C91,"0.00%")</f>
+        <v>58.99%</v>
+      </c>
+      <c r="I91" s="10"/>
+      <c r="J91" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K91" s="21">
+        <v>717</v>
+      </c>
+      <c r="L91" s="21">
+        <v>62</v>
+      </c>
+      <c r="M91" s="21">
+        <v>5</v>
+      </c>
+      <c r="N91" s="21">
+        <f>L91-M91</f>
+        <v>57</v>
+      </c>
+      <c r="O91" s="21">
+        <f>K91-M91</f>
+        <v>712</v>
+      </c>
+      <c r="P91" s="21" t="str">
+        <f>TEXT(M91/K91,"0.00%")</f>
+        <v>0.70%</v>
+      </c>
+      <c r="Q91" s="21" t="str">
+        <f>TEXT(M91/L91,"0.00%")</f>
+        <v>8.06%</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" s="21">
+        <v>868</v>
+      </c>
+      <c r="C92" s="21">
         <v>498</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D92" s="21">
         <v>326</v>
       </c>
-      <c r="E77" s="21">
-        <f>C77-D77</f>
+      <c r="E92" s="21">
+        <f>C92-D92</f>
         <v>172</v>
       </c>
-      <c r="F77" s="21">
-        <f>B77-D77</f>
+      <c r="F92" s="21">
+        <f>B92-D92</f>
         <v>542</v>
       </c>
-      <c r="G77" s="21" t="str">
-        <f>TEXT(D77/B77,"0.00%")</f>
+      <c r="G92" s="21" t="str">
+        <f>TEXT(D92/B92,"0.00%")</f>
         <v>37.56%</v>
       </c>
-      <c r="H77" s="21" t="str">
-        <f>TEXT(D77/C77,"0.00%")</f>
+      <c r="H92" s="21" t="str">
+        <f>TEXT(D92/C92,"0.00%")</f>
         <v>65.46%</v>
       </c>
-      <c r="I77" s="10"/>
-      <c r="J77" s="21" t="s">
+      <c r="I92" s="10"/>
+      <c r="J92" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="K77" s="21">
+      <c r="K92" s="21">
         <v>868</v>
       </c>
-      <c r="L77" s="21">
-        <v>68</v>
-      </c>
-      <c r="M77" s="21">
+      <c r="L92" s="21">
+        <v>88</v>
+      </c>
+      <c r="M92" s="21">
+        <v>5</v>
+      </c>
+      <c r="N92" s="21">
+        <f>L92-M92</f>
+        <v>83</v>
+      </c>
+      <c r="O92" s="21">
+        <f>K92-M92</f>
+        <v>863</v>
+      </c>
+      <c r="P92" s="21" t="str">
+        <f>TEXT(M92/K92,"0.00%")</f>
+        <v>0.58%</v>
+      </c>
+      <c r="Q92" s="21" t="str">
+        <f>TEXT(M92/L92,"0.00%")</f>
+        <v>5.68%</v>
+      </c>
+      <c r="S92" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="T92" s="34"/>
+      <c r="U92" s="34"/>
+      <c r="V92" s="34"/>
+      <c r="W92" s="34"/>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="S93" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T93" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U93" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V93" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W93" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="S94" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="T94" s="21">
+        <v>90</v>
+      </c>
+      <c r="U94" s="21">
+        <v>32</v>
+      </c>
+      <c r="V94" s="21">
+        <v>17</v>
+      </c>
+      <c r="W94" s="21" t="str">
+        <f>TEXT(V94/T94,"0.00%")</f>
+        <v>18.89%</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="S95" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="T95" s="21">
+        <v>90</v>
+      </c>
+      <c r="U95" s="21">
+        <v>398</v>
+      </c>
+      <c r="V95" s="21">
+        <v>57</v>
+      </c>
+      <c r="W95" s="21" t="str">
+        <f t="shared" ref="W95:W102" si="29">TEXT(V95/T95,"0.00%")</f>
+        <v>63.33%</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="S96" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="T96" s="21">
+        <v>90</v>
+      </c>
+      <c r="U96" s="21">
+        <v>377</v>
+      </c>
+      <c r="V96" s="21">
+        <v>51</v>
+      </c>
+      <c r="W96" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>56.67%</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K97" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L97" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="M97" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N97" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="O97" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P97" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q97" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S97" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="T97" s="21">
+        <v>82</v>
+      </c>
+      <c r="U97" s="21">
+        <v>40</v>
+      </c>
+      <c r="V97" s="21">
+        <v>32</v>
+      </c>
+      <c r="W97" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>39.02%</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="S98" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T98" s="21">
+        <v>82</v>
+      </c>
+      <c r="U98" s="21">
+        <v>182</v>
+      </c>
+      <c r="V98" s="21">
+        <v>73</v>
+      </c>
+      <c r="W98" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>89.02%</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="21">
+        <v>172</v>
+      </c>
+      <c r="C99" s="21">
+        <v>89</v>
+      </c>
+      <c r="D99" s="21">
+        <v>53</v>
+      </c>
+      <c r="E99" s="21">
+        <f>C99-D99</f>
+        <v>36</v>
+      </c>
+      <c r="F99" s="21">
+        <f>B99-D99</f>
+        <v>119</v>
+      </c>
+      <c r="G99" s="21" t="str">
+        <f>TEXT(D99/B99,"0.00%")</f>
+        <v>30.81%</v>
+      </c>
+      <c r="H99" s="21" t="str">
+        <f>TEXT(D99/C99,"0.00%")</f>
+        <v>59.55%</v>
+      </c>
+      <c r="I99" s="10"/>
+      <c r="J99" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K99" s="21">
+        <v>172</v>
+      </c>
+      <c r="L99" s="21">
+        <v>15</v>
+      </c>
+      <c r="M99" s="21">
         <v>3</v>
       </c>
-      <c r="N77" s="21">
-        <f>L77-M77</f>
-        <v>65</v>
-      </c>
-      <c r="O77" s="21">
-        <f>K77-M77</f>
-        <v>865</v>
-      </c>
-      <c r="P77" s="21" t="str">
-        <f>TEXT(M77/K77,"0.00%")</f>
-        <v>0.35%</v>
-      </c>
-      <c r="Q77" s="21" t="str">
-        <f>TEXT(M77/L77,"0.00%")</f>
-        <v>4.41%</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="21"/>
-      <c r="P78" s="21"/>
-      <c r="Q78" s="21"/>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-      <c r="N79" s="21"/>
-      <c r="O79" s="21"/>
-      <c r="P79" s="21"/>
-      <c r="Q79" s="21"/>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19"/>
-      <c r="P80" s="19"/>
-      <c r="Q80" s="19"/>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="10"/>
-      <c r="J81" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K81" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L81" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="M81" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N81" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O81" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="P81" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q81" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="21">
+      <c r="N99" s="21">
+        <f>L99-M99</f>
+        <v>12</v>
+      </c>
+      <c r="O99" s="21">
+        <f>K99-M99</f>
+        <v>169</v>
+      </c>
+      <c r="P99" s="21" t="str">
+        <f>TEXT(M99/K99,"0.00%")</f>
+        <v>1.74%</v>
+      </c>
+      <c r="Q99" s="21" t="str">
+        <f>TEXT(M99/L99,"0.00%")</f>
+        <v>20.00%</v>
+      </c>
+      <c r="S99" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="T99" s="21">
+        <v>82</v>
+      </c>
+      <c r="U99" s="21">
+        <v>170</v>
+      </c>
+      <c r="V99" s="21">
+        <v>67</v>
+      </c>
+      <c r="W99" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>81.71%</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="21">
+        <v>363</v>
+      </c>
+      <c r="C100" s="21">
+        <v>211</v>
+      </c>
+      <c r="D100" s="21">
+        <v>126</v>
+      </c>
+      <c r="E100" s="21">
+        <f>C100-D100</f>
+        <v>85</v>
+      </c>
+      <c r="F100" s="21">
+        <f>B100-D100</f>
+        <v>237</v>
+      </c>
+      <c r="G100" s="21" t="str">
+        <f>TEXT(D100/B100,"0.00%")</f>
+        <v>34.71%</v>
+      </c>
+      <c r="H100" s="21" t="str">
+        <f>TEXT(D100/C100,"0.00%")</f>
+        <v>59.72%</v>
+      </c>
+      <c r="I100" s="10"/>
+      <c r="J100" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K100" s="21">
+        <v>363</v>
+      </c>
+      <c r="L100" s="21">
+        <v>32</v>
+      </c>
+      <c r="M100" s="21">
+        <v>2</v>
+      </c>
+      <c r="N100" s="21">
+        <f>L100-M100</f>
+        <v>30</v>
+      </c>
+      <c r="O100" s="21">
+        <f>K100-M100</f>
+        <v>361</v>
+      </c>
+      <c r="P100" s="21" t="str">
+        <f>TEXT(M100/K100,"0.00%")</f>
+        <v>0.55%</v>
+      </c>
+      <c r="Q100" s="21" t="str">
+        <f>TEXT(M100/L100,"0.00%")</f>
+        <v>6.25%</v>
+      </c>
+      <c r="S100" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T100" s="21">
         <v>172</v>
       </c>
-      <c r="C82" s="21">
+      <c r="U100" s="21">
+        <v>72</v>
+      </c>
+      <c r="V100" s="21">
+        <v>49</v>
+      </c>
+      <c r="W100" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>28.49%</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101" s="21"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="S101" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="T101" s="21">
+        <v>172</v>
+      </c>
+      <c r="U101" s="21">
+        <v>560</v>
+      </c>
+      <c r="V101" s="21">
+        <v>128</v>
+      </c>
+      <c r="W101" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>74.42%</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="21">
+        <v>510</v>
+      </c>
+      <c r="C102" s="21">
+        <v>287</v>
+      </c>
+      <c r="D102" s="21">
+        <v>155</v>
+      </c>
+      <c r="E102" s="21">
+        <f>C102-D102</f>
+        <v>132</v>
+      </c>
+      <c r="F102" s="21">
+        <f>B102-D102</f>
+        <v>355</v>
+      </c>
+      <c r="G102" s="21" t="str">
+        <f>TEXT(D102/B102,"0.00%")</f>
+        <v>30.39%</v>
+      </c>
+      <c r="H102" s="21" t="str">
+        <f>TEXT(D102/C102,"0.00%")</f>
+        <v>54.01%</v>
+      </c>
+      <c r="I102" s="10"/>
+      <c r="J102" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K102" s="21">
+        <v>510</v>
+      </c>
+      <c r="L102" s="21">
+        <v>45</v>
+      </c>
+      <c r="M102" s="21">
+        <v>4</v>
+      </c>
+      <c r="N102" s="21">
+        <f>L102-M102</f>
+        <v>41</v>
+      </c>
+      <c r="O102" s="21">
+        <f>K102-M102</f>
+        <v>506</v>
+      </c>
+      <c r="P102" s="21" t="str">
+        <f>TEXT(M102/K102,"0.00%")</f>
+        <v>0.78%</v>
+      </c>
+      <c r="Q102" s="21" t="str">
+        <f>TEXT(M102/L102,"0.00%")</f>
+        <v>8.89%</v>
+      </c>
+      <c r="S102" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="T102" s="21">
+        <v>172</v>
+      </c>
+      <c r="U102" s="21">
+        <v>528</v>
+      </c>
+      <c r="V102" s="21">
+        <v>116</v>
+      </c>
+      <c r="W102" s="21" t="str">
+        <f t="shared" si="29"/>
+        <v>67.44%</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" s="21">
+        <v>717</v>
+      </c>
+      <c r="C103" s="21">
+        <v>440</v>
+      </c>
+      <c r="D103" s="21">
+        <v>251</v>
+      </c>
+      <c r="E103" s="21">
+        <f>C103-D103</f>
+        <v>189</v>
+      </c>
+      <c r="F103" s="21">
+        <f>B103-D103</f>
+        <v>466</v>
+      </c>
+      <c r="G103" s="21" t="str">
+        <f>TEXT(D103/B103,"0.00%")</f>
+        <v>35.01%</v>
+      </c>
+      <c r="H103" s="21" t="str">
+        <f>TEXT(D103/C103,"0.00%")</f>
+        <v>57.05%</v>
+      </c>
+      <c r="I103" s="2"/>
+      <c r="J103" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K103" s="21">
+        <v>717</v>
+      </c>
+      <c r="L103" s="21">
+        <v>61</v>
+      </c>
+      <c r="M103" s="21">
+        <v>5</v>
+      </c>
+      <c r="N103" s="21">
+        <f>L103-M103</f>
+        <v>56</v>
+      </c>
+      <c r="O103" s="21">
+        <f>K103-M103</f>
+        <v>712</v>
+      </c>
+      <c r="P103" s="21" t="str">
+        <f>TEXT(M103/K103,"0.00%")</f>
+        <v>0.70%</v>
+      </c>
+      <c r="Q103" s="21" t="str">
+        <f>TEXT(M103/L103,"0.00%")</f>
+        <v>8.20%</v>
+      </c>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="W103" s="21"/>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="21">
+        <v>868</v>
+      </c>
+      <c r="C104" s="21">
+        <v>467</v>
+      </c>
+      <c r="D104" s="21">
+        <v>295</v>
+      </c>
+      <c r="E104" s="21">
+        <f>C104-D104</f>
+        <v>172</v>
+      </c>
+      <c r="F104" s="21">
+        <f>B104-D104</f>
+        <v>573</v>
+      </c>
+      <c r="G104" s="21" t="str">
+        <f>TEXT(D104/B104,"0.00%")</f>
+        <v>33.99%</v>
+      </c>
+      <c r="H104" s="21" t="str">
+        <f>TEXT(D104/C104,"0.00%")</f>
+        <v>63.17%</v>
+      </c>
+      <c r="I104" s="2"/>
+      <c r="J104" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K104" s="21">
+        <v>868</v>
+      </c>
+      <c r="L104" s="21">
         <v>89</v>
       </c>
-      <c r="D82" s="21">
-        <v>53</v>
-      </c>
-      <c r="E82" s="21">
-        <f>C82-D82</f>
-        <v>36</v>
-      </c>
-      <c r="F82" s="21">
-        <f>B82-D82</f>
-        <v>119</v>
-      </c>
-      <c r="G82" s="21" t="str">
-        <f>TEXT(D82/B82,"0.00%")</f>
-        <v>30.81%</v>
-      </c>
-      <c r="H82" s="21" t="str">
-        <f>TEXT(D82/C82,"0.00%")</f>
-        <v>59.55%</v>
-      </c>
-      <c r="I82" s="10"/>
-      <c r="J82" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="K82" s="21">
-        <v>172</v>
-      </c>
-      <c r="L82" s="21">
-        <v>11</v>
-      </c>
-      <c r="M82" s="21">
-        <v>1</v>
-      </c>
-      <c r="N82" s="21">
-        <f>L82-M82</f>
-        <v>10</v>
-      </c>
-      <c r="O82" s="21">
-        <f>K82-M82</f>
-        <v>171</v>
-      </c>
-      <c r="P82" s="21" t="str">
-        <f>TEXT(M82/K82,"0.00%")</f>
+      <c r="M104" s="21">
+        <v>5</v>
+      </c>
+      <c r="N104" s="21">
+        <f>L104-M104</f>
+        <v>84</v>
+      </c>
+      <c r="O104" s="21">
+        <f>K104-M104</f>
+        <v>863</v>
+      </c>
+      <c r="P104" s="21" t="str">
+        <f>TEXT(M104/K104,"0.00%")</f>
         <v>0.58%</v>
       </c>
-      <c r="Q82" s="21" t="str">
-        <f>TEXT(M82/L82,"0.00%")</f>
-        <v>9.09%</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" s="21">
+      <c r="Q104" s="21" t="str">
+        <f>TEXT(M104/L104,"0.00%")</f>
+        <v>5.62%</v>
+      </c>
+      <c r="S104" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="T104" s="21">
+        <v>206</v>
+      </c>
+      <c r="U104" s="21">
+        <v>60</v>
+      </c>
+      <c r="V104" s="21">
+        <v>30</v>
+      </c>
+      <c r="W104" s="21" t="str">
+        <f t="shared" ref="W96:W142" si="30">TEXT(V104/T104,"0.00%")</f>
+        <v>14.56%</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" s="21"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="S105" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="T105" s="21">
+        <v>206</v>
+      </c>
+      <c r="U105" s="21">
+        <v>753</v>
+      </c>
+      <c r="V105" s="21">
+        <v>129</v>
+      </c>
+      <c r="W105" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>62.62%</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" s="19"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="2"/>
+      <c r="S106" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="T106" s="21">
+        <v>206</v>
+      </c>
+      <c r="U106" s="21">
+        <v>709</v>
+      </c>
+      <c r="V106" s="21">
+        <v>118</v>
+      </c>
+      <c r="W106" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>57.28%</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" s="26"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="2"/>
+      <c r="S107" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="T107" s="21">
+        <v>157</v>
+      </c>
+      <c r="U107" s="21">
+        <v>70</v>
+      </c>
+      <c r="V107" s="21">
+        <v>55</v>
+      </c>
+      <c r="W107" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>35.03%</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" s="26"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="2"/>
+      <c r="S108" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="T108" s="21">
+        <v>157</v>
+      </c>
+      <c r="U108" s="21">
+        <v>338</v>
+      </c>
+      <c r="V108" s="21">
+        <v>126</v>
+      </c>
+      <c r="W108" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>80.25%</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="S109" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="T109" s="21">
+        <v>157</v>
+      </c>
+      <c r="U109" s="21">
+        <v>315</v>
+      </c>
+      <c r="V109" s="21">
+        <v>115</v>
+      </c>
+      <c r="W109" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>73.25%</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="S110" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="T110" s="21">
         <v>363</v>
       </c>
-      <c r="C83" s="21">
+      <c r="U110" s="21">
+        <v>130</v>
+      </c>
+      <c r="V110" s="21">
+        <v>85</v>
+      </c>
+      <c r="W110" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>23.42%</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="S111" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="T111" s="21">
+        <v>363</v>
+      </c>
+      <c r="U111" s="21">
+        <v>1059</v>
+      </c>
+      <c r="V111" s="21">
+        <v>252</v>
+      </c>
+      <c r="W111" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>69.42%</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="S112" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="T112" s="21">
+        <v>363</v>
+      </c>
+      <c r="U112" s="21">
+        <v>994</v>
+      </c>
+      <c r="V112" s="21">
+        <v>230</v>
+      </c>
+      <c r="W112" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>63.36%</v>
+      </c>
+    </row>
+    <row r="113" spans="9:23">
+      <c r="W113" s="21"/>
+    </row>
+    <row r="114" spans="9:23">
+      <c r="S114" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="T114" s="21">
+        <v>293</v>
+      </c>
+      <c r="U114" s="21">
+        <v>95</v>
+      </c>
+      <c r="V114" s="21">
+        <v>47</v>
+      </c>
+      <c r="W114" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>16.04%</v>
+      </c>
+    </row>
+    <row r="115" spans="9:23">
+      <c r="S115" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="T115" s="21">
+        <v>293</v>
+      </c>
+      <c r="U115" s="21">
+        <v>826</v>
+      </c>
+      <c r="V115" s="21">
+        <v>158</v>
+      </c>
+      <c r="W115" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>53.92%</v>
+      </c>
+    </row>
+    <row r="116" spans="9:23">
+      <c r="S116" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="T116" s="21">
+        <v>293</v>
+      </c>
+      <c r="U116" s="21">
+        <v>758</v>
+      </c>
+      <c r="V116" s="21">
+        <v>141</v>
+      </c>
+      <c r="W116" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>48.12%</v>
+      </c>
+    </row>
+    <row r="117" spans="9:23">
+      <c r="S117" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="T117" s="21">
+        <v>217</v>
+      </c>
+      <c r="U117" s="21">
+        <v>90</v>
+      </c>
+      <c r="V117" s="21">
+        <v>71</v>
+      </c>
+      <c r="W117" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>32.72%</v>
+      </c>
+    </row>
+    <row r="118" spans="9:23">
+      <c r="S118" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="T118" s="21">
+        <v>217</v>
+      </c>
+      <c r="U118" s="21">
+        <v>488</v>
+      </c>
+      <c r="V118" s="21">
+        <v>175</v>
+      </c>
+      <c r="W118" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>80.65%</v>
+      </c>
+    </row>
+    <row r="119" spans="9:23">
+      <c r="S119" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="T119" s="21">
+        <v>217</v>
+      </c>
+      <c r="U119" s="21">
+        <v>454</v>
+      </c>
+      <c r="V119" s="21">
+        <v>153</v>
+      </c>
+      <c r="W119" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>70.51%</v>
+      </c>
+    </row>
+    <row r="120" spans="9:23">
+      <c r="S120" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="T120" s="21">
+        <v>510</v>
+      </c>
+      <c r="U120" s="21">
+        <v>185</v>
+      </c>
+      <c r="V120" s="21">
+        <v>118</v>
+      </c>
+      <c r="W120" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>23.14%</v>
+      </c>
+    </row>
+    <row r="121" spans="9:23">
+      <c r="S121" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="T121" s="21">
+        <v>510</v>
+      </c>
+      <c r="U121" s="21">
+        <v>1308</v>
+      </c>
+      <c r="V121" s="21">
+        <v>332</v>
+      </c>
+      <c r="W121" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>65.10%</v>
+      </c>
+    </row>
+    <row r="122" spans="9:23">
+      <c r="S122" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="T122" s="21">
+        <v>510</v>
+      </c>
+      <c r="U122" s="21">
+        <v>1212</v>
+      </c>
+      <c r="V122" s="21">
+        <v>294</v>
+      </c>
+      <c r="W122" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>57.65%</v>
+      </c>
+    </row>
+    <row r="123" spans="9:23">
+      <c r="W123" s="21"/>
+    </row>
+    <row r="124" spans="9:23">
+      <c r="S124" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="T124" s="21">
+        <v>417</v>
+      </c>
+      <c r="U124" s="21">
+        <v>121</v>
+      </c>
+      <c r="V124" s="21">
+        <v>56</v>
+      </c>
+      <c r="W124" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>13.43%</v>
+      </c>
+    </row>
+    <row r="125" spans="9:23">
+      <c r="S125" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="D83" s="21">
-        <v>126</v>
-      </c>
-      <c r="E83" s="21">
-        <f>C83-D83</f>
-        <v>85</v>
-      </c>
-      <c r="F83" s="21">
-        <f>B83-D83</f>
-        <v>237</v>
-      </c>
-      <c r="G83" s="21" t="str">
-        <f>TEXT(D83/B83,"0.00%")</f>
-        <v>34.71%</v>
-      </c>
-      <c r="H83" s="21" t="str">
-        <f>TEXT(D83/C83,"0.00%")</f>
-        <v>59.72%</v>
-      </c>
-      <c r="I83" s="10"/>
-      <c r="J83" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K83" s="21">
-        <v>363</v>
-      </c>
-      <c r="L83" s="21">
-        <v>21</v>
-      </c>
-      <c r="M83" s="21">
-        <v>1</v>
-      </c>
-      <c r="N83" s="21">
-        <f>L83-M83</f>
-        <v>20</v>
-      </c>
-      <c r="O83" s="21">
-        <f>K83-M83</f>
-        <v>362</v>
-      </c>
-      <c r="P83" s="21" t="str">
-        <f>TEXT(M83/K83,"0.00%")</f>
-        <v>0.28%</v>
-      </c>
-      <c r="Q83" s="21" t="str">
-        <f>TEXT(M83/L83,"0.00%")</f>
-        <v>4.76%</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" s="21">
-        <v>510</v>
-      </c>
-      <c r="C84" s="21">
-        <v>287</v>
-      </c>
-      <c r="D84" s="21">
+      <c r="T125" s="21">
+        <v>417</v>
+      </c>
+      <c r="U125" s="21">
+        <v>1216</v>
+      </c>
+      <c r="V125" s="21">
+        <v>207</v>
+      </c>
+      <c r="W125" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>49.64%</v>
+      </c>
+    </row>
+    <row r="126" spans="9:23">
+      <c r="I126" s="10"/>
+      <c r="S126" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="T126" s="21">
+        <v>417</v>
+      </c>
+      <c r="U126" s="21">
+        <v>1122</v>
+      </c>
+      <c r="V126" s="21">
+        <v>175</v>
+      </c>
+      <c r="W126" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>41.97%</v>
+      </c>
+    </row>
+    <row r="127" spans="9:23">
+      <c r="I127" s="10"/>
+      <c r="S127" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="T127" s="21">
+        <v>300</v>
+      </c>
+      <c r="U127" s="21">
+        <v>117</v>
+      </c>
+      <c r="V127" s="21">
+        <v>99</v>
+      </c>
+      <c r="W127" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>33.00%</v>
+      </c>
+    </row>
+    <row r="128" spans="9:23">
+      <c r="I128" s="10"/>
+      <c r="S128" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="T128" s="21">
+        <v>300</v>
+      </c>
+      <c r="U128" s="21">
+        <v>665</v>
+      </c>
+      <c r="V128" s="21">
+        <v>229</v>
+      </c>
+      <c r="W128" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>76.33%</v>
+      </c>
+    </row>
+    <row r="129" spans="9:23">
+      <c r="I129" s="10"/>
+      <c r="S129" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="T129" s="21">
+        <v>300</v>
+      </c>
+      <c r="U129" s="21">
+        <v>619</v>
+      </c>
+      <c r="V129" s="21">
+        <v>198</v>
+      </c>
+      <c r="W129" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>66.00%</v>
+      </c>
+    </row>
+    <row r="130" spans="9:23">
+      <c r="I130" s="2"/>
+      <c r="S130" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="T130" s="21">
+        <v>717</v>
+      </c>
+      <c r="U130" s="21">
+        <v>238</v>
+      </c>
+      <c r="V130" s="21">
         <v>155</v>
       </c>
-      <c r="E84" s="21">
-        <f>C84-D84</f>
-        <v>132</v>
-      </c>
-      <c r="F84" s="21">
-        <f>B84-D84</f>
-        <v>355</v>
-      </c>
-      <c r="G84" s="21" t="str">
-        <f>TEXT(D84/B84,"0.00%")</f>
-        <v>30.39%</v>
-      </c>
-      <c r="H84" s="21" t="str">
-        <f>TEXT(D84/C84,"0.00%")</f>
-        <v>54.01%</v>
-      </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K84" s="21">
-        <v>510</v>
-      </c>
-      <c r="L84" s="21">
-        <v>29</v>
-      </c>
-      <c r="M84" s="21">
-        <v>2</v>
-      </c>
-      <c r="N84" s="21">
-        <f>L84-M84</f>
-        <v>27</v>
-      </c>
-      <c r="O84" s="21">
-        <f>K84-M84</f>
-        <v>508</v>
-      </c>
-      <c r="P84" s="21" t="str">
-        <f>TEXT(M84/K84,"0.00%")</f>
-        <v>0.39%</v>
-      </c>
-      <c r="Q84" s="21" t="str">
-        <f>TEXT(M84/L84,"0.00%")</f>
-        <v>6.90%</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B85" s="21">
+      <c r="W130" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>21.62%</v>
+      </c>
+    </row>
+    <row r="131" spans="9:23">
+      <c r="I131" s="2"/>
+      <c r="S131" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="T131" s="21">
         <v>717</v>
       </c>
-      <c r="C85" s="21">
-        <v>440</v>
-      </c>
-      <c r="D85" s="21">
-        <v>251</v>
-      </c>
-      <c r="E85" s="21">
-        <f>C85-D85</f>
+      <c r="U131" s="21">
+        <v>1874</v>
+      </c>
+      <c r="V131" s="21">
+        <v>436</v>
+      </c>
+      <c r="W131" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>60.81%</v>
+      </c>
+    </row>
+    <row r="132" spans="9:23">
+      <c r="I132" s="2"/>
+      <c r="S132" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="T132" s="21">
+        <v>717</v>
+      </c>
+      <c r="U132" s="21">
+        <v>1741</v>
+      </c>
+      <c r="V132" s="21">
+        <v>373</v>
+      </c>
+      <c r="W132" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>52.02%</v>
+      </c>
+    </row>
+    <row r="133" spans="9:23">
+      <c r="I133" s="2"/>
+      <c r="W133" s="21"/>
+    </row>
+    <row r="134" spans="9:23">
+      <c r="I134" s="2"/>
+      <c r="S134" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="T134" s="21">
+        <v>518</v>
+      </c>
+      <c r="U134" s="21">
+        <v>151</v>
+      </c>
+      <c r="V134" s="21">
+        <v>79</v>
+      </c>
+      <c r="W134" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>15.25%</v>
+      </c>
+    </row>
+    <row r="135" spans="9:23">
+      <c r="I135" s="2"/>
+      <c r="S135" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="T135" s="21">
+        <v>518</v>
+      </c>
+      <c r="U135" s="21">
+        <v>1289</v>
+      </c>
+      <c r="V135" s="21">
+        <v>259</v>
+      </c>
+      <c r="W135" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>50.00%</v>
+      </c>
+    </row>
+    <row r="136" spans="9:23">
+      <c r="I136" s="12"/>
+      <c r="S136" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="T136" s="21">
+        <v>518</v>
+      </c>
+      <c r="U136" s="21">
+        <v>1158</v>
+      </c>
+      <c r="V136" s="21">
+        <v>218</v>
+      </c>
+      <c r="W136" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>42.08%</v>
+      </c>
+    </row>
+    <row r="137" spans="9:23">
+      <c r="I137" s="10"/>
+      <c r="S137" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="T137" s="21">
+        <v>350</v>
+      </c>
+      <c r="U137" s="21">
+        <v>168</v>
+      </c>
+      <c r="V137" s="21">
+        <v>133</v>
+      </c>
+      <c r="W137" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>38.00%</v>
+      </c>
+    </row>
+    <row r="138" spans="9:23">
+      <c r="I138" s="10"/>
+      <c r="S138" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="T138" s="21">
+        <v>350</v>
+      </c>
+      <c r="U138" s="21">
+        <v>785</v>
+      </c>
+      <c r="V138" s="21">
+        <v>290</v>
+      </c>
+      <c r="W138" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>82.86%</v>
+      </c>
+    </row>
+    <row r="139" spans="9:23">
+      <c r="I139" s="10"/>
+      <c r="S139" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="T139" s="21">
+        <v>350</v>
+      </c>
+      <c r="U139" s="21">
+        <v>694</v>
+      </c>
+      <c r="V139" s="21">
+        <v>232</v>
+      </c>
+      <c r="W139" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>66.29%</v>
+      </c>
+    </row>
+    <row r="140" spans="9:23">
+      <c r="I140" s="10"/>
+      <c r="S140" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="F85" s="21">
-        <f>B85-D85</f>
-        <v>466</v>
-      </c>
-      <c r="G85" s="21" t="str">
-        <f>TEXT(D85/B85,"0.00%")</f>
-        <v>35.01%</v>
-      </c>
-      <c r="H85" s="21" t="str">
-        <f>TEXT(D85/C85,"0.00%")</f>
-        <v>57.05%</v>
-      </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K85" s="21">
-        <v>717</v>
-      </c>
-      <c r="L85" s="21">
-        <v>41</v>
-      </c>
-      <c r="M85" s="21">
-        <v>4</v>
-      </c>
-      <c r="N85" s="21">
-        <f>L85-M85</f>
-        <v>37</v>
-      </c>
-      <c r="O85" s="21">
-        <f>K85-M85</f>
-        <v>713</v>
-      </c>
-      <c r="P85" s="21" t="str">
-        <f>TEXT(M85/K85,"0.00%")</f>
-        <v>0.56%</v>
-      </c>
-      <c r="Q85" s="21" t="str">
-        <f>TEXT(M85/L85,"0.00%")</f>
-        <v>9.76%</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="21">
+      <c r="T140" s="21">
         <v>868</v>
       </c>
-      <c r="C86" s="21">
-        <v>467</v>
-      </c>
-      <c r="D86" s="21">
-        <v>295</v>
-      </c>
-      <c r="E86" s="21">
-        <f>C86-D86</f>
-        <v>172</v>
-      </c>
-      <c r="F86" s="21">
-        <f>B86-D86</f>
-        <v>573</v>
-      </c>
-      <c r="G86" s="21" t="str">
-        <f>TEXT(D86/B86,"0.00%")</f>
-        <v>33.99%</v>
-      </c>
-      <c r="H86" s="21" t="str">
-        <f>TEXT(D86/C86,"0.00%")</f>
-        <v>63.17%</v>
-      </c>
-      <c r="I86" s="2"/>
-      <c r="J86" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K86" s="21">
+      <c r="U140" s="21">
+        <v>319</v>
+      </c>
+      <c r="V140" s="21">
+        <v>212</v>
+      </c>
+      <c r="W140" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>24.42%</v>
+      </c>
+    </row>
+    <row r="141" spans="9:23">
+      <c r="I141" s="10"/>
+      <c r="S141" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="T141" s="21">
         <v>868</v>
       </c>
-      <c r="L86" s="21">
-        <v>62</v>
-      </c>
-      <c r="M86" s="21">
-        <v>3</v>
-      </c>
-      <c r="N86" s="21">
-        <f>L86-M86</f>
-        <v>59</v>
-      </c>
-      <c r="O86" s="21">
-        <f>K86-M86</f>
-        <v>865</v>
-      </c>
-      <c r="P86" s="21" t="str">
-        <f>TEXT(M86/K86,"0.00%")</f>
-        <v>0.35%</v>
-      </c>
-      <c r="Q86" s="21" t="str">
-        <f>TEXT(M86/L86,"0.00%")</f>
-        <v>4.84%</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="26"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="101" spans="9:9">
-      <c r="I101" s="10"/>
-    </row>
-    <row r="102" spans="9:9">
-      <c r="I102" s="10"/>
-    </row>
-    <row r="103" spans="9:9">
-      <c r="I103" s="10"/>
-    </row>
-    <row r="104" spans="9:9">
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="9:9">
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="9:9">
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="9:9">
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="9:9">
-      <c r="I108" s="12"/>
-    </row>
-    <row r="109" spans="9:9">
-      <c r="I109" s="10"/>
-    </row>
-    <row r="110" spans="9:9">
-      <c r="I110" s="10"/>
-    </row>
-    <row r="111" spans="9:9">
-      <c r="I111" s="10"/>
-    </row>
-    <row r="112" spans="9:9">
-      <c r="I112" s="10"/>
-    </row>
-    <row r="113" spans="9:9">
-      <c r="I113" s="10"/>
-    </row>
-    <row r="114" spans="9:9">
-      <c r="I114" s="10"/>
-    </row>
-    <row r="115" spans="9:9">
-      <c r="I115" s="10"/>
-    </row>
-    <row r="116" spans="9:9">
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="9:9">
-      <c r="I117" s="12"/>
-    </row>
-    <row r="118" spans="9:9">
-      <c r="I118" s="10"/>
-    </row>
-    <row r="119" spans="9:9">
-      <c r="I119" s="10"/>
-    </row>
-    <row r="120" spans="9:9">
-      <c r="I120" s="10"/>
-    </row>
-    <row r="121" spans="9:9">
-      <c r="I121" s="10"/>
-    </row>
-    <row r="122" spans="9:9">
-      <c r="I122" s="10"/>
+      <c r="U141" s="21">
+        <v>1988</v>
+      </c>
+      <c r="V141" s="21">
+        <v>544</v>
+      </c>
+      <c r="W141" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>62.67%</v>
+      </c>
+    </row>
+    <row r="142" spans="9:23">
+      <c r="I142" s="10"/>
+      <c r="S142" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="T142" s="21">
+        <v>868</v>
+      </c>
+      <c r="U142" s="21">
+        <v>1781</v>
+      </c>
+      <c r="V142" s="21">
+        <v>443</v>
+      </c>
+      <c r="W142" s="21" t="str">
+        <f t="shared" si="30"/>
+        <v>51.04%</v>
+      </c>
+    </row>
+    <row r="143" spans="9:23">
+      <c r="I143" s="10"/>
+      <c r="W143">
+        <v>58.31</v>
+      </c>
+    </row>
+    <row r="144" spans="9:23">
+      <c r="I144" s="10"/>
+    </row>
+    <row r="145" spans="9:9">
+      <c r="I145" s="10"/>
+    </row>
+    <row r="146" spans="9:9">
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="9:9">
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="9:9">
+      <c r="I148" s="10"/>
+    </row>
+    <row r="149" spans="9:9">
+      <c r="I149" s="10"/>
+    </row>
+    <row r="150" spans="9:9">
+      <c r="I150" s="10"/>
+    </row>
+    <row r="151" spans="9:9">
+      <c r="I151" s="10"/>
+    </row>
+    <row r="152" spans="9:9">
+      <c r="I152" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AB32:AI32"/>
+    <mergeCell ref="S92:W92"/>
     <mergeCell ref="AB18:AI18"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="J58:Q58"/>
     <mergeCell ref="J24:Q24"/>
     <mergeCell ref="J10:Q10"/>
     <mergeCell ref="S18:Z18"/>
@@ -11601,7 +14502,6 @@
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="S32:Z32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11613,7 +14513,7 @@
   <dimension ref="A1:Q90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:Q24"/>
+      <selection activeCell="B32" sqref="B32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11756,7 +14656,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="34" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -11766,7 +14666,7 @@
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
       <c r="J9" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K9" s="34"/>
       <c r="L9" s="34"/>
@@ -12416,7 +15316,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -12427,7 +15327,7 @@
       <c r="H24" s="34"/>
       <c r="I24" s="19"/>
       <c r="J24" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
